--- a/测试单-电子书_txt-word_161211.xlsx
+++ b/测试单-电子书_txt-word_161211.xlsx
@@ -15,16 +15,18 @@
     <sheet name="格式支持测试" sheetId="12" r:id="rId6"/>
     <sheet name="背景音乐音频格式" sheetId="11" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="14" r:id="rId8"/>
+    <sheet name="规格相关" sheetId="15" r:id="rId9"/>
+    <sheet name="系统相关" sheetId="16" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$Y$285</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$Y$288</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="795">
   <si>
     <t>编号</t>
   </si>
@@ -3642,10 +3644,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>存储卡，tts声音丢失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新增编号244~250记录。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3731,10 +3729,6 @@
   </si>
   <si>
     <t>复检已修改txt。新增编号251~255记录。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录浏览，读卡内文件过程中，拔出卡，播放一段时间后自动退到“目录浏览”列表后，tts声音丢失。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3891,10 +3885,6 @@
   </si>
   <si>
     <t>逐句朗读：若赶在当前句子朗读结束的瞬间按【5】键，停止朗读，再按1次5键无反应，需再按1次5键才恢复正常。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4215,9 +4205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大文档，打开各部分有时会跳到第二句开始读。而且不播报页码。</t>
-  </si>
-  <si>
     <r>
       <t>可播放格式</t>
     </r>
@@ -4410,101 +4397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">新壳2#机（侧面无划痕）。目录浏览-存储卡，读卡内文件过程中，拔出卡，播放一段时间后自动退到“目录浏览”列表后，tts声音丢失。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>【11月21日版】仍存在。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15#机11.21固件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，现象如下：
-（1）读卡内文件过程中，拔出卡后可以立即退到“存储卡”的文件列表，然后</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>呆一会儿才</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>会自动退到“目录浏览”菜单，但此时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tts声音丢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">失。
-（2）上述，在还没自动退到“目录浏览”菜单前，有时仍可以选择卡内文件播放，但会出现各种异常。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=》应该拔出后直接退到目录浏览菜单。避免tts声音丢失及各种异常现象。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拆分大文件，tts声音丢失</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4570,154 +4462,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>蓝牙外放。耳机外放也如此。【样例】方剂学名著09.txt。按2、8键一段时间不抬起快速翻段时。经常出现抬起按键后，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不朗读</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>或朗读的声音与反显内容</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不一致</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。
-【11月21日版】方剂学名著09.txt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>从头开始朗读时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，按上述操作，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>容易复现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提示“文件已损坏”“文件内容为空”等后，不自动下一本。=》也应该自动读下一本。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自动下一本，大文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>大文档，打开各部分有时会跳到第二句开始读。而且不播报页码。目录浏览、最近使用文件均出现。
-如果不涉及断点记忆，正常应该是从第一句读。
-具体操作：【样例】大唐双龙传160M.txt。一个部分一个部分的进入退出，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>操作到第12、13部分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时，即会出现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>跳到第二句开始读</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的现象。</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4757,10 +4506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【我的收藏】列表中实际有文件列不出来，提示无文件。后来又列出来了，中间没有做外设插拔动作。出现一次。规律不清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自动下一本，大文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4769,10 +4514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对于拆分多个部分的大文档，书签名建议增加对“部分”的区分。“第x部分第x页 xxx”。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4789,10 +4530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>背景音乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>存储卡不存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4806,10 +4543,6 @@
   </si>
   <si>
     <t>ebook-1-2，背景音乐文件夹内无文件时，不能进入音乐选择界面，没有提示，闪退到播放界面。【11月21日版】可以进入。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前语音未播完时，即按OK键不弹出相应提示。如“存储卡不存在，请插入”提示。【11月21日版】可以。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4901,10 +4634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【我的收藏】【最近使用文件】若无文件，按OK键不弹出框，而是重复播报标题栏和反显文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>【我的收藏】现象同上条。读完一本后，自动读下一本。若该“下一本”是拆分多部分的大文档，则按返回键退到文件列表后，再选择刚才读完的书进入，</t>
     </r>
@@ -4944,10 +4673,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡拔出，字串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>书签，大文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4973,55 +4698,6 @@
   <si>
     <t>目录浏览-存储卡，【样例】大唐双龙传160M.txt。有时，执行完拆分动作后，仅语音播报“第1部分”但显示界面没更新，且tts声音丢失。出现2次。
 【10月26日版】11.4测试，15#机9.2固件，插入存储卡后，第一次操作即100%出现上述tts无声现象。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储卡拔出提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读卡内文件过程中，弹出存储卡拔出的提示，但是没有语音播报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【最近使用文件】卡拔出后，选择卡内文件按OK，提示“文件已损坏”。=》提示建议改为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“文件不存在”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">。因为插入卡后仍可以打开播放，并不是损坏了。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>【12月9日版】仍存在。操作如下：
-读“大唐双龙传160M.txt中的某个部分的内容过程中。拔出卡，退到“部分”列表，在某个部分上按OK，弹出提示“文件已损坏”并播报。播完后紧接着仅语音播报“文件不存在”，但一直显示“文件已损坏”框不消失。</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5064,10 +4740,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>播报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>【最近使用文件】（1）读完上一本后，开始读下一本，若是拆分部分的大文档，如“大唐双龙传160M.txt”时，会先播报“第x部分”后播报文档名称。反了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5076,9 +4748,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>添加文件排序</t>
+  </si>
+  <si>
+    <t>先观察一下有没有复现的规律。</t>
+  </si>
+  <si>
+    <t>大文件添加部分更新</t>
+  </si>
+  <si>
+    <t>没发现显示一下主菜单的问题，有会朗读一下部分列表界面标题的问题。修改了这个问题。</t>
+  </si>
+  <si>
+    <t>同问题262添加部分更新</t>
+  </si>
+  <si>
+    <t>经过讨论暂不改</t>
+  </si>
+  <si>
+    <t>大文档没有对书签进行部分查询导致</t>
+  </si>
+  <si>
+    <t>同问题274</t>
+  </si>
+  <si>
+    <t>需要后鼎修改。</t>
+  </si>
+  <si>
+    <t>存储卡拔出，提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储卡，tts声音丢失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新壳2#机（侧面无划痕）。目录浏览-存储卡，读卡内文件过程中，拔出卡，播放一段时间后自动退到“目录浏览”列表后，tts声音丢失。
+【11月21日版】仍存在。15#机11.21固件，现象如下：
+（1）读卡内文件过程中，拔出卡后可以立即退到“存储卡”的文件列表，然后呆一会儿才会自动退到“目录浏览”菜单，但此时tts声音丢失。
+（2）上述，在还没自动退到“目录浏览”菜单前，有时仍可以选择卡内文件播放，但会出现各种异常。
+=》应该拔出后直接退到目录浏览菜单。避免tts声音丢失及各种异常现象。
+【12月9日版】有修改。但拆分部分的大文档的特殊情况未处理。具体见后续记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>11.21固件15#机【系统设置】闲置关机：永不；闲置关屏：永不；休眠：无操作15秒。
-亮屏状态，播电子书。休眠后还会一直播，但</t>
+      <t>【我的收藏】列表中实际有文件列不出来，提示无文件。后来又列出来了，中间没有做外设插拔动作。</t>
     </r>
     <r>
       <rPr>
@@ -5089,7 +4812,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>画面不更新</t>
+      <t>出现一次</t>
     </r>
     <r>
       <rPr>
@@ -5100,8 +4823,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>。按任意键唤醒，先更新画面，然后播报当前页码后即暂停播放。
-=》应该：</t>
+      <t>。规律不清</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待深测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【我的收藏】【最近使用文件】无文件时，</t>
     </r>
     <r>
       <rPr>
@@ -5112,48 +4848,748 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>播电子书过程中，不进入休眠
-【</t>
+      <t>若不等当前语音播报完毕，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按OK键不弹出框，而是重复播报标题栏和反显文字</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大文档，打开各部分有时会跳到第二句开始读。而且不播报页码。目录浏览、最近使用文件均出现。
+如果不涉及断点记忆，正常应该是从第一句读。
+具体操作：【样例】大唐双龙传160M.txt。一个部分一个部分的进入退出，操作到第12、13部分时，即会出现跳到第二句开始读的现象。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精读按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝牙外放。耳机外放也如此。【样例】方剂学名著09.txt。按2、8键一段时间不抬起快速翻段时。经常出现抬起按键后，不朗读或朗读的声音与反显内容不一致。
+【11月21日版】方剂学名著09.txt从头开始朗读时，按上述操作，容易复现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>读卡内文件过程中，弹出</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF00FF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存储卡拔出的提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>12月9日版】只要在电子书apk，不论在哪个界面，都不进入休眠。不妥。应该只在播放时不进即可。</t>
+      <t>，但是没有语音播报，或者播报不完整。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加文件排序</t>
-  </si>
-  <si>
-    <t>先观察一下有没有复现的规律。</t>
-  </si>
-  <si>
-    <t>大文件添加部分更新</t>
-  </si>
-  <si>
-    <t>没发现显示一下主菜单的问题，有会朗读一下部分列表界面标题的问题。修改了这个问题。</t>
-  </si>
-  <si>
-    <t>同问题262添加部分更新</t>
-  </si>
-  <si>
-    <t>经过讨论暂不改</t>
-  </si>
-  <si>
-    <t>大文档没有对书签进行部分查询导致</t>
-  </si>
-  <si>
-    <t>同问题274</t>
-  </si>
-  <si>
-    <t>需要后鼎修改。</t>
+    <t>卡拔出，字串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡拔出，播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡拔出后，在卡内文件列表中，选某个文件按OK后，提示“文件不存在”后，未播报标题栏及反显项文字。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡拔出，大文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播报，大文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【最近使用文件】自动下一本若是拆分部分大文档时，会先显示下文件列表，再进入播放界面。小文档没问题。
+魏：锁屏方法问题导致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当前语音未播完时，即按OK键不弹出相应提示。如“存储卡不存在，请插入”提示。【11月21日版】可以。【12月11日版】“存储卡不存在，请插入”提示OK。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其他提示框待深测。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.21固件15#机【系统设置】闲置关机：永不；闲置关屏：永不；休眠：无操作15秒。
+亮屏状态，播电子书。休眠后还会一直播，但画面不更新。按任意键唤醒，先更新画面，然后播报当前页码后即暂停播放。
+=》应该：播电子书过程中，不进入休眠
+【12月9日版】只要在电子书apk，不论在哪个界面，都不进入休眠。不妥。应该只在播放时不进即可。
+12.11讨论：电子书内容播报过程中，以及列表长按键自动浏览过程中，不允许休眠。其他地方暂按休眠处理。后续再优化，根据声音判断，只要有声音就不允许休眠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【12月11日版】【规格实现】拆分部分大文档中的某个部分的内容播放过程中，拔出卡，直接退到文件列表。在该文件上再按OK，弹出提示“文件不存在”并播报。OK。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【最近使用文件】卡拔出后，选择卡内文件按OK，提示“文件已损坏”。=》提示建议改为“文件不存在”。因为插入卡后仍可以打开播放，并不是损坏了。
+【12月9日版】仍存在。操作如下：
+读“大唐双龙传160M.txt中的某个部分的内容过程中。拔出卡，退到“部分”列表，在某个部分上按OK，弹出提示“文件已损坏”并播报。播完后紧接着仅语音播报“文件不存在”，但一直显示“文件已损坏”框不消失。
+【12月11日版】【规格实现】拆分部分大文档中的某个部分的内容播放过程中，拔出卡，直接退到文件列表。在该文件上再按OK，弹出提示“文件不存在”并播报。OK。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【12月11日版】【规格实现】拆分部分大文档中的各部分的列表画面，拔出卡，画面不更新。待弹出“存储卡已拔出”的提示后，在某个部分上按OK，会弹出提示“文件不存在”并播报。OK。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【目录浏览】读卡内文件，若是拆分部分的大文档，如“大唐双龙传160M.txt”。在各部分的列表画面，拔出卡。待弹出“存储卡已拔出”的提示后，在某个部分上按OK，仍会读一会儿，然后会自动退到部分列表，tts丢失。而且中间会闪下主菜单。
+【12月11日版】【规格实现】拆分部分大文档中的各部分的列表画面，拔出卡，画面不更新。待弹出“存储卡已拔出”的提示后，在某个部分上按OK，会弹出提示“文件不存在”并播报。OK。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动翻到尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">【翻行翻页：到尾处理】【自动读下一本】翻行翻页操作时，当提示“已经到结尾”时，再按相应键直接打开下一本读了。
+=》应该提示“已经到结尾”后暂停，再按键往后翻行翻页，则重复提示。不是自动读下本书。具体见下面规格说明。
+【9月19日版】存在。【9月12日版】存在。【8月28日版】手动操作到结尾后，再按相应键退到上级列表。
+【9月21日版】未改彻底。翻行翻页到结尾后，再继续按翻行翻页键可以不往下走了。但是，仍存在下面问题：
+（1）按键抬起后会自动读下本书。应该到尾后再按翻行翻页键后，暂停。除非按ok或5键恢复后，读到结尾才自动下一本。用户应用场景：翻到结尾后，还需要往回翻。
+（2）提示内容为“已经读完”。应该与全文自动读完有区别，为“已经到结尾”。不论是否为当前目录的最后一本书，都是“已经到结尾”。
+=====================================================================
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">〖细化规格〗翻行翻页到尾处理
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已经在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最后一屏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时再按下键或右键往后翻行翻页，则语音播报并提示“已经到结尾”，然后暂停朗读。按OK键</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或5键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可恢复全文朗读，若有反显光标，则从光标所在句的开头开始朗读并反显，否则从当前屏第1行第1字开始朗读并反显。（注：完善恢复朗读起始位置。）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动到尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">【全文朗读：到尾处理】朗读完当前电子书，没有任何提示即自动打开下一本书朗读。
+=》应该先提示“已经读完”，然后自动打开当前目录中的下本书朗读。
+【9月12日版】存在。【8月28日版】读完后退到上级列表，不能自动读下一本。
+【9月19日版】【9月21日版】未改彻底。仅语音提示了，没有弹出提示框“已经读完”。
+【10月13日版】提示“已经读完”后，返回到列表，播报标题栏及反显项后，未自动打开下一本。见后面编号220说明。
+=====================================================================
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〖细化规格〗全文朗读到尾处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(1)全文朗读完当前电子书，语音播报及弹出提示“已经读完”，然后自动打开当前目录下一本书朗读。最后一本书读完后，语音播报及弹出提示“已经读完最后一本书”。（注：维持原规格描述）
+(2)暂停恢复后，全文模式读到结尾的情况，也按上面描述处理。
+(3)按快捷键手动切换位置朗读，如翻行翻页、翻段/句/字等操作时，当提示“已经到结尾”后，再按相应键往后翻时仍继续提示“已经到结尾”，不自动读下本书。
+(4)精读模式读到结尾时，按精读模式处理，不自动读下本书。（注：完善暂停恢复后说明，手动切换到结尾说明）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐段到头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【逐段：到头处理】第一段第一句时按2键切上一段，提示“已经到开头”，然后处于暂停状态，按OK键或5键恢复朗读后，从当前反显的下一句开始朗读（若当前反显句子未读完，则漏读）。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=&gt;应为：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">到头后从当前反显句子开头（即文档开头）自动开始读。
+（【样例】中国梦.txt）
+【9月19日版】存在。【9月12日版】存在。【8月28日版】提示完从第一段第二句开始读。应该从第一句开始。
+【9月21日版】未改彻底。提示“已经到开头”后，未自动开始朗读。
+【10月13日版】按照10月8日晚上讨论的规格：已到开头后暂停，按【5】或【OK】键从头朗读。实现OK
+==================================================================
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〖细化规格〗逐段到文档头处理（逐句在第一句时，逐字在第一字时，也按此同理处理）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+朗读状态下，
+反显在文档开头</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时按2键切上一段，则语音播报并提示“已经到开头”，然后从当前反显句子开头（即文档开头）自动开始朗读并反显。（注：目前实现的是提示完即暂停，恢复后从第一段第二句开始读）
+暂停状态下，
+在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一段/第一屏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时再按2键切上一段，则语音播报并提示“已经到开头”，然后保持暂停状态。按OK键或5键可恢复朗读，从第一段开头（即文档开头）开始朗读并反显。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">【逐段：到尾处理】最后一段的最后一屏时按右键翻页，或最后一段时按8键切下一段，直接打开下一本读了。
+=》应为：这种手动操作到尾时，出现相应提示后暂停朗读，不是自动读下本书。
+=====================================================================
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">〖细化规格〗逐段到文档尾处理（逐句在最后一句时，逐字在最后一字时，也按此同理处理）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不论朗读状态还是暂停状态下，
+文档结尾</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最后一段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时再按8键切下一段，则语音播报并提示“已经到结尾”，然后暂停朗读。
+按OK键或5键可恢复朗读，从当前反显句子开头开始朗读并反显，若当前屏无反显句子则从当前屏开头开始朗读并反显。（注：目前实现的是读下本书）【9月21日版】存在</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【我的收藏】【最近使用文件】  【8月28日版】存在
+（1）无文件时没有提示
+〖规格〗针对【目录浏览】、【我的收藏】、【最近使用文件】菜单列表。选择其中某一项按【确认】键后，若没有对应文件可显示，则提示“无文件”后即回到此列表界面，不往下进入。
+【9月3日版】未改彻底。【9月12日版】存在。具体说明如下：
+&gt; 若一开始就是空的，进入后，仅语音提示无文件，然后即退出；=》应该不往下级进入，仅弹出提示框“无文件”及语音播报。【目录浏览】进入“内存”或“存储卡”时，若无文件，也应按此处理。【9月21日版】存在。见后面记录。
+&gt; 若将列表中原有的文件逐一删除，删光后，停在我的收藏空页面不动了，没有无文件提示。=》逐一删光后，也应该弹出提示框“无文件”及语音播报，然后立即自动返回到上级列表。【9月21日版】ok
+（2）无文件时，按上下及OK键，回到上级菜单，同时tts声音丢失。
+【9月3日版】仍存在。若将列表中原有的文件逐一删除，删光后，再按上下及OK键操作即可复现。【目录浏览】进入“内存”或“存储卡”时，若无文件，连续操作几次，也会出现上述现象。【9月12日版】存在
+（3）删除、清空、添加收藏后没有相应提示。
+【9月3日版】仍存在。=》操作成功或失败后，均应有语音及文字框提示：“删除成功”“删除失败”“清空成功”“清空失败”等。具体提示内容参照《通用》章节3.3.2、3.3.3部分描述。【9月12日版】存在【9月21日版】存在。待采用公共代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【提示框、对话框】风格需按规格需求统一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐字选词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【精读模式】1、3键功能未实现？
+【9月12日版】实现不完善。处理建议：
+（1）1键选定起点，然后7、9键逐字过程中，之前反显保留不消失，3键选定终点。类似鼠标拖曳操作，逐字过程中也反显一串，不是一字。【9月30号版本】遗留
+（2）【规格完善】按1、3键后，增加语音及提示框如“选定起点”“选定终点”。【9月30号版本】ok
+（3）【规格完善】可以按7键往前选，也可以按9键往后选。类似鼠标拖曳操作，可以往前拖，也可以往后拖。【9月30号版本】遗留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【书签管理】增加书签：没有tts语音
+【9月3日版】存在。进入增加书签的编辑状态后均无tts声。
+【9月12日版】待细化完善语音提示规格。
+【9月21号版】暂时不实现此功能，后续实现再测。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【书签管理】删除书签/清空书签：“确认删除 是 否”“确认清空 是 否”对话框需参照规格通用章节部分描述完善。包括颜色、默认反显、语音提示、成功失败提示框等细节。
+【9月3日版】未改彻底。参照规格通用章节3.7、3.8部分描述完善，统一风格。
+【9月12日版】存在。公用控件，需统一风格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向键输入页码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">【跳转页码】方向键输入页码：连续按左键删位，到头时未显示最小页码1，直接循环跳到最大页码。反之，按右键，到头时未显示最大页码，直接循环跳到最小页码1。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〖规格〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+按【左】键，删除个位数字，同时语音提示修改后的数字。
+按【右】键，以十倍数增加，直到最大页码数。如，当显示“3”时，按【右】键会依次变为“30”“300”“3000”。若总页数为3852页，当为“3000”时，再按【右】键，则直接变为最大页码数“3852”。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〖2016/5/20 QQ沟通确认〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">左键删个位数字时，若只有一位数字，删除后，显示为空，语音提示“请输入页码”。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〖修改建议〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按规格及QQ沟通确认修改
+【9月21日版】未改彻底。产生新问题，见后面记录说明。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字键输入页码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【跳转页码】数字键输入，与规格定义不一致，需按规格修改。
+〖规格〗
+* 直接按数字键，清空编辑框中当前显示页码并输入要跳转的页码。如，要跳转至页码“91”，则直接依次按数字键【9】、【1】输入即可。【9月12日版】按数字键，在当前页码后面增加位数。如当前第22页，按6键后变为“226”。=》应该先清空当前“22”，然后重新输入所按数字键对应的数字“6”。【9月21日版】ok
+* 若输入的页码大于最大页码，则自动纠正设置为最大页码。【9月12日版】【9月3日版】均纠正为“1”，不对。【9月21日版】存在。见后续记录说明。
+* 按数字键输入的过程中，若按下了【上】或【下】或【左】或【右】键，则数字输入模式结束，并基于当前已经输入的页码执行方向键输入方式；【9月12日版】【9月3日版】按数字键输入过程中，按方向键操作后，再按数字键仍可接续输入。=》应该是再按数字键时，同初始进行数字键输入方式的处理，即清空当前，重新输入。【9月21日版】ok
+* 若按了【菜单】或【*】或【#】等无效键，则提示“请输入页码”稍停顿后播报已经输入的页码。【9月12日版】【9月3日版】无“请输入页码”提示，应该有。【9月21日版】ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【书签管理】查看书签/删除：列表顺序，应是倒序，最新增加的在最上面一行
+【规格】列表显示时，最早创建的书签放在最后，最近创建的书签放在最开头。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【到头到尾】【字号设置：大字号】
+有些文档自动读到尾后，一直提示”已经到结尾",很多遍，除非按返回键退出。（【样例】“my dream.txt"）
+【9月12日版】My dream是当前目录的最后一本书。读完提示“已经到结尾”后暂停。提示内容不对。
+【规格】全文朗读：（自动下一本）
+* 当前电子书是目录中的最后一本书，则停止朗读，并提示“已经读完最后一本书”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【到头到尾】【字号设置：大字号】
+有些文档自动读到尾后，没有提示”已经到结尾",直接退出到文件列表界面。
+（【样例】“中国梦.txt”\“中数世界上最大的岛群.txt”\“自建文件(down机）.txt”\“百家姓”）
+【9月12日版】无提示，自动读下一本书。应该有提示。
+【规格】全文朗读：（自动下一本）
+* 当前电子书全文朗读完毕，语音播报并提示“已经读完”，并自动打开该书所在目录中的下一本书。
+【9月21日版】未改彻底。没弹出提示框。重复记录。见编号48，自动下一本相关记录说明。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【书签管理】删除书签：逐一删除书签，删光后的处理不妥当。
+【规格】如果所有书签都删除了，则返回到电子书播放主界面。
+【规格完善】删光后增加语音及文字提示如“无书签”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【背景音乐】音乐选择：无文件时没有提示。
+【规格】若没有可选文件，则语音播报并弹出提示“背景音乐目录，没有音乐文件”，提示完自动返回电子书播放主界面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【词典反查】反查结果解释文本播放界面，按菜单键保存到生词本，没有任何提示。
+=》应该类似添加收藏操作，成功失败均提示。如下：
+〖规格完善细化〗保存成功后，语音播报及弹出提示“成功保存到生词本”；
+               若已保存过，则不再保存，语音播报及弹出提示“文件已存在”。
+百科查询同此。提示文字为“成功保存到本机”。
+【9月21日版】存在【9月30日版】词典反查OK。百科查询待实现后测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【词典反查】按0键反查后，若有结果直接打开播放。感觉有点突兀。
+【规格完善建议】按0键后先语音及文字提示“词典查询”，提示完毕，再显示结果。
+百科查询同此。提示“百科查询”。
+【9月21日版】存在存在【9月30日版】词典反查【0】键实现，OK。百科查询待实现后测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页码播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【页码播报】未实现
+〖规格〗按【#】键播报当前页码；
+ * 若处于暂停朗读状态，直接播报出当前页码，播报完毕后继续保持当前暂停朗读状态。
+ * 若处于朗读状态，打断朗读并播报页码，播报完毕后继续当前模式的朗读；
+【9月30日版】实现为不论暂停态还是朗读态，按【#】键播报当前页码后均暂停。按OK或5键后继续，但是从下一句开始的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精读到头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐字/句/段模式提示已经到开头后，不自动开始读。而且若是逐段，按【5】键也不恢复读。
+=》应该自动开始读第一句。【9月21日版】存在
+【10月13日版】根据10月8日晚讨论规格修改。不自动开始读，按【5】或【OK】键可以恢复，从开头读。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐字选词按【*】键查询后，朗读查询结果界面下，按返回键回到源文档，没有语音反馈。
+【10月13日版】按照10月8日讨论规格，返回后只播报页码，按相应键恢复朗读。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全文朗读过程中按【#】键播报页码后，按OK或5键，直接跳到下一句恢复了，不妥，存在漏读。=》处理建议：从当前句被打断的位置继续朗读。
+【10月13日版】按照10月8日讨论规格，按OK或5键从反显句开头开始恢复朗读。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能菜单播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全文朗读过程中进入功能菜单后，不做任何操作。然后不等“功能菜单 书签管理”播报完毕即按【返回】键到文本播放界面，但“功能菜单 书签管理”播报仍继续，未打断。播完“功能菜单 书签管理”后自动恢复朗读文本。
+=》应该按【返回】键后即打断功能菜单的播报，直接开始朗读文本。
+【10月13日版】按照10月8日讨论规格，播报页码后，按OK或5键从反显句开头开始恢复朗读。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全文朗读过程中进入功能菜单后，不做任何操作。等待“功能菜单 书签管理”播报完毕，然后按【返回】键回到文本播放界面，无朗读（按OK键可以恢复），也无其他声音反馈。不妥。
+=》处理建议：(1)返回后自动从当前反显恢复朗读；
+（2）如果不能实现自动恢复朗读，则建议增加其他语音，如播报页码。
+【10月13日版】按照10月8日讨论规格，播报页码后，按OK或5键从反显句开头开始恢复朗读。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐句时“www.baidu.com”读成“www”“句号”“baidu”“句号”“com”。不妥。=》应该按一个单词处理。具体见规格文档P5“英语单词特殊处理”部分说明。【样例】标点符号朗读分割.txt。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近使用文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书已经读完后，再从最近使用文件进入打开这本书，每次进入都是到结尾位置，读完就退出，不妥。=》处理建议：读完的书，再进入，直接从头。
+【规格】关于断点记忆部分说明：“进入断点文件播放结束后，须清除该条断点记录信息。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？不同字号下，书签列表记录的页码会更新吗
+【规格处理】暂时这样测试，发布时电子书中固定字号。此问题也就不存在。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡拔出，字串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【最近使用文件】卡拔出后，选择卡内文件按OK，提示“文件已损坏”。=》提示建议改为“文件不存在”。因为插入卡后仍可以打开播放，并不是损坏了。
+【12月9日版】仍存在。操作如下：
+读“大唐双龙传160M.txt中的某个部分的内容过程中。拔出卡，退到“部分”列表，在某个部分上按OK，弹出提示“文件已损坏”并播报。播完后紧接着仅语音播报“文件不存在”，但一直显示“文件已损坏”框不消失。
+【12月11日版】【规格实现】拆分部分大文档中的某个部分的内容播放过程中，拔出卡，直接退到文件列表。在该文件上再按OK，弹出提示“文件不存在”并播报。OK。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书签，大文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分多个部分的大文档。在第2部分插入的书签，查看书签跳转后，跳到第1部分的相应页码。而且会出现反显半个字。见附图。（【样例】大唐双龙传160M.txt，第2部分）
+【12月9日版】【规格实现】：书签增加、查看都只是针对当前部分的，不跨部分。故上述现象不会存在。OK。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接上条。查看书签跳转，跳到第1部分朗读后，再退回到“部分”列表，反显位置与实际朗读的部分不一致，仍是跳转书签前所在的部分。（【样例】大唐双龙传160M.txt，第2部分）
+=》反显应该跟随实际朗读的部分更新。
+【12月9日版】【规格实现】：书签增加、查看都只是针对当前部分的，不跨部分。故上述现象不会存在。OK。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡拔出，大文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【目录浏览】读卡内文件，若是拆分部分的大文档，如“大唐双龙传160M.txt”。在各部分的列表画面，拔出卡。待弹出“存储卡已拔出”的提示后，在某个部分上按OK，仍会读一会儿，然后会自动退到部分列表，tts丢失。而且中间会闪下主菜单。
+【12月11日版】【规格实现】拆分部分大文档中的各部分的列表画面，拔出卡，画面不更新。待弹出“存储卡已拔出”的提示后，在某个部分上按OK，会弹出提示“文件不存在”并播报。OK。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6213,7 +6649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="455">
+  <cellXfs count="465">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7404,8 +7840,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -7592,6 +8028,36 @@
     </xf>
     <xf numFmtId="176" fontId="46" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="64">
@@ -7660,7 +8126,27 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -7966,10 +8452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8252,7 +8738,7 @@
         <v>42669</v>
       </c>
       <c r="F16" s="325" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="295" customFormat="1">
@@ -8269,7 +8755,7 @@
         <v>42669</v>
       </c>
       <c r="F17" s="325" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18" spans="2:6" s="358" customFormat="1">
@@ -8286,7 +8772,7 @@
         <v>42669</v>
       </c>
       <c r="F18" s="365" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="358" customFormat="1">
@@ -8303,7 +8789,7 @@
         <v>42677</v>
       </c>
       <c r="F19" s="365" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="20" spans="2:6" s="370" customFormat="1">
@@ -8320,7 +8806,7 @@
         <v>42695</v>
       </c>
       <c r="F20" s="365" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="21" spans="2:6" s="370" customFormat="1">
@@ -8337,7 +8823,7 @@
         <v>42695</v>
       </c>
       <c r="F21" s="365" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -8364,7 +8850,7 @@
         <v>78</v>
       </c>
       <c r="F26" s="351" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="2:6" s="295" customFormat="1">
@@ -8373,32 +8859,19 @@
         <v>246</v>
       </c>
       <c r="F27" s="351" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" s="295" customFormat="1" ht="27">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" s="295" customFormat="1">
       <c r="C28" s="157"/>
-      <c r="E28" s="295">
-        <v>250</v>
-      </c>
-      <c r="F28" s="353" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="E29">
-        <v>263</v>
-      </c>
-      <c r="F29" t="s">
-        <v>637</v>
-      </c>
+      <c r="F28" s="353"/>
     </row>
     <row r="30" spans="2:6" s="358" customFormat="1">
       <c r="C30" s="157"/>
     </row>
     <row r="31" spans="2:6">
       <c r="E31" s="295" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F31" s="157"/>
     </row>
@@ -8435,7 +8908,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="D37" s="358" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E37" s="358" t="s">
         <v>418</v>
@@ -8443,7 +8916,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="D38" s="370" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="352" customFormat="1" ht="67.5">
@@ -8463,21 +8936,31 @@
         <v>42669</v>
       </c>
       <c r="F40" s="364" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G40" s="353" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H40" s="359" t="s">
         <v>269</v>
       </c>
       <c r="I40" s="352" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="F44" s="391" t="s">
-        <v>709</v>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="F45" s="393" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="F46" s="393" t="s">
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -8487,15 +8970,391 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="55.625" customWidth="1"/>
+    <col min="14" max="14" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="27">
+      <c r="A1" s="454" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="210" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="210" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="E1" s="210" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="210" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="297" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="297" t="s">
+        <v>431</v>
+      </c>
+      <c r="I1" s="298" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="298" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="299" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="395" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="396" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="396" t="s">
+        <v>432</v>
+      </c>
+      <c r="O1" s="397" t="s">
+        <v>433</v>
+      </c>
+      <c r="P1" s="398" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="421" customFormat="1" ht="40.5">
+      <c r="A2" s="162">
+        <v>78</v>
+      </c>
+      <c r="B2" s="407" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="407" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="420">
+        <v>42610</v>
+      </c>
+      <c r="E2" s="324">
+        <v>42612</v>
+      </c>
+      <c r="F2" s="324" t="s">
+        <v>664</v>
+      </c>
+      <c r="G2" s="326" t="s">
+        <v>665</v>
+      </c>
+      <c r="H2" s="407" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="407" t="s">
+        <v>590</v>
+      </c>
+      <c r="J2" s="339"/>
+      <c r="K2" s="339"/>
+      <c r="L2" s="407"/>
+      <c r="M2" s="407"/>
+      <c r="N2" s="407"/>
+      <c r="O2" s="420"/>
+      <c r="P2" s="442" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="394" customFormat="1" ht="40.5">
+      <c r="A3" s="162">
+        <v>213</v>
+      </c>
+      <c r="B3" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="417">
+        <v>42651</v>
+      </c>
+      <c r="E3" s="364">
+        <v>42653</v>
+      </c>
+      <c r="F3" s="364" t="s">
+        <v>371</v>
+      </c>
+      <c r="G3" s="288" t="s">
+        <v>372</v>
+      </c>
+      <c r="H3" s="401"/>
+      <c r="I3" s="394" t="s">
+        <v>414</v>
+      </c>
+      <c r="J3" s="393"/>
+      <c r="K3" s="393"/>
+      <c r="L3" s="401" t="s">
+        <v>273</v>
+      </c>
+      <c r="M3" s="393"/>
+      <c r="N3" s="394" t="s">
+        <v>516</v>
+      </c>
+      <c r="O3" s="440">
+        <v>42655</v>
+      </c>
+      <c r="P3" s="394" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="430" customFormat="1" ht="40.5">
+      <c r="A4" s="162">
+        <v>248</v>
+      </c>
+      <c r="B4" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="417">
+        <v>42666</v>
+      </c>
+      <c r="E4" s="364">
+        <v>42669</v>
+      </c>
+      <c r="F4" s="364" t="s">
+        <v>599</v>
+      </c>
+      <c r="G4" s="353" t="s">
+        <v>598</v>
+      </c>
+      <c r="I4" s="430" t="s">
+        <v>590</v>
+      </c>
+      <c r="L4" s="430" t="s">
+        <v>273</v>
+      </c>
+      <c r="N4" s="430" t="s">
+        <v>643</v>
+      </c>
+      <c r="O4" s="440">
+        <v>42680</v>
+      </c>
+      <c r="P4" s="430" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="430" customFormat="1" ht="40.5">
+      <c r="A5" s="162">
+        <v>251</v>
+      </c>
+      <c r="B5" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="417">
+        <v>42666</v>
+      </c>
+      <c r="E5" s="364">
+        <v>42669</v>
+      </c>
+      <c r="F5" s="364" t="s">
+        <v>571</v>
+      </c>
+      <c r="G5" s="353" t="s">
+        <v>592</v>
+      </c>
+      <c r="H5" s="401" t="s">
+        <v>269</v>
+      </c>
+      <c r="I5" s="430" t="s">
+        <v>590</v>
+      </c>
+      <c r="L5" s="430" t="s">
+        <v>273</v>
+      </c>
+      <c r="N5" s="430" t="s">
+        <v>644</v>
+      </c>
+      <c r="O5" s="440">
+        <v>42674</v>
+      </c>
+      <c r="P5" s="394" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="430" customFormat="1" ht="40.5">
+      <c r="A6" s="162">
+        <v>258</v>
+      </c>
+      <c r="B6" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="417">
+        <v>42669</v>
+      </c>
+      <c r="E6" s="364">
+        <v>42675</v>
+      </c>
+      <c r="F6" s="364" t="s">
+        <v>571</v>
+      </c>
+      <c r="G6" s="353" t="s">
+        <v>591</v>
+      </c>
+      <c r="H6" s="401" t="s">
+        <v>269</v>
+      </c>
+      <c r="I6" s="430" t="s">
+        <v>590</v>
+      </c>
+      <c r="L6" s="430" t="s">
+        <v>273</v>
+      </c>
+      <c r="N6" s="430" t="s">
+        <v>649</v>
+      </c>
+      <c r="O6" s="447">
+        <v>42676</v>
+      </c>
+      <c r="P6" s="430" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="394" customFormat="1" ht="27">
+      <c r="A7" s="162">
+        <v>280</v>
+      </c>
+      <c r="B7" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="401" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="417">
+        <v>42713</v>
+      </c>
+      <c r="E7" s="364">
+        <v>42715</v>
+      </c>
+      <c r="F7" s="390" t="s">
+        <v>533</v>
+      </c>
+      <c r="G7" s="354" t="s">
+        <v>718</v>
+      </c>
+      <c r="H7" s="390" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="390" t="s">
+        <v>719</v>
+      </c>
+      <c r="N7" s="394" t="s">
+        <v>709</v>
+      </c>
+      <c r="O7" s="440"/>
+    </row>
+    <row r="8" spans="1:16" s="394" customFormat="1" ht="27">
+      <c r="A8" s="162">
+        <v>281</v>
+      </c>
+      <c r="B8" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="401" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="417">
+        <v>42713</v>
+      </c>
+      <c r="E8" s="364">
+        <v>42715</v>
+      </c>
+      <c r="F8" s="390" t="s">
+        <v>710</v>
+      </c>
+      <c r="G8" s="354" t="s">
+        <v>725</v>
+      </c>
+      <c r="H8" s="390" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="390" t="s">
+        <v>719</v>
+      </c>
+      <c r="N8" s="394" t="s">
+        <v>709</v>
+      </c>
+      <c r="O8" s="440"/>
+    </row>
+    <row r="9" spans="1:16" s="394" customFormat="1" ht="40.5">
+      <c r="A9" s="162">
+        <v>286</v>
+      </c>
+      <c r="B9" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="417">
+        <v>42715</v>
+      </c>
+      <c r="E9" s="364">
+        <v>42715</v>
+      </c>
+      <c r="F9" s="390" t="s">
+        <v>668</v>
+      </c>
+      <c r="G9" s="354" t="s">
+        <v>732</v>
+      </c>
+      <c r="H9" s="390"/>
+      <c r="I9" s="390" t="s">
+        <v>719</v>
+      </c>
+      <c r="O9" s="440"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I2:I9">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
+      <formula>NOT(ISERROR(SEARCH("返回",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
+      <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P285"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:P288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H279" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G287" sqref="G287"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8580,7 +9439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="225" customFormat="1" ht="81">
+    <row r="3" spans="1:16" s="225" customFormat="1" ht="81" hidden="1">
       <c r="A3" s="162">
         <v>1</v>
       </c>
@@ -8624,7 +9483,7 @@
       </c>
       <c r="P3" s="408"/>
     </row>
-    <row r="4" spans="1:16" s="70" customFormat="1" ht="81">
+    <row r="4" spans="1:16" s="70" customFormat="1" ht="81" hidden="1">
       <c r="A4" s="162">
         <v>2</v>
       </c>
@@ -8662,7 +9521,7 @@
       </c>
       <c r="P4" s="434"/>
     </row>
-    <row r="5" spans="1:16" s="70" customFormat="1" ht="54">
+    <row r="5" spans="1:16" s="70" customFormat="1" ht="54" hidden="1">
       <c r="A5" s="162">
         <v>3</v>
       </c>
@@ -8702,7 +9561,7 @@
       </c>
       <c r="P5" s="434"/>
     </row>
-    <row r="6" spans="1:16" s="170" customFormat="1" ht="54">
+    <row r="6" spans="1:16" s="170" customFormat="1" ht="54" hidden="1">
       <c r="A6" s="162">
         <v>4</v>
       </c>
@@ -8744,7 +9603,7 @@
       </c>
       <c r="P6" s="434"/>
     </row>
-    <row r="7" spans="1:16" s="232" customFormat="1" ht="40.5">
+    <row r="7" spans="1:16" s="232" customFormat="1" ht="40.5" hidden="1">
       <c r="A7" s="162">
         <v>5</v>
       </c>
@@ -8784,7 +9643,7 @@
       </c>
       <c r="P7" s="434"/>
     </row>
-    <row r="8" spans="1:16" s="70" customFormat="1" ht="27">
+    <row r="8" spans="1:16" s="70" customFormat="1" ht="27" hidden="1">
       <c r="A8" s="162">
         <v>6</v>
       </c>
@@ -8824,7 +9683,7 @@
       </c>
       <c r="P8" s="434"/>
     </row>
-    <row r="9" spans="1:16" s="70" customFormat="1" ht="40.5">
+    <row r="9" spans="1:16" s="70" customFormat="1" ht="40.5" hidden="1">
       <c r="A9" s="162">
         <v>7</v>
       </c>
@@ -8860,7 +9719,7 @@
       <c r="O9" s="411"/>
       <c r="P9" s="434"/>
     </row>
-    <row r="10" spans="1:16" s="340" customFormat="1" ht="54">
+    <row r="10" spans="1:16" s="340" customFormat="1" ht="54" hidden="1">
       <c r="A10" s="162">
         <v>8</v>
       </c>
@@ -8880,13 +9739,13 @@
         <v>241</v>
       </c>
       <c r="G10" s="326" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H10" s="309" t="s">
         <v>269</v>
       </c>
       <c r="I10" s="309" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J10" s="339"/>
       <c r="K10" s="338">
@@ -8897,7 +9756,7 @@
       </c>
       <c r="M10" s="407"/>
       <c r="N10" s="407" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O10" s="420">
         <v>42660</v>
@@ -8906,7 +9765,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="92" customFormat="1" ht="40.5">
+    <row r="11" spans="1:16" s="92" customFormat="1" ht="40.5" hidden="1">
       <c r="A11" s="162">
         <v>9</v>
       </c>
@@ -8944,7 +9803,7 @@
       <c r="O11" s="413"/>
       <c r="P11" s="433"/>
     </row>
-    <row r="12" spans="1:16" s="70" customFormat="1" ht="54">
+    <row r="12" spans="1:16" s="70" customFormat="1" ht="54" hidden="1">
       <c r="A12" s="162">
         <v>10</v>
       </c>
@@ -8980,7 +9839,7 @@
       <c r="O12" s="411"/>
       <c r="P12" s="434"/>
     </row>
-    <row r="13" spans="1:16" s="70" customFormat="1" ht="27">
+    <row r="13" spans="1:16" s="70" customFormat="1" ht="27" hidden="1">
       <c r="A13" s="162">
         <v>11</v>
       </c>
@@ -9016,7 +9875,7 @@
       <c r="O13" s="411"/>
       <c r="P13" s="434"/>
     </row>
-    <row r="14" spans="1:16" s="232" customFormat="1" ht="81">
+    <row r="14" spans="1:16" s="232" customFormat="1" ht="81" hidden="1">
       <c r="A14" s="162">
         <v>12</v>
       </c>
@@ -9054,7 +9913,7 @@
       </c>
       <c r="P14" s="434"/>
     </row>
-    <row r="15" spans="1:16" s="232" customFormat="1" ht="67.5">
+    <row r="15" spans="1:16" s="232" customFormat="1" ht="67.5" hidden="1">
       <c r="A15" s="162">
         <v>13</v>
       </c>
@@ -9092,7 +9951,7 @@
       </c>
       <c r="P15" s="434"/>
     </row>
-    <row r="16" spans="1:16" s="232" customFormat="1" ht="40.5">
+    <row r="16" spans="1:16" s="232" customFormat="1" ht="40.5" hidden="1">
       <c r="A16" s="162">
         <v>14</v>
       </c>
@@ -9130,7 +9989,7 @@
       </c>
       <c r="P16" s="434"/>
     </row>
-    <row r="17" spans="1:16" s="232" customFormat="1" ht="40.5">
+    <row r="17" spans="1:16" s="232" customFormat="1" ht="40.5" hidden="1">
       <c r="A17" s="162">
         <v>15</v>
       </c>
@@ -9168,7 +10027,7 @@
       </c>
       <c r="P17" s="434"/>
     </row>
-    <row r="18" spans="1:16" s="225" customFormat="1" ht="40.5">
+    <row r="18" spans="1:16" s="225" customFormat="1" ht="40.5" hidden="1">
       <c r="A18" s="162">
         <v>16</v>
       </c>
@@ -9208,7 +10067,7 @@
       </c>
       <c r="P18" s="408"/>
     </row>
-    <row r="19" spans="1:16" s="290" customFormat="1" ht="243">
+    <row r="19" spans="1:16" s="290" customFormat="1" ht="243" hidden="1">
       <c r="A19" s="162">
         <v>17</v>
       </c>
@@ -9248,7 +10107,7 @@
       </c>
       <c r="P19" s="442"/>
     </row>
-    <row r="20" spans="1:16" s="290" customFormat="1" ht="67.5">
+    <row r="20" spans="1:16" s="290" customFormat="1" ht="67.5" hidden="1">
       <c r="A20" s="162">
         <v>18</v>
       </c>
@@ -9288,7 +10147,7 @@
       </c>
       <c r="P20" s="442"/>
     </row>
-    <row r="21" spans="1:16" s="340" customFormat="1" ht="216">
+    <row r="21" spans="1:16" s="340" customFormat="1" ht="216" hidden="1">
       <c r="A21" s="162">
         <v>19</v>
       </c>
@@ -9330,7 +10189,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="225" customFormat="1" ht="81">
+    <row r="22" spans="1:16" s="225" customFormat="1" ht="81" hidden="1">
       <c r="A22" s="162">
         <v>20</v>
       </c>
@@ -9368,7 +10227,7 @@
       </c>
       <c r="P22" s="408"/>
     </row>
-    <row r="23" spans="1:16" s="170" customFormat="1" ht="108">
+    <row r="23" spans="1:16" s="170" customFormat="1" ht="108" hidden="1">
       <c r="A23" s="162">
         <v>21</v>
       </c>
@@ -9406,7 +10265,7 @@
       </c>
       <c r="P23" s="434"/>
     </row>
-    <row r="24" spans="1:16" s="170" customFormat="1" ht="40.5">
+    <row r="24" spans="1:16" s="170" customFormat="1" ht="40.5" hidden="1">
       <c r="A24" s="162">
         <v>22</v>
       </c>
@@ -9444,7 +10303,7 @@
       </c>
       <c r="P24" s="434"/>
     </row>
-    <row r="25" spans="1:16" s="225" customFormat="1" ht="40.5">
+    <row r="25" spans="1:16" s="225" customFormat="1" ht="40.5" hidden="1">
       <c r="A25" s="162">
         <v>23</v>
       </c>
@@ -9484,7 +10343,7 @@
       </c>
       <c r="P25" s="408"/>
     </row>
-    <row r="26" spans="1:16" s="70" customFormat="1" ht="54">
+    <row r="26" spans="1:16" s="70" customFormat="1" ht="54" hidden="1">
       <c r="A26" s="162">
         <v>24</v>
       </c>
@@ -9518,7 +10377,7 @@
       <c r="O26" s="411"/>
       <c r="P26" s="434"/>
     </row>
-    <row r="27" spans="1:16" s="232" customFormat="1" ht="148.5">
+    <row r="27" spans="1:16" s="232" customFormat="1" ht="148.5" hidden="1">
       <c r="A27" s="162">
         <v>25</v>
       </c>
@@ -9560,7 +10419,7 @@
       </c>
       <c r="P27" s="434"/>
     </row>
-    <row r="28" spans="1:16" s="290" customFormat="1" ht="256.5">
+    <row r="28" spans="1:16" s="290" customFormat="1" ht="256.5" hidden="1">
       <c r="A28" s="162">
         <v>26</v>
       </c>
@@ -9604,7 +10463,7 @@
       </c>
       <c r="P28" s="442"/>
     </row>
-    <row r="29" spans="1:16" s="290" customFormat="1" ht="148.5">
+    <row r="29" spans="1:16" s="290" customFormat="1" ht="148.5" hidden="1">
       <c r="A29" s="162">
         <v>27</v>
       </c>
@@ -9642,7 +10501,7 @@
       </c>
       <c r="P29" s="442"/>
     </row>
-    <row r="30" spans="1:16" s="187" customFormat="1" ht="67.5">
+    <row r="30" spans="1:16" s="187" customFormat="1" ht="67.5" hidden="1">
       <c r="A30" s="162">
         <v>28</v>
       </c>
@@ -9676,7 +10535,7 @@
       <c r="O30" s="406"/>
       <c r="P30" s="408"/>
     </row>
-    <row r="31" spans="1:16" s="187" customFormat="1" ht="67.5">
+    <row r="31" spans="1:16" s="187" customFormat="1" ht="67.5" hidden="1">
       <c r="A31" s="162">
         <v>29</v>
       </c>
@@ -9712,7 +10571,7 @@
       <c r="O31" s="406"/>
       <c r="P31" s="408"/>
     </row>
-    <row r="32" spans="1:16" s="170" customFormat="1" ht="54">
+    <row r="32" spans="1:16" s="170" customFormat="1" ht="54" hidden="1">
       <c r="A32" s="162">
         <v>30</v>
       </c>
@@ -9750,7 +10609,7 @@
       </c>
       <c r="P32" s="434"/>
     </row>
-    <row r="33" spans="1:16" s="170" customFormat="1" ht="54">
+    <row r="33" spans="1:16" s="170" customFormat="1" ht="54" hidden="1">
       <c r="A33" s="162">
         <v>31</v>
       </c>
@@ -9788,7 +10647,7 @@
       </c>
       <c r="P33" s="434"/>
     </row>
-    <row r="34" spans="1:16" s="170" customFormat="1" ht="94.5">
+    <row r="34" spans="1:16" s="170" customFormat="1" ht="94.5" hidden="1">
       <c r="A34" s="162">
         <v>32</v>
       </c>
@@ -9826,7 +10685,7 @@
       </c>
       <c r="P34" s="434"/>
     </row>
-    <row r="35" spans="1:16" s="170" customFormat="1" ht="67.5">
+    <row r="35" spans="1:16" s="170" customFormat="1" ht="67.5" hidden="1">
       <c r="A35" s="162">
         <v>33</v>
       </c>
@@ -9864,7 +10723,7 @@
       </c>
       <c r="P35" s="434"/>
     </row>
-    <row r="36" spans="1:16" s="70" customFormat="1">
+    <row r="36" spans="1:16" s="70" customFormat="1" hidden="1">
       <c r="A36" s="162">
         <v>34</v>
       </c>
@@ -9902,7 +10761,7 @@
       <c r="O36" s="411"/>
       <c r="P36" s="434"/>
     </row>
-    <row r="37" spans="1:16" s="170" customFormat="1" ht="27">
+    <row r="37" spans="1:16" s="170" customFormat="1" ht="27" hidden="1">
       <c r="A37" s="162">
         <v>35</v>
       </c>
@@ -9944,7 +10803,7 @@
       </c>
       <c r="P37" s="434"/>
     </row>
-    <row r="38" spans="1:16" s="170" customFormat="1">
+    <row r="38" spans="1:16" s="170" customFormat="1" hidden="1">
       <c r="A38" s="162">
         <v>36</v>
       </c>
@@ -9988,7 +10847,7 @@
       </c>
       <c r="P38" s="434"/>
     </row>
-    <row r="39" spans="1:16" s="170" customFormat="1">
+    <row r="39" spans="1:16" s="170" customFormat="1" hidden="1">
       <c r="A39" s="162">
         <v>37</v>
       </c>
@@ -10024,7 +10883,7 @@
       <c r="O39" s="411"/>
       <c r="P39" s="434"/>
     </row>
-    <row r="40" spans="1:16" s="170" customFormat="1" ht="40.5">
+    <row r="40" spans="1:16" s="170" customFormat="1" ht="40.5" hidden="1">
       <c r="A40" s="162">
         <v>38</v>
       </c>
@@ -10064,7 +10923,7 @@
       <c r="O40" s="411"/>
       <c r="P40" s="434"/>
     </row>
-    <row r="41" spans="1:16" s="70" customFormat="1" ht="54">
+    <row r="41" spans="1:16" s="70" customFormat="1" ht="54" hidden="1">
       <c r="A41" s="162">
         <v>39</v>
       </c>
@@ -10104,7 +10963,7 @@
       </c>
       <c r="P41" s="434"/>
     </row>
-    <row r="42" spans="1:16" s="170" customFormat="1" ht="108">
+    <row r="42" spans="1:16" s="170" customFormat="1" ht="108" hidden="1">
       <c r="A42" s="162">
         <v>40</v>
       </c>
@@ -10144,7 +11003,7 @@
       </c>
       <c r="P42" s="434"/>
     </row>
-    <row r="43" spans="1:16" s="311" customFormat="1" ht="256.5">
+    <row r="43" spans="1:16" s="311" customFormat="1" ht="256.5" hidden="1">
       <c r="A43" s="162">
         <v>41</v>
       </c>
@@ -10162,7 +11021,7 @@
       </c>
       <c r="F43" s="324"/>
       <c r="G43" s="326" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H43" s="309" t="s">
         <v>269</v>
@@ -10184,7 +11043,7 @@
       </c>
       <c r="P43" s="434"/>
     </row>
-    <row r="44" spans="1:16" s="170" customFormat="1" ht="40.5">
+    <row r="44" spans="1:16" s="170" customFormat="1" ht="40.5" hidden="1">
       <c r="A44" s="162">
         <v>42</v>
       </c>
@@ -10222,7 +11081,7 @@
       </c>
       <c r="P44" s="434"/>
     </row>
-    <row r="45" spans="1:16" s="311" customFormat="1" ht="121.5">
+    <row r="45" spans="1:16" s="311" customFormat="1" ht="121.5" hidden="1">
       <c r="A45" s="162">
         <v>43</v>
       </c>
@@ -10240,7 +11099,7 @@
       </c>
       <c r="F45" s="324"/>
       <c r="G45" s="308" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H45" s="309"/>
       <c r="I45" s="305" t="s">
@@ -10260,7 +11119,7 @@
       </c>
       <c r="P45" s="434"/>
     </row>
-    <row r="46" spans="1:16" s="311" customFormat="1" ht="270">
+    <row r="46" spans="1:16" s="311" customFormat="1" ht="270" hidden="1">
       <c r="A46" s="162">
         <v>44</v>
       </c>
@@ -10280,7 +11139,7 @@
         <v>180</v>
       </c>
       <c r="G46" s="308" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H46" s="309"/>
       <c r="I46" s="305" t="s">
@@ -10300,7 +11159,7 @@
       </c>
       <c r="P46" s="434"/>
     </row>
-    <row r="47" spans="1:16" s="206" customFormat="1" ht="135">
+    <row r="47" spans="1:16" s="206" customFormat="1" ht="135" hidden="1">
       <c r="A47" s="162">
         <v>45</v>
       </c>
@@ -10336,7 +11195,7 @@
       <c r="O47" s="418"/>
       <c r="P47" s="441"/>
     </row>
-    <row r="48" spans="1:16" s="170" customFormat="1" ht="94.5">
+    <row r="48" spans="1:16" s="170" customFormat="1" ht="94.5" hidden="1">
       <c r="A48" s="162">
         <v>46</v>
       </c>
@@ -10372,7 +11231,7 @@
       <c r="O48" s="411"/>
       <c r="P48" s="434"/>
     </row>
-    <row r="49" spans="1:16" s="340" customFormat="1" ht="108">
+    <row r="49" spans="1:16" s="340" customFormat="1" ht="108" hidden="1">
       <c r="A49" s="162">
         <v>47</v>
       </c>
@@ -10392,7 +11251,7 @@
         <v>246</v>
       </c>
       <c r="G49" s="326" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H49" s="309" t="s">
         <v>269</v>
@@ -10416,7 +11275,7 @@
       </c>
       <c r="P49" s="442"/>
     </row>
-    <row r="50" spans="1:16" s="340" customFormat="1" ht="135">
+    <row r="50" spans="1:16" s="340" customFormat="1" ht="135" hidden="1">
       <c r="A50" s="162">
         <v>48</v>
       </c>
@@ -10436,7 +11295,7 @@
         <v>199</v>
       </c>
       <c r="G50" s="308" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H50" s="309" t="s">
         <v>269</v>
@@ -10458,7 +11317,7 @@
       </c>
       <c r="P50" s="442"/>
     </row>
-    <row r="51" spans="1:16" s="70" customFormat="1" ht="27">
+    <row r="51" spans="1:16" s="70" customFormat="1" ht="27" hidden="1">
       <c r="A51" s="162">
         <v>49</v>
       </c>
@@ -10494,7 +11353,7 @@
       <c r="O51" s="411"/>
       <c r="P51" s="434"/>
     </row>
-    <row r="52" spans="1:16" s="225" customFormat="1" ht="81">
+    <row r="52" spans="1:16" s="225" customFormat="1" ht="81" hidden="1">
       <c r="A52" s="162">
         <v>50</v>
       </c>
@@ -10536,7 +11395,7 @@
       </c>
       <c r="P52" s="408"/>
     </row>
-    <row r="53" spans="1:16" s="170" customFormat="1">
+    <row r="53" spans="1:16" s="170" customFormat="1" hidden="1">
       <c r="A53" s="162">
         <v>51</v>
       </c>
@@ -10572,7 +11431,7 @@
       <c r="O53" s="411"/>
       <c r="P53" s="434"/>
     </row>
-    <row r="54" spans="1:16" s="232" customFormat="1" ht="108">
+    <row r="54" spans="1:16" s="232" customFormat="1" ht="108" hidden="1">
       <c r="A54" s="162">
         <v>52</v>
       </c>
@@ -10616,7 +11475,7 @@
       </c>
       <c r="P54" s="434"/>
     </row>
-    <row r="55" spans="1:16" s="170" customFormat="1">
+    <row r="55" spans="1:16" s="170" customFormat="1" hidden="1">
       <c r="A55" s="162">
         <v>53</v>
       </c>
@@ -10656,7 +11515,7 @@
       </c>
       <c r="P55" s="434"/>
     </row>
-    <row r="56" spans="1:16" s="170" customFormat="1" ht="27">
+    <row r="56" spans="1:16" s="170" customFormat="1" ht="27" hidden="1">
       <c r="A56" s="162">
         <v>54</v>
       </c>
@@ -10694,7 +11553,7 @@
       </c>
       <c r="P56" s="434"/>
     </row>
-    <row r="57" spans="1:16" s="206" customFormat="1" ht="189">
+    <row r="57" spans="1:16" s="206" customFormat="1" ht="189" hidden="1">
       <c r="A57" s="162">
         <v>55</v>
       </c>
@@ -10732,7 +11591,7 @@
       <c r="O57" s="418"/>
       <c r="P57" s="441"/>
     </row>
-    <row r="58" spans="1:16" s="59" customFormat="1" ht="27">
+    <row r="58" spans="1:16" s="59" customFormat="1" ht="27" hidden="1">
       <c r="A58" s="162">
         <v>56</v>
       </c>
@@ -10770,7 +11629,7 @@
       </c>
       <c r="P58" s="408"/>
     </row>
-    <row r="59" spans="1:16" s="59" customFormat="1" ht="27">
+    <row r="59" spans="1:16" s="59" customFormat="1" ht="27" hidden="1">
       <c r="A59" s="162">
         <v>57</v>
       </c>
@@ -10808,7 +11667,7 @@
       </c>
       <c r="P59" s="408"/>
     </row>
-    <row r="60" spans="1:16" s="170" customFormat="1" ht="27">
+    <row r="60" spans="1:16" s="170" customFormat="1" ht="27" hidden="1">
       <c r="A60" s="162">
         <v>58</v>
       </c>
@@ -10848,7 +11707,7 @@
       </c>
       <c r="P60" s="434"/>
     </row>
-    <row r="61" spans="1:16" s="80" customFormat="1" ht="40.5">
+    <row r="61" spans="1:16" s="80" customFormat="1" ht="40.5" hidden="1">
       <c r="A61" s="162">
         <v>59</v>
       </c>
@@ -10868,7 +11727,7 @@
         <v>195</v>
       </c>
       <c r="G61" s="301" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H61" s="302"/>
       <c r="I61" s="300" t="s">
@@ -10886,7 +11745,7 @@
       </c>
       <c r="P61" s="402"/>
     </row>
-    <row r="62" spans="1:16" s="170" customFormat="1" ht="27">
+    <row r="62" spans="1:16" s="170" customFormat="1" ht="27" hidden="1">
       <c r="A62" s="162">
         <v>60</v>
       </c>
@@ -10928,7 +11787,7 @@
       </c>
       <c r="P62" s="434"/>
     </row>
-    <row r="63" spans="1:16" s="70" customFormat="1">
+    <row r="63" spans="1:16" s="70" customFormat="1" hidden="1">
       <c r="A63" s="162">
         <v>61</v>
       </c>
@@ -10968,7 +11827,7 @@
       </c>
       <c r="P63" s="434"/>
     </row>
-    <row r="64" spans="1:16" s="170" customFormat="1" ht="40.5">
+    <row r="64" spans="1:16" s="170" customFormat="1" ht="40.5" hidden="1">
       <c r="A64" s="162">
         <v>62</v>
       </c>
@@ -11012,7 +11871,7 @@
       </c>
       <c r="P64" s="434"/>
     </row>
-    <row r="65" spans="1:16" s="70" customFormat="1">
+    <row r="65" spans="1:16" s="70" customFormat="1" hidden="1">
       <c r="A65" s="162">
         <v>63</v>
       </c>
@@ -11052,7 +11911,7 @@
       </c>
       <c r="P65" s="434"/>
     </row>
-    <row r="66" spans="1:16" s="70" customFormat="1">
+    <row r="66" spans="1:16" s="70" customFormat="1" hidden="1">
       <c r="A66" s="162">
         <v>64</v>
       </c>
@@ -11092,7 +11951,7 @@
       </c>
       <c r="P66" s="434"/>
     </row>
-    <row r="67" spans="1:16" s="95" customFormat="1" ht="40.5">
+    <row r="67" spans="1:16" s="95" customFormat="1" ht="40.5" hidden="1">
       <c r="A67" s="162">
         <v>65</v>
       </c>
@@ -11132,7 +11991,7 @@
       </c>
       <c r="P67" s="434"/>
     </row>
-    <row r="68" spans="1:16" s="70" customFormat="1" ht="27">
+    <row r="68" spans="1:16" s="70" customFormat="1" ht="27" hidden="1">
       <c r="A68" s="162">
         <v>66</v>
       </c>
@@ -11172,7 +12031,7 @@
       </c>
       <c r="P68" s="434"/>
     </row>
-    <row r="69" spans="1:16" s="70" customFormat="1">
+    <row r="69" spans="1:16" s="70" customFormat="1" hidden="1">
       <c r="A69" s="162">
         <v>67</v>
       </c>
@@ -11212,7 +12071,7 @@
       </c>
       <c r="P69" s="434"/>
     </row>
-    <row r="70" spans="1:16" s="170" customFormat="1" ht="54">
+    <row r="70" spans="1:16" s="170" customFormat="1" ht="54" hidden="1">
       <c r="A70" s="162">
         <v>68</v>
       </c>
@@ -11256,7 +12115,7 @@
       </c>
       <c r="P70" s="434"/>
     </row>
-    <row r="71" spans="1:16" s="170" customFormat="1" ht="27">
+    <row r="71" spans="1:16" s="170" customFormat="1" ht="27" hidden="1">
       <c r="A71" s="162">
         <v>69</v>
       </c>
@@ -11298,7 +12157,7 @@
       </c>
       <c r="P71" s="434"/>
     </row>
-    <row r="72" spans="1:16" s="70" customFormat="1">
+    <row r="72" spans="1:16" s="70" customFormat="1" hidden="1">
       <c r="A72" s="162">
         <v>70</v>
       </c>
@@ -11338,7 +12197,7 @@
       </c>
       <c r="P72" s="434"/>
     </row>
-    <row r="73" spans="1:16" s="170" customFormat="1" ht="67.5">
+    <row r="73" spans="1:16" s="170" customFormat="1" ht="67.5" hidden="1">
       <c r="A73" s="162">
         <v>71</v>
       </c>
@@ -11380,7 +12239,7 @@
       </c>
       <c r="P73" s="434"/>
     </row>
-    <row r="74" spans="1:16" s="170" customFormat="1" ht="27">
+    <row r="74" spans="1:16" s="170" customFormat="1" ht="27" hidden="1">
       <c r="A74" s="162">
         <v>72</v>
       </c>
@@ -11422,7 +12281,7 @@
       </c>
       <c r="P74" s="434"/>
     </row>
-    <row r="75" spans="1:16" s="70" customFormat="1">
+    <row r="75" spans="1:16" s="70" customFormat="1" hidden="1">
       <c r="A75" s="162">
         <v>73</v>
       </c>
@@ -11462,7 +12321,7 @@
       </c>
       <c r="P75" s="434"/>
     </row>
-    <row r="76" spans="1:16" s="225" customFormat="1" ht="94.5">
+    <row r="76" spans="1:16" s="225" customFormat="1" ht="94.5" hidden="1">
       <c r="A76" s="162">
         <v>74</v>
       </c>
@@ -11504,7 +12363,7 @@
       </c>
       <c r="P76" s="408"/>
     </row>
-    <row r="77" spans="1:16" s="59" customFormat="1" ht="40.5">
+    <row r="77" spans="1:16" s="59" customFormat="1" ht="40.5" hidden="1">
       <c r="A77" s="162">
         <v>75</v>
       </c>
@@ -11542,7 +12401,7 @@
       </c>
       <c r="P77" s="408"/>
     </row>
-    <row r="78" spans="1:16" s="170" customFormat="1" ht="40.5">
+    <row r="78" spans="1:16" s="170" customFormat="1" ht="40.5" hidden="1">
       <c r="A78" s="162">
         <v>76</v>
       </c>
@@ -11582,7 +12441,7 @@
       </c>
       <c r="P78" s="434"/>
     </row>
-    <row r="79" spans="1:16" s="170" customFormat="1" ht="40.5">
+    <row r="79" spans="1:16" s="170" customFormat="1" ht="40.5" hidden="1">
       <c r="A79" s="162">
         <v>77</v>
       </c>
@@ -11620,7 +12479,7 @@
       </c>
       <c r="P79" s="434"/>
     </row>
-    <row r="80" spans="1:16" s="376" customFormat="1" ht="27">
+    <row r="80" spans="1:16" s="376" customFormat="1" ht="27" hidden="1">
       <c r="A80" s="162">
         <v>78</v>
       </c>
@@ -11637,16 +12496,16 @@
         <v>42612</v>
       </c>
       <c r="F80" s="324" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="G80" s="326" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H80" s="373" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I80" s="373" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="J80" s="339"/>
       <c r="K80" s="339"/>
@@ -11658,7 +12517,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="225" customFormat="1" ht="40.5">
+    <row r="81" spans="1:16" s="225" customFormat="1" ht="40.5" hidden="1">
       <c r="A81" s="162">
         <v>79</v>
       </c>
@@ -11700,7 +12559,7 @@
       </c>
       <c r="P81" s="408"/>
     </row>
-    <row r="82" spans="1:16" s="290" customFormat="1" ht="81">
+    <row r="82" spans="1:16" s="290" customFormat="1" ht="81" hidden="1">
       <c r="A82" s="162">
         <v>80</v>
       </c>
@@ -11744,7 +12603,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="70" customFormat="1" ht="27">
+    <row r="83" spans="1:16" s="70" customFormat="1" ht="27" hidden="1">
       <c r="A83" s="162">
         <v>81</v>
       </c>
@@ -11782,7 +12641,7 @@
       </c>
       <c r="P83" s="434"/>
     </row>
-    <row r="84" spans="1:16" s="170" customFormat="1">
+    <row r="84" spans="1:16" s="170" customFormat="1" hidden="1">
       <c r="A84" s="162">
         <v>82</v>
       </c>
@@ -11822,7 +12681,7 @@
       </c>
       <c r="P84" s="434"/>
     </row>
-    <row r="85" spans="1:16" s="311" customFormat="1" ht="27">
+    <row r="85" spans="1:16" s="311" customFormat="1" ht="27" hidden="1">
       <c r="A85" s="162">
         <v>83</v>
       </c>
@@ -11840,11 +12699,11 @@
       </c>
       <c r="F85" s="307"/>
       <c r="G85" s="308" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H85" s="309"/>
       <c r="I85" s="305" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J85" s="310"/>
       <c r="K85" s="306">
@@ -11856,7 +12715,7 @@
       <c r="O85" s="400"/>
       <c r="P85" s="402"/>
     </row>
-    <row r="86" spans="1:16" s="187" customFormat="1" ht="148.5">
+    <row r="86" spans="1:16" s="187" customFormat="1" ht="148.5" hidden="1">
       <c r="A86" s="162">
         <v>84</v>
       </c>
@@ -11898,7 +12757,7 @@
       <c r="O86" s="406"/>
       <c r="P86" s="408"/>
     </row>
-    <row r="87" spans="1:16" s="311" customFormat="1" ht="202.5">
+    <row r="87" spans="1:16" s="311" customFormat="1" ht="202.5" hidden="1">
       <c r="A87" s="162">
         <v>85</v>
       </c>
@@ -11918,7 +12777,7 @@
         <v>207</v>
       </c>
       <c r="G87" s="308" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H87" s="309" t="s">
         <v>269</v>
@@ -11940,7 +12799,7 @@
       <c r="O87" s="406"/>
       <c r="P87" s="408"/>
     </row>
-    <row r="88" spans="1:16" s="290" customFormat="1" ht="40.5">
+    <row r="88" spans="1:16" s="290" customFormat="1" ht="40.5" hidden="1">
       <c r="A88" s="162">
         <v>86</v>
       </c>
@@ -11982,7 +12841,7 @@
       </c>
       <c r="P88" s="442"/>
     </row>
-    <row r="89" spans="1:16" s="187" customFormat="1">
+    <row r="89" spans="1:16" s="187" customFormat="1" hidden="1">
       <c r="A89" s="162">
         <v>87</v>
       </c>
@@ -12018,7 +12877,7 @@
       <c r="O89" s="406"/>
       <c r="P89" s="408"/>
     </row>
-    <row r="90" spans="1:16" s="187" customFormat="1" ht="27">
+    <row r="90" spans="1:16" s="187" customFormat="1" ht="27" hidden="1">
       <c r="A90" s="162">
         <v>88</v>
       </c>
@@ -12058,7 +12917,7 @@
       <c r="O90" s="406"/>
       <c r="P90" s="408"/>
     </row>
-    <row r="91" spans="1:16" s="187" customFormat="1">
+    <row r="91" spans="1:16" s="187" customFormat="1" hidden="1">
       <c r="A91" s="162">
         <v>89</v>
       </c>
@@ -12096,7 +12955,7 @@
       <c r="O91" s="406"/>
       <c r="P91" s="408"/>
     </row>
-    <row r="92" spans="1:16" s="187" customFormat="1">
+    <row r="92" spans="1:16" s="187" customFormat="1" hidden="1">
       <c r="A92" s="162">
         <v>90</v>
       </c>
@@ -12134,7 +12993,7 @@
       <c r="O92" s="406"/>
       <c r="P92" s="408"/>
     </row>
-    <row r="93" spans="1:16" s="187" customFormat="1">
+    <row r="93" spans="1:16" s="187" customFormat="1" hidden="1">
       <c r="A93" s="162">
         <v>91</v>
       </c>
@@ -12172,7 +13031,7 @@
       <c r="O93" s="406"/>
       <c r="P93" s="408"/>
     </row>
-    <row r="94" spans="1:16" s="187" customFormat="1">
+    <row r="94" spans="1:16" s="187" customFormat="1" hidden="1">
       <c r="A94" s="162">
         <v>92</v>
       </c>
@@ -12210,7 +13069,7 @@
       <c r="O94" s="406"/>
       <c r="P94" s="408"/>
     </row>
-    <row r="95" spans="1:16" s="187" customFormat="1" ht="27">
+    <row r="95" spans="1:16" s="187" customFormat="1" ht="27" hidden="1">
       <c r="A95" s="162">
         <v>93</v>
       </c>
@@ -12248,7 +13107,7 @@
       <c r="O95" s="406"/>
       <c r="P95" s="408"/>
     </row>
-    <row r="96" spans="1:16" s="290" customFormat="1" ht="27">
+    <row r="96" spans="1:16" s="290" customFormat="1" ht="27" hidden="1">
       <c r="A96" s="162">
         <v>94</v>
       </c>
@@ -12292,7 +13151,7 @@
       </c>
       <c r="P96" s="442"/>
     </row>
-    <row r="97" spans="1:16" s="206" customFormat="1" ht="27">
+    <row r="97" spans="1:16" s="206" customFormat="1" ht="27" hidden="1">
       <c r="A97" s="162">
         <v>95</v>
       </c>
@@ -12332,7 +13191,7 @@
       </c>
       <c r="P97" s="441"/>
     </row>
-    <row r="98" spans="1:16" s="206" customFormat="1" ht="40.5">
+    <row r="98" spans="1:16" s="206" customFormat="1" ht="40.5" hidden="1">
       <c r="A98" s="162">
         <v>96</v>
       </c>
@@ -12372,7 +13231,7 @@
       </c>
       <c r="P98" s="441"/>
     </row>
-    <row r="99" spans="1:16" s="206" customFormat="1" ht="40.5">
+    <row r="99" spans="1:16" s="206" customFormat="1" ht="40.5" hidden="1">
       <c r="A99" s="162">
         <v>97</v>
       </c>
@@ -12412,7 +13271,7 @@
       </c>
       <c r="P99" s="441"/>
     </row>
-    <row r="100" spans="1:16" s="232" customFormat="1" ht="27">
+    <row r="100" spans="1:16" s="232" customFormat="1" ht="27" hidden="1">
       <c r="A100" s="162">
         <v>98</v>
       </c>
@@ -12452,7 +13311,7 @@
       <c r="O100" s="411"/>
       <c r="P100" s="434"/>
     </row>
-    <row r="101" spans="1:16" s="187" customFormat="1" ht="54">
+    <row r="101" spans="1:16" s="187" customFormat="1" ht="54" hidden="1">
       <c r="A101" s="162">
         <v>99</v>
       </c>
@@ -12486,7 +13345,7 @@
       <c r="O101" s="406"/>
       <c r="P101" s="408"/>
     </row>
-    <row r="102" spans="1:16" s="187" customFormat="1" ht="27">
+    <row r="102" spans="1:16" s="187" customFormat="1" ht="27" hidden="1">
       <c r="A102" s="162">
         <v>100</v>
       </c>
@@ -12524,7 +13383,7 @@
       </c>
       <c r="P102" s="408"/>
     </row>
-    <row r="103" spans="1:16" s="187" customFormat="1">
+    <row r="103" spans="1:16" s="187" customFormat="1" hidden="1">
       <c r="A103" s="162">
         <v>101</v>
       </c>
@@ -12562,7 +13421,7 @@
       </c>
       <c r="P103" s="408"/>
     </row>
-    <row r="104" spans="1:16" s="187" customFormat="1" ht="27">
+    <row r="104" spans="1:16" s="187" customFormat="1" ht="27" hidden="1">
       <c r="A104" s="162">
         <v>102</v>
       </c>
@@ -12600,7 +13459,7 @@
       </c>
       <c r="P104" s="408"/>
     </row>
-    <row r="105" spans="1:16" s="187" customFormat="1" ht="40.5">
+    <row r="105" spans="1:16" s="187" customFormat="1" ht="40.5" hidden="1">
       <c r="A105" s="162">
         <v>103</v>
       </c>
@@ -12642,7 +13501,7 @@
       </c>
       <c r="P105" s="408"/>
     </row>
-    <row r="106" spans="1:16" s="170" customFormat="1">
+    <row r="106" spans="1:16" s="170" customFormat="1" hidden="1">
       <c r="A106" s="162">
         <v>104</v>
       </c>
@@ -12680,7 +13539,7 @@
       </c>
       <c r="P106" s="434"/>
     </row>
-    <row r="107" spans="1:16" s="187" customFormat="1" ht="54">
+    <row r="107" spans="1:16" s="187" customFormat="1" ht="54" hidden="1">
       <c r="A107" s="162">
         <v>105</v>
       </c>
@@ -12722,7 +13581,7 @@
       </c>
       <c r="P107" s="408"/>
     </row>
-    <row r="108" spans="1:16" s="340" customFormat="1" ht="54">
+    <row r="108" spans="1:16" s="340" customFormat="1" ht="54" hidden="1">
       <c r="A108" s="162">
         <v>106</v>
       </c>
@@ -12768,7 +13627,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="109" spans="1:16" s="187" customFormat="1" ht="27">
+    <row r="109" spans="1:16" s="187" customFormat="1" ht="27" hidden="1">
       <c r="A109" s="162">
         <v>107</v>
       </c>
@@ -12806,7 +13665,7 @@
       </c>
       <c r="P109" s="408"/>
     </row>
-    <row r="110" spans="1:16" s="243" customFormat="1" ht="54">
+    <row r="110" spans="1:16" s="243" customFormat="1" ht="54" hidden="1">
       <c r="A110" s="162">
         <v>108</v>
       </c>
@@ -12850,7 +13709,7 @@
       </c>
       <c r="P110" s="444"/>
     </row>
-    <row r="111" spans="1:16" s="187" customFormat="1" ht="81">
+    <row r="111" spans="1:16" s="187" customFormat="1" ht="81" hidden="1">
       <c r="A111" s="162">
         <v>109</v>
       </c>
@@ -12890,7 +13749,7 @@
       <c r="O111" s="424"/>
       <c r="P111" s="437"/>
     </row>
-    <row r="112" spans="1:16" ht="54">
+    <row r="112" spans="1:16" ht="54" hidden="1">
       <c r="A112" s="162">
         <v>110</v>
       </c>
@@ -12907,10 +13766,10 @@
         <v>42616</v>
       </c>
       <c r="F112" s="277" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G112" s="301" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H112" s="302" t="s">
         <v>269</v>
@@ -12934,7 +13793,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="340" customFormat="1" ht="67.5">
+    <row r="113" spans="1:16" s="340" customFormat="1" ht="67.5" hidden="1">
       <c r="A113" s="162">
         <v>111</v>
       </c>
@@ -12979,7 +13838,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="114" spans="1:16" s="187" customFormat="1" ht="40.5">
+    <row r="114" spans="1:16" s="187" customFormat="1" ht="40.5" hidden="1">
       <c r="A114" s="162">
         <v>112</v>
       </c>
@@ -13017,7 +13876,7 @@
       </c>
       <c r="P114" s="408"/>
     </row>
-    <row r="115" spans="1:16" s="187" customFormat="1" ht="81">
+    <row r="115" spans="1:16" s="187" customFormat="1" ht="81" hidden="1">
       <c r="A115" s="162">
         <v>113</v>
       </c>
@@ -13055,7 +13914,7 @@
       </c>
       <c r="P115" s="408"/>
     </row>
-    <row r="116" spans="1:16" s="290" customFormat="1" ht="40.5">
+    <row r="116" spans="1:16" s="290" customFormat="1" ht="40.5" hidden="1">
       <c r="A116" s="162">
         <v>114</v>
       </c>
@@ -13095,7 +13954,7 @@
       </c>
       <c r="P116" s="442"/>
     </row>
-    <row r="117" spans="1:16" s="187" customFormat="1" ht="67.5">
+    <row r="117" spans="1:16" s="187" customFormat="1" ht="67.5" hidden="1">
       <c r="A117" s="162">
         <v>115</v>
       </c>
@@ -13129,7 +13988,7 @@
       <c r="O117" s="406"/>
       <c r="P117" s="408"/>
     </row>
-    <row r="118" spans="1:16" s="187" customFormat="1" ht="40.5">
+    <row r="118" spans="1:16" s="187" customFormat="1" ht="40.5" hidden="1">
       <c r="A118" s="162">
         <v>116</v>
       </c>
@@ -13169,7 +14028,7 @@
       </c>
       <c r="P118" s="408"/>
     </row>
-    <row r="119" spans="1:16" s="187" customFormat="1" ht="40.5">
+    <row r="119" spans="1:16" s="187" customFormat="1" ht="40.5" hidden="1">
       <c r="A119" s="162">
         <v>117</v>
       </c>
@@ -13209,7 +14068,7 @@
       </c>
       <c r="P119" s="408"/>
     </row>
-    <row r="120" spans="1:16" s="187" customFormat="1" ht="94.5">
+    <row r="120" spans="1:16" s="187" customFormat="1" ht="94.5" hidden="1">
       <c r="A120" s="162">
         <v>118</v>
       </c>
@@ -13247,7 +14106,7 @@
       </c>
       <c r="P120" s="408"/>
     </row>
-    <row r="121" spans="1:16" s="187" customFormat="1" ht="135">
+    <row r="121" spans="1:16" s="187" customFormat="1" ht="135" hidden="1">
       <c r="A121" s="162">
         <v>119</v>
       </c>
@@ -13285,7 +14144,7 @@
       </c>
       <c r="P121" s="408"/>
     </row>
-    <row r="122" spans="1:16" s="187" customFormat="1" ht="54">
+    <row r="122" spans="1:16" s="187" customFormat="1" ht="54" hidden="1">
       <c r="A122" s="162">
         <v>120</v>
       </c>
@@ -13325,7 +14184,7 @@
       </c>
       <c r="P122" s="408"/>
     </row>
-    <row r="123" spans="1:16" s="187" customFormat="1" ht="108">
+    <row r="123" spans="1:16" s="187" customFormat="1" ht="108" hidden="1">
       <c r="A123" s="162">
         <v>121</v>
       </c>
@@ -13363,7 +14222,7 @@
       <c r="O123" s="406"/>
       <c r="P123" s="408"/>
     </row>
-    <row r="124" spans="1:16" s="187" customFormat="1" ht="40.5">
+    <row r="124" spans="1:16" s="187" customFormat="1" ht="40.5" hidden="1">
       <c r="A124" s="162">
         <v>122</v>
       </c>
@@ -13401,7 +14260,7 @@
       </c>
       <c r="P124" s="408"/>
     </row>
-    <row r="125" spans="1:16" s="187" customFormat="1" ht="40.5">
+    <row r="125" spans="1:16" s="187" customFormat="1" ht="40.5" hidden="1">
       <c r="A125" s="162">
         <v>123</v>
       </c>
@@ -13439,7 +14298,7 @@
       </c>
       <c r="P125" s="408"/>
     </row>
-    <row r="126" spans="1:16" s="187" customFormat="1" ht="40.5">
+    <row r="126" spans="1:16" s="187" customFormat="1" ht="40.5" hidden="1">
       <c r="A126" s="162">
         <v>124</v>
       </c>
@@ -13479,7 +14338,7 @@
       <c r="O126" s="406"/>
       <c r="P126" s="408"/>
     </row>
-    <row r="127" spans="1:16" s="187" customFormat="1" ht="40.5">
+    <row r="127" spans="1:16" s="187" customFormat="1" ht="40.5" hidden="1">
       <c r="A127" s="162">
         <v>125</v>
       </c>
@@ -13519,7 +14378,7 @@
       </c>
       <c r="P127" s="408"/>
     </row>
-    <row r="128" spans="1:16" s="187" customFormat="1" ht="40.5">
+    <row r="128" spans="1:16" s="187" customFormat="1" ht="40.5" hidden="1">
       <c r="A128" s="162">
         <v>126</v>
       </c>
@@ -13561,7 +14420,7 @@
       </c>
       <c r="P128" s="408"/>
     </row>
-    <row r="129" spans="1:16" s="187" customFormat="1" ht="27">
+    <row r="129" spans="1:16" s="187" customFormat="1" ht="27" hidden="1">
       <c r="A129" s="162">
         <v>127</v>
       </c>
@@ -13603,7 +14462,7 @@
       </c>
       <c r="P129" s="408"/>
     </row>
-    <row r="130" spans="1:16" s="187" customFormat="1" ht="81">
+    <row r="130" spans="1:16" s="187" customFormat="1" ht="81" hidden="1">
       <c r="A130" s="162">
         <v>128</v>
       </c>
@@ -13645,7 +14504,7 @@
       </c>
       <c r="P130" s="408"/>
     </row>
-    <row r="131" spans="1:16" s="243" customFormat="1" ht="40.5">
+    <row r="131" spans="1:16" s="243" customFormat="1" ht="40.5" hidden="1">
       <c r="A131" s="162">
         <v>129</v>
       </c>
@@ -13689,7 +14548,7 @@
       </c>
       <c r="P131" s="442"/>
     </row>
-    <row r="132" spans="1:16" s="290" customFormat="1">
+    <row r="132" spans="1:16" s="290" customFormat="1" hidden="1">
       <c r="A132" s="162">
         <v>130</v>
       </c>
@@ -13731,7 +14590,7 @@
       </c>
       <c r="P132" s="442"/>
     </row>
-    <row r="133" spans="1:16" s="187" customFormat="1" ht="27">
+    <row r="133" spans="1:16" s="187" customFormat="1" ht="27" hidden="1">
       <c r="A133" s="162">
         <v>131</v>
       </c>
@@ -13771,7 +14630,7 @@
       </c>
       <c r="P133" s="408"/>
     </row>
-    <row r="134" spans="1:16" s="243" customFormat="1" ht="54">
+    <row r="134" spans="1:16" s="243" customFormat="1" ht="54" hidden="1">
       <c r="A134" s="162">
         <v>132</v>
       </c>
@@ -13809,7 +14668,7 @@
       </c>
       <c r="P134" s="442"/>
     </row>
-    <row r="135" spans="1:16" s="243" customFormat="1" ht="40.5">
+    <row r="135" spans="1:16" s="243" customFormat="1" ht="40.5" hidden="1">
       <c r="A135" s="162">
         <v>133</v>
       </c>
@@ -13847,7 +14706,7 @@
       </c>
       <c r="P135" s="442"/>
     </row>
-    <row r="136" spans="1:16" s="340" customFormat="1" ht="81">
+    <row r="136" spans="1:16" s="340" customFormat="1" ht="81" hidden="1">
       <c r="A136" s="162">
         <v>134</v>
       </c>
@@ -13884,7 +14743,7 @@
       </c>
       <c r="M136" s="407"/>
       <c r="N136" s="407" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="O136" s="420">
         <v>42666</v>
@@ -13893,7 +14752,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="137" spans="1:16" s="187" customFormat="1" ht="40.5">
+    <row r="137" spans="1:16" s="187" customFormat="1" ht="40.5" hidden="1">
       <c r="A137" s="162">
         <v>135</v>
       </c>
@@ -13931,7 +14790,7 @@
       </c>
       <c r="P137" s="408"/>
     </row>
-    <row r="138" spans="1:16" s="225" customFormat="1" ht="81">
+    <row r="138" spans="1:16" s="225" customFormat="1" ht="81" hidden="1">
       <c r="A138" s="162">
         <v>136</v>
       </c>
@@ -13973,7 +14832,7 @@
       </c>
       <c r="P138" s="408"/>
     </row>
-    <row r="139" spans="1:16" s="187" customFormat="1">
+    <row r="139" spans="1:16" s="187" customFormat="1" hidden="1">
       <c r="A139" s="162">
         <v>137</v>
       </c>
@@ -14015,7 +14874,7 @@
       </c>
       <c r="P139" s="408"/>
     </row>
-    <row r="140" spans="1:16" s="225" customFormat="1" ht="67.5">
+    <row r="140" spans="1:16" s="225" customFormat="1" ht="67.5" hidden="1">
       <c r="A140" s="162">
         <v>138</v>
       </c>
@@ -14055,7 +14914,7 @@
       </c>
       <c r="P140" s="408"/>
     </row>
-    <row r="141" spans="1:16" s="232" customFormat="1" ht="94.5">
+    <row r="141" spans="1:16" s="232" customFormat="1" ht="94.5" hidden="1">
       <c r="A141" s="162">
         <v>139</v>
       </c>
@@ -14099,7 +14958,7 @@
       </c>
       <c r="P141" s="434"/>
     </row>
-    <row r="142" spans="1:16" s="232" customFormat="1" ht="81">
+    <row r="142" spans="1:16" s="232" customFormat="1" ht="81" hidden="1">
       <c r="A142" s="162">
         <v>140</v>
       </c>
@@ -14137,7 +14996,7 @@
       </c>
       <c r="P142" s="434"/>
     </row>
-    <row r="143" spans="1:16" s="187" customFormat="1">
+    <row r="143" spans="1:16" s="187" customFormat="1" hidden="1">
       <c r="A143" s="162">
         <v>141</v>
       </c>
@@ -14171,7 +15030,7 @@
       <c r="O143" s="409"/>
       <c r="P143" s="408"/>
     </row>
-    <row r="144" spans="1:16" s="187" customFormat="1" ht="40.5">
+    <row r="144" spans="1:16" s="187" customFormat="1" ht="40.5" hidden="1">
       <c r="A144" s="162">
         <v>142</v>
       </c>
@@ -14205,7 +15064,7 @@
       <c r="O144" s="409"/>
       <c r="P144" s="408"/>
     </row>
-    <row r="145" spans="1:16" s="187" customFormat="1" ht="27">
+    <row r="145" spans="1:16" s="187" customFormat="1" ht="27" hidden="1">
       <c r="A145" s="162">
         <v>143</v>
       </c>
@@ -14239,7 +15098,7 @@
       <c r="O145" s="409"/>
       <c r="P145" s="408"/>
     </row>
-    <row r="146" spans="1:16" s="290" customFormat="1" ht="67.5">
+    <row r="146" spans="1:16" s="290" customFormat="1" ht="67.5" hidden="1">
       <c r="A146" s="162">
         <v>144</v>
       </c>
@@ -14281,7 +15140,7 @@
       </c>
       <c r="P146" s="442"/>
     </row>
-    <row r="147" spans="1:16" s="290" customFormat="1" ht="27">
+    <row r="147" spans="1:16" s="290" customFormat="1" ht="27" hidden="1">
       <c r="A147" s="162">
         <v>145</v>
       </c>
@@ -14321,7 +15180,7 @@
       </c>
       <c r="P147" s="442"/>
     </row>
-    <row r="148" spans="1:16" s="206" customFormat="1" ht="40.5">
+    <row r="148" spans="1:16" s="206" customFormat="1" ht="40.5" hidden="1">
       <c r="A148" s="162">
         <v>146</v>
       </c>
@@ -14363,7 +15222,7 @@
       </c>
       <c r="P148" s="441"/>
     </row>
-    <row r="149" spans="1:16" s="232" customFormat="1" ht="27">
+    <row r="149" spans="1:16" s="232" customFormat="1" ht="27" hidden="1">
       <c r="A149" s="162">
         <v>147</v>
       </c>
@@ -14405,7 +15264,7 @@
       </c>
       <c r="P149" s="434"/>
     </row>
-    <row r="150" spans="1:16" s="340" customFormat="1" ht="40.5">
+    <row r="150" spans="1:16" s="340" customFormat="1" ht="40.5" hidden="1">
       <c r="A150" s="162">
         <v>148</v>
       </c>
@@ -14425,10 +15284,10 @@
         <v>339</v>
       </c>
       <c r="G150" s="200" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="I150" s="340" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K150" s="349">
         <v>42677</v>
@@ -14445,7 +15304,7 @@
       </c>
       <c r="P150" s="439"/>
     </row>
-    <row r="151" spans="1:16" s="232" customFormat="1">
+    <row r="151" spans="1:16" s="232" customFormat="1" hidden="1">
       <c r="A151" s="162">
         <v>149</v>
       </c>
@@ -14487,7 +15346,7 @@
       </c>
       <c r="P151" s="434"/>
     </row>
-    <row r="152" spans="1:16" s="206" customFormat="1" ht="40.5">
+    <row r="152" spans="1:16" s="206" customFormat="1" ht="40.5" hidden="1">
       <c r="A152" s="162">
         <v>150</v>
       </c>
@@ -14531,7 +15390,7 @@
       </c>
       <c r="P152" s="441"/>
     </row>
-    <row r="153" spans="1:16" s="340" customFormat="1" ht="54">
+    <row r="153" spans="1:16" s="340" customFormat="1" ht="54" hidden="1">
       <c r="A153" s="162">
         <v>151</v>
       </c>
@@ -14568,7 +15427,7 @@
       </c>
       <c r="M153" s="407"/>
       <c r="N153" s="407" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="O153" s="420">
         <v>42657</v>
@@ -14577,7 +15436,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="154" spans="1:16" s="206" customFormat="1" ht="27">
+    <row r="154" spans="1:16" s="206" customFormat="1" ht="27" hidden="1">
       <c r="A154" s="162">
         <v>152</v>
       </c>
@@ -14621,7 +15480,7 @@
       </c>
       <c r="P154" s="441"/>
     </row>
-    <row r="155" spans="1:16" s="206" customFormat="1" ht="27">
+    <row r="155" spans="1:16" s="206" customFormat="1" ht="27" hidden="1">
       <c r="A155" s="162">
         <v>153</v>
       </c>
@@ -14663,7 +15522,7 @@
       </c>
       <c r="P155" s="441"/>
     </row>
-    <row r="156" spans="1:16" s="232" customFormat="1">
+    <row r="156" spans="1:16" s="232" customFormat="1" hidden="1">
       <c r="A156" s="162">
         <v>154</v>
       </c>
@@ -14705,7 +15564,7 @@
       </c>
       <c r="P156" s="434"/>
     </row>
-    <row r="157" spans="1:16" s="206" customFormat="1" ht="67.5">
+    <row r="157" spans="1:16" s="206" customFormat="1" ht="67.5" hidden="1">
       <c r="A157" s="162">
         <v>155</v>
       </c>
@@ -14747,7 +15606,7 @@
       </c>
       <c r="P157" s="441"/>
     </row>
-    <row r="158" spans="1:16" s="340" customFormat="1" ht="27">
+    <row r="158" spans="1:16" s="340" customFormat="1" ht="27" hidden="1">
       <c r="A158" s="162">
         <v>156</v>
       </c>
@@ -14773,7 +15632,7 @@
         <v>269</v>
       </c>
       <c r="I158" s="309" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J158" s="339"/>
       <c r="K158" s="339"/>
@@ -14789,7 +15648,7 @@
       </c>
       <c r="P158" s="439"/>
     </row>
-    <row r="159" spans="1:16" s="206" customFormat="1" ht="27">
+    <row r="159" spans="1:16" s="206" customFormat="1" ht="27" hidden="1">
       <c r="A159" s="162">
         <v>157</v>
       </c>
@@ -14833,7 +15692,7 @@
       </c>
       <c r="P159" s="441"/>
     </row>
-    <row r="160" spans="1:16" s="232" customFormat="1" ht="40.5">
+    <row r="160" spans="1:16" s="232" customFormat="1" ht="40.5" hidden="1">
       <c r="A160" s="162">
         <v>158</v>
       </c>
@@ -14875,7 +15734,7 @@
       </c>
       <c r="P160" s="434"/>
     </row>
-    <row r="161" spans="1:16" s="232" customFormat="1" ht="27">
+    <row r="161" spans="1:16" s="232" customFormat="1" ht="27" hidden="1">
       <c r="A161" s="162">
         <v>159</v>
       </c>
@@ -14915,7 +15774,7 @@
       </c>
       <c r="P161" s="434"/>
     </row>
-    <row r="162" spans="1:16" s="232" customFormat="1">
+    <row r="162" spans="1:16" s="232" customFormat="1" hidden="1">
       <c r="A162" s="162">
         <v>160</v>
       </c>
@@ -14957,7 +15816,7 @@
       </c>
       <c r="P162" s="434"/>
     </row>
-    <row r="163" spans="1:16" s="206" customFormat="1" ht="27">
+    <row r="163" spans="1:16" s="206" customFormat="1" ht="27" hidden="1">
       <c r="A163" s="162">
         <v>161</v>
       </c>
@@ -15001,7 +15860,7 @@
       </c>
       <c r="P163" s="441"/>
     </row>
-    <row r="164" spans="1:16" s="290" customFormat="1" ht="27">
+    <row r="164" spans="1:16" s="290" customFormat="1" ht="27" hidden="1">
       <c r="A164" s="162">
         <v>162</v>
       </c>
@@ -15045,7 +15904,7 @@
       </c>
       <c r="P164" s="442"/>
     </row>
-    <row r="165" spans="1:16" s="225" customFormat="1" ht="27">
+    <row r="165" spans="1:16" s="225" customFormat="1" ht="27" hidden="1">
       <c r="A165" s="162">
         <v>163</v>
       </c>
@@ -15087,7 +15946,7 @@
       </c>
       <c r="P165" s="408"/>
     </row>
-    <row r="166" spans="1:16" s="243" customFormat="1">
+    <row r="166" spans="1:16" s="243" customFormat="1" hidden="1">
       <c r="A166" s="162">
         <v>164</v>
       </c>
@@ -15131,7 +15990,7 @@
       </c>
       <c r="P166" s="442"/>
     </row>
-    <row r="167" spans="1:16" s="225" customFormat="1" ht="27">
+    <row r="167" spans="1:16" s="225" customFormat="1" ht="27" hidden="1">
       <c r="A167" s="162">
         <v>165</v>
       </c>
@@ -15173,7 +16032,7 @@
       </c>
       <c r="P167" s="408"/>
     </row>
-    <row r="168" spans="1:16" s="311" customFormat="1" ht="54">
+    <row r="168" spans="1:16" s="311" customFormat="1" ht="54" hidden="1">
       <c r="A168" s="162">
         <v>166</v>
       </c>
@@ -15193,11 +16052,11 @@
         <v>227</v>
       </c>
       <c r="G168" s="254" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H168" s="309"/>
       <c r="I168" s="309" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J168" s="310"/>
       <c r="K168" s="310"/>
@@ -15213,7 +16072,7 @@
       </c>
       <c r="P168" s="402"/>
     </row>
-    <row r="169" spans="1:16" s="311" customFormat="1" ht="81">
+    <row r="169" spans="1:16" s="311" customFormat="1" ht="81" hidden="1">
       <c r="A169" s="162">
         <v>167</v>
       </c>
@@ -15233,11 +16092,11 @@
         <v>228</v>
       </c>
       <c r="G169" s="254" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H169" s="309"/>
       <c r="I169" s="309" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J169" s="310"/>
       <c r="K169" s="310"/>
@@ -15253,7 +16112,7 @@
       </c>
       <c r="P169" s="402"/>
     </row>
-    <row r="170" spans="1:16" s="232" customFormat="1" ht="27">
+    <row r="170" spans="1:16" s="232" customFormat="1" ht="27" hidden="1">
       <c r="A170" s="162">
         <v>168</v>
       </c>
@@ -15295,7 +16154,7 @@
       </c>
       <c r="P170" s="434"/>
     </row>
-    <row r="171" spans="1:16" s="225" customFormat="1" ht="54">
+    <row r="171" spans="1:16" s="225" customFormat="1" ht="54" hidden="1">
       <c r="A171" s="162">
         <v>169</v>
       </c>
@@ -15337,7 +16196,7 @@
       </c>
       <c r="P171" s="409"/>
     </row>
-    <row r="172" spans="1:16" s="206" customFormat="1" ht="40.5">
+    <row r="172" spans="1:16" s="206" customFormat="1" ht="40.5" hidden="1">
       <c r="A172" s="162">
         <v>170</v>
       </c>
@@ -15379,7 +16238,7 @@
       </c>
       <c r="P172" s="419"/>
     </row>
-    <row r="173" spans="1:16" s="206" customFormat="1" ht="94.5">
+    <row r="173" spans="1:16" s="206" customFormat="1" ht="94.5" hidden="1">
       <c r="A173" s="162">
         <v>171</v>
       </c>
@@ -15423,7 +16282,7 @@
       </c>
       <c r="P173" s="419"/>
     </row>
-    <row r="174" spans="1:16" s="232" customFormat="1" ht="27">
+    <row r="174" spans="1:16" s="232" customFormat="1" ht="27" hidden="1">
       <c r="A174" s="162">
         <v>172</v>
       </c>
@@ -15463,7 +16322,7 @@
       </c>
       <c r="P174" s="412"/>
     </row>
-    <row r="175" spans="1:16" s="340" customFormat="1" ht="27">
+    <row r="175" spans="1:16" s="340" customFormat="1" ht="27" hidden="1">
       <c r="A175" s="162">
         <v>173</v>
       </c>
@@ -15487,7 +16346,7 @@
       </c>
       <c r="H175" s="309"/>
       <c r="I175" s="311" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J175" s="311"/>
       <c r="K175" s="332">
@@ -15499,7 +16358,7 @@
       <c r="O175" s="425"/>
       <c r="P175" s="409"/>
     </row>
-    <row r="176" spans="1:16" s="243" customFormat="1" ht="54">
+    <row r="176" spans="1:16" s="243" customFormat="1" ht="54" hidden="1">
       <c r="A176" s="162">
         <v>174</v>
       </c>
@@ -15541,7 +16400,7 @@
       </c>
       <c r="P176" s="409"/>
     </row>
-    <row r="177" spans="1:16" s="290" customFormat="1" ht="94.5">
+    <row r="177" spans="1:16" s="290" customFormat="1" ht="94.5" hidden="1">
       <c r="A177" s="162">
         <v>175</v>
       </c>
@@ -15583,7 +16442,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="178" spans="1:16" s="290" customFormat="1" ht="108">
+    <row r="178" spans="1:16" s="290" customFormat="1" ht="108" hidden="1">
       <c r="A178" s="162">
         <v>176</v>
       </c>
@@ -15623,7 +16482,7 @@
       </c>
       <c r="P178" s="409"/>
     </row>
-    <row r="179" spans="1:16" s="290" customFormat="1" ht="27">
+    <row r="179" spans="1:16" s="290" customFormat="1" ht="27" hidden="1">
       <c r="A179" s="162">
         <v>177</v>
       </c>
@@ -15663,7 +16522,7 @@
       </c>
       <c r="P179" s="409"/>
     </row>
-    <row r="180" spans="1:16" s="290" customFormat="1" ht="27">
+    <row r="180" spans="1:16" s="290" customFormat="1" ht="27" hidden="1">
       <c r="A180" s="162">
         <v>178</v>
       </c>
@@ -15703,7 +16562,7 @@
       </c>
       <c r="P180" s="409"/>
     </row>
-    <row r="181" spans="1:16" s="340" customFormat="1" ht="54">
+    <row r="181" spans="1:16" s="340" customFormat="1" ht="54" hidden="1">
       <c r="A181" s="162">
         <v>179</v>
       </c>
@@ -15747,7 +16606,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="182" spans="1:16" s="340" customFormat="1" ht="54">
+    <row r="182" spans="1:16" s="340" customFormat="1" ht="54" hidden="1">
       <c r="A182" s="162">
         <v>180</v>
       </c>
@@ -15791,7 +16650,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="183" spans="1:16" s="290" customFormat="1" ht="27">
+    <row r="183" spans="1:16" s="290" customFormat="1" ht="27" hidden="1">
       <c r="A183" s="162">
         <v>181</v>
       </c>
@@ -15833,7 +16692,7 @@
       </c>
       <c r="P183" s="409"/>
     </row>
-    <row r="184" spans="1:16" s="340" customFormat="1" ht="81">
+    <row r="184" spans="1:16" s="340" customFormat="1" ht="81" hidden="1">
       <c r="A184" s="162">
         <v>182</v>
       </c>
@@ -15853,11 +16712,11 @@
         <v>281</v>
       </c>
       <c r="G184" s="346" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H184" s="309"/>
       <c r="I184" s="311" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J184" s="311"/>
       <c r="K184" s="332">
@@ -15877,7 +16736,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="185" spans="1:16" s="290" customFormat="1" ht="27">
+    <row r="185" spans="1:16" s="290" customFormat="1" ht="27" hidden="1">
       <c r="A185" s="162">
         <v>183</v>
       </c>
@@ -15921,7 +16780,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="186" spans="1:16" s="340" customFormat="1" ht="40.5">
+    <row r="186" spans="1:16" s="340" customFormat="1" ht="40.5" hidden="1">
       <c r="A186" s="162">
         <v>184</v>
       </c>
@@ -15941,7 +16800,7 @@
         <v>285</v>
       </c>
       <c r="G186" s="346" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="H186" s="309" t="s">
         <v>269</v>
@@ -15967,7 +16826,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="187" spans="1:16" s="340" customFormat="1" ht="40.5">
+    <row r="187" spans="1:16" s="340" customFormat="1" ht="40.5" hidden="1">
       <c r="A187" s="162">
         <v>185</v>
       </c>
@@ -15987,7 +16846,7 @@
         <v>312</v>
       </c>
       <c r="G187" s="346" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H187" s="309" t="s">
         <v>269</v>
@@ -16011,7 +16870,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="188" spans="1:16" s="340" customFormat="1" ht="81">
+    <row r="188" spans="1:16" s="340" customFormat="1" ht="81" hidden="1">
       <c r="A188" s="162">
         <v>186</v>
       </c>
@@ -16031,7 +16890,7 @@
         <v>407</v>
       </c>
       <c r="G188" s="347" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H188" s="309" t="s">
         <v>269</v>
@@ -16057,7 +16916,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="189" spans="1:16" s="340" customFormat="1" ht="94.5">
+    <row r="189" spans="1:16" s="340" customFormat="1" ht="94.5" hidden="1">
       <c r="A189" s="162">
         <v>187</v>
       </c>
@@ -16077,7 +16936,7 @@
         <v>263</v>
       </c>
       <c r="G189" s="347" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H189" s="309" t="s">
         <v>269</v>
@@ -16103,7 +16962,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="190" spans="1:16" s="290" customFormat="1" ht="27">
+    <row r="190" spans="1:16" s="290" customFormat="1" ht="27" hidden="1">
       <c r="A190" s="162">
         <v>188</v>
       </c>
@@ -16149,7 +17008,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="191" spans="1:16" s="290" customFormat="1" ht="40.5">
+    <row r="191" spans="1:16" s="290" customFormat="1" ht="40.5" hidden="1">
       <c r="A191" s="162">
         <v>189</v>
       </c>
@@ -16195,7 +17054,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="192" spans="1:16" s="340" customFormat="1" ht="27">
+    <row r="192" spans="1:16" s="340" customFormat="1" ht="27" hidden="1">
       <c r="A192" s="162">
         <v>190</v>
       </c>
@@ -16215,7 +17074,7 @@
         <v>299</v>
       </c>
       <c r="G192" s="347" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H192" s="309" t="s">
         <v>269</v>
@@ -16241,7 +17100,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="193" spans="1:16" s="290" customFormat="1" ht="27">
+    <row r="193" spans="1:16" s="290" customFormat="1" ht="27" hidden="1">
       <c r="A193" s="162">
         <v>191</v>
       </c>
@@ -16287,7 +17146,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="194" spans="1:16" s="290" customFormat="1" ht="27">
+    <row r="194" spans="1:16" s="290" customFormat="1" ht="27" hidden="1">
       <c r="A194" s="162">
         <v>192</v>
       </c>
@@ -16333,7 +17192,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="195" spans="1:16" s="290" customFormat="1" ht="27">
+    <row r="195" spans="1:16" s="290" customFormat="1" ht="27" hidden="1">
       <c r="A195" s="162">
         <v>193</v>
       </c>
@@ -16379,7 +17238,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="196" spans="1:16" s="290" customFormat="1">
+    <row r="196" spans="1:16" s="290" customFormat="1" hidden="1">
       <c r="A196" s="162">
         <v>194</v>
       </c>
@@ -16423,7 +17282,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="197" spans="1:16" s="290" customFormat="1" ht="27">
+    <row r="197" spans="1:16" s="290" customFormat="1" ht="27" hidden="1">
       <c r="A197" s="162">
         <v>195</v>
       </c>
@@ -16469,7 +17328,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="198" spans="1:16" s="243" customFormat="1" ht="54">
+    <row r="198" spans="1:16" s="243" customFormat="1" ht="54" hidden="1">
       <c r="A198" s="162">
         <v>196</v>
       </c>
@@ -16513,7 +17372,7 @@
       </c>
       <c r="P198" s="409"/>
     </row>
-    <row r="199" spans="1:16" s="290" customFormat="1" ht="148.5">
+    <row r="199" spans="1:16" s="290" customFormat="1" ht="148.5" hidden="1">
       <c r="A199" s="162">
         <v>197</v>
       </c>
@@ -16559,7 +17418,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="200" spans="1:16" s="340" customFormat="1" ht="54">
+    <row r="200" spans="1:16" s="340" customFormat="1" ht="54" hidden="1">
       <c r="A200" s="162">
         <v>198</v>
       </c>
@@ -16605,7 +17464,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="201" spans="1:16" s="290" customFormat="1">
+    <row r="201" spans="1:16" s="290" customFormat="1" hidden="1">
       <c r="A201" s="162">
         <v>199</v>
       </c>
@@ -16649,7 +17508,7 @@
       </c>
       <c r="P201" s="409"/>
     </row>
-    <row r="202" spans="1:16" s="243" customFormat="1" ht="27">
+    <row r="202" spans="1:16" s="243" customFormat="1" ht="27" hidden="1">
       <c r="A202" s="162">
         <v>200</v>
       </c>
@@ -16691,7 +17550,7 @@
       </c>
       <c r="P202" s="409"/>
     </row>
-    <row r="203" spans="1:16" s="243" customFormat="1" ht="27">
+    <row r="203" spans="1:16" s="243" customFormat="1" ht="27" hidden="1">
       <c r="A203" s="162">
         <v>201</v>
       </c>
@@ -16733,7 +17592,7 @@
       </c>
       <c r="P203" s="409"/>
     </row>
-    <row r="204" spans="1:16" s="290" customFormat="1" ht="27">
+    <row r="204" spans="1:16" s="290" customFormat="1" ht="27" hidden="1">
       <c r="A204" s="162">
         <v>202</v>
       </c>
@@ -16777,7 +17636,7 @@
       </c>
       <c r="P204" s="409"/>
     </row>
-    <row r="205" spans="1:16" s="290" customFormat="1">
+    <row r="205" spans="1:16" s="290" customFormat="1" hidden="1">
       <c r="A205" s="162">
         <v>203</v>
       </c>
@@ -16819,7 +17678,7 @@
       </c>
       <c r="P205" s="409"/>
     </row>
-    <row r="206" spans="1:16" s="340" customFormat="1" ht="67.5">
+    <row r="206" spans="1:16" s="340" customFormat="1" ht="67.5" hidden="1">
       <c r="A206" s="162">
         <v>204</v>
       </c>
@@ -16863,7 +17722,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="207" spans="1:16" s="340" customFormat="1" ht="40.5">
+    <row r="207" spans="1:16" s="340" customFormat="1" ht="40.5" hidden="1">
       <c r="A207" s="162">
         <v>205</v>
       </c>
@@ -16907,7 +17766,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="208" spans="1:16" s="340" customFormat="1" ht="148.5">
+    <row r="208" spans="1:16" s="340" customFormat="1" ht="148.5" hidden="1">
       <c r="A208" s="162">
         <v>206</v>
       </c>
@@ -16951,7 +17810,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="209" spans="1:16" s="340" customFormat="1" ht="27">
+    <row r="209" spans="1:16" s="340" customFormat="1" ht="27" hidden="1">
       <c r="A209" s="162">
         <v>207</v>
       </c>
@@ -16993,7 +17852,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="210" spans="1:16" s="340" customFormat="1" ht="27">
+    <row r="210" spans="1:16" s="340" customFormat="1" ht="27" hidden="1">
       <c r="A210" s="162">
         <v>208</v>
       </c>
@@ -17035,7 +17894,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="211" spans="1:16" s="340" customFormat="1" ht="27">
+    <row r="211" spans="1:16" s="340" customFormat="1" ht="27" hidden="1">
       <c r="A211" s="162">
         <v>209</v>
       </c>
@@ -17077,7 +17936,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="212" spans="1:16" s="340" customFormat="1" ht="27">
+    <row r="212" spans="1:16" s="340" customFormat="1" ht="27" hidden="1">
       <c r="A212" s="162">
         <v>210</v>
       </c>
@@ -17119,7 +17978,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="213" spans="1:16" s="340" customFormat="1" ht="27">
+    <row r="213" spans="1:16" s="340" customFormat="1" ht="27" hidden="1">
       <c r="A213" s="162">
         <v>211</v>
       </c>
@@ -17139,13 +17998,13 @@
         <v>228</v>
       </c>
       <c r="G213" s="346" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H213" s="309" t="s">
         <v>269</v>
       </c>
       <c r="I213" s="340" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J213" s="350"/>
       <c r="K213" s="357">
@@ -17165,7 +18024,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="214" spans="1:16" s="290" customFormat="1" ht="27">
+    <row r="214" spans="1:16" s="290" customFormat="1" ht="27" hidden="1">
       <c r="A214" s="162">
         <v>212</v>
       </c>
@@ -17207,7 +18066,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="27">
+    <row r="215" spans="1:16" ht="27" hidden="1">
       <c r="A215" s="162">
         <v>213</v>
       </c>
@@ -17249,7 +18108,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="216" spans="1:16" s="290" customFormat="1" ht="40.5">
+    <row r="216" spans="1:16" s="290" customFormat="1" ht="40.5" hidden="1">
       <c r="A216" s="162">
         <v>214</v>
       </c>
@@ -17291,7 +18150,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="217" spans="1:16" s="290" customFormat="1" ht="27">
+    <row r="217" spans="1:16" s="290" customFormat="1" ht="27" hidden="1">
       <c r="A217" s="162">
         <v>215</v>
       </c>
@@ -17333,7 +18192,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="218" spans="1:16" s="290" customFormat="1" ht="27">
+    <row r="218" spans="1:16" s="290" customFormat="1" ht="27" hidden="1">
       <c r="A218" s="162">
         <v>216</v>
       </c>
@@ -17375,7 +18234,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="27">
+    <row r="219" spans="1:16" ht="27" hidden="1">
       <c r="A219" s="162">
         <v>217</v>
       </c>
@@ -17417,7 +18276,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="220" spans="1:16" s="290" customFormat="1" ht="27">
+    <row r="220" spans="1:16" s="290" customFormat="1" ht="27" hidden="1">
       <c r="A220" s="162">
         <v>218</v>
       </c>
@@ -17459,7 +18318,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="221" spans="1:16" s="340" customFormat="1" ht="27">
+    <row r="221" spans="1:16" s="340" customFormat="1" ht="27" hidden="1">
       <c r="A221" s="162">
         <v>219</v>
       </c>
@@ -17476,16 +18335,16 @@
         <v>42654</v>
       </c>
       <c r="F221" s="324" t="s">
+        <v>583</v>
+      </c>
+      <c r="G221" s="293" t="s">
         <v>584</v>
-      </c>
-      <c r="G221" s="293" t="s">
-        <v>585</v>
       </c>
       <c r="H221" s="309" t="s">
         <v>269</v>
       </c>
       <c r="I221" s="356" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J221" s="350"/>
       <c r="K221" s="357">
@@ -17503,7 +18362,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="222" spans="1:16" s="340" customFormat="1" ht="27">
+    <row r="222" spans="1:16" s="340" customFormat="1" ht="27" hidden="1">
       <c r="A222" s="162">
         <v>220</v>
       </c>
@@ -17547,7 +18406,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="223" spans="1:16" s="340" customFormat="1" ht="81">
+    <row r="223" spans="1:16" s="340" customFormat="1" ht="81" hidden="1">
       <c r="A223" s="162">
         <v>221</v>
       </c>
@@ -17589,7 +18448,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="224" spans="1:16" s="340" customFormat="1" ht="54">
+    <row r="224" spans="1:16" s="340" customFormat="1" ht="54" hidden="1">
       <c r="A224" s="162">
         <v>222</v>
       </c>
@@ -17634,7 +18493,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="225" spans="1:16" s="340" customFormat="1" ht="54">
+    <row r="225" spans="1:16" s="340" customFormat="1" ht="54" hidden="1">
       <c r="A225" s="162">
         <v>223</v>
       </c>
@@ -17654,13 +18513,13 @@
         <v>216</v>
       </c>
       <c r="G225" s="346" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H225" s="309" t="s">
         <v>269</v>
       </c>
       <c r="I225" s="356" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J225" s="350"/>
       <c r="K225" s="349">
@@ -17674,7 +18533,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="226" spans="1:16" s="340" customFormat="1">
+    <row r="226" spans="1:16" s="340" customFormat="1" hidden="1">
       <c r="A226" s="162">
         <v>224</v>
       </c>
@@ -17700,7 +18559,7 @@
         <v>269</v>
       </c>
       <c r="I226" s="340" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K226" s="349">
         <v>42669</v>
@@ -17713,7 +18572,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="227" spans="1:16" s="340" customFormat="1" ht="27">
+    <row r="227" spans="1:16" s="340" customFormat="1" ht="27" hidden="1">
       <c r="A227" s="162">
         <v>225</v>
       </c>
@@ -17757,7 +18616,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="228" spans="1:16" s="340" customFormat="1" ht="108">
+    <row r="228" spans="1:16" s="340" customFormat="1" ht="108" hidden="1">
       <c r="A228" s="162">
         <v>226</v>
       </c>
@@ -17802,7 +18661,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="229" spans="1:16" s="340" customFormat="1" ht="54">
+    <row r="229" spans="1:16" s="340" customFormat="1" ht="54" hidden="1">
       <c r="A229" s="162">
         <v>227</v>
       </c>
@@ -17847,7 +18706,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="230" spans="1:16" s="340" customFormat="1" ht="40.5">
+    <row r="230" spans="1:16" s="340" customFormat="1" ht="40.5" hidden="1">
       <c r="A230" s="162">
         <v>228</v>
       </c>
@@ -17892,7 +18751,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="231" spans="1:16" s="340" customFormat="1" ht="27">
+    <row r="231" spans="1:16" s="340" customFormat="1" ht="27" hidden="1">
       <c r="A231" s="162">
         <v>229</v>
       </c>
@@ -17931,7 +18790,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="232" spans="1:16" s="340" customFormat="1" ht="54">
+    <row r="232" spans="1:16" s="340" customFormat="1" ht="54" hidden="1">
       <c r="A232" s="162">
         <v>230</v>
       </c>
@@ -17976,7 +18835,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="233" spans="1:16" s="340" customFormat="1" ht="40.5">
+    <row r="233" spans="1:16" s="340" customFormat="1" ht="40.5" hidden="1">
       <c r="A233" s="162">
         <v>231</v>
       </c>
@@ -18020,7 +18879,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="234" spans="1:16" s="340" customFormat="1" ht="67.5">
+    <row r="234" spans="1:16" s="340" customFormat="1" ht="67.5" hidden="1">
       <c r="A234" s="162">
         <v>232</v>
       </c>
@@ -18064,7 +18923,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="235" spans="1:16" s="340" customFormat="1" ht="27">
+    <row r="235" spans="1:16" s="340" customFormat="1" ht="27" hidden="1">
       <c r="A235" s="162">
         <v>233</v>
       </c>
@@ -18087,7 +18946,7 @@
         <v>429</v>
       </c>
       <c r="I235" s="340" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K235" s="349">
         <v>42669</v>
@@ -18098,7 +18957,7 @@
       <c r="O235" s="421"/>
       <c r="P235" s="421"/>
     </row>
-    <row r="236" spans="1:16" s="340" customFormat="1" ht="40.5">
+    <row r="236" spans="1:16" s="340" customFormat="1" ht="40.5" hidden="1">
       <c r="A236" s="162">
         <v>234</v>
       </c>
@@ -18118,7 +18977,7 @@
         <v>526</v>
       </c>
       <c r="G236" s="347" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H236" s="309" t="s">
         <v>269</v>
@@ -18134,7 +18993,7 @@
       </c>
       <c r="M236" s="394"/>
       <c r="N236" s="394" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="O236" s="440">
         <v>42689</v>
@@ -18143,7 +19002,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="237" spans="1:16" s="340" customFormat="1" ht="27">
+    <row r="237" spans="1:16" s="340" customFormat="1" ht="27" hidden="1">
       <c r="A237" s="162">
         <v>235</v>
       </c>
@@ -18163,13 +19022,13 @@
         <v>216</v>
       </c>
       <c r="G237" s="346" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H237" s="309" t="s">
         <v>269</v>
       </c>
       <c r="I237" s="340" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K237" s="349">
         <v>42669</v>
@@ -18180,7 +19039,7 @@
       <c r="O237" s="428"/>
       <c r="P237" s="421"/>
     </row>
-    <row r="238" spans="1:16" s="340" customFormat="1" ht="40.5">
+    <row r="238" spans="1:16" s="340" customFormat="1" ht="40.5" hidden="1">
       <c r="A238" s="162">
         <v>236</v>
       </c>
@@ -18218,7 +19077,7 @@
       <c r="O238" s="421"/>
       <c r="P238" s="421"/>
     </row>
-    <row r="239" spans="1:16" s="340" customFormat="1" ht="27">
+    <row r="239" spans="1:16" s="340" customFormat="1" ht="27" hidden="1">
       <c r="A239" s="162">
         <v>237</v>
       </c>
@@ -18256,7 +19115,7 @@
       <c r="O239" s="421"/>
       <c r="P239" s="421"/>
     </row>
-    <row r="240" spans="1:16" s="340" customFormat="1" ht="27">
+    <row r="240" spans="1:16" s="340" customFormat="1" ht="27" hidden="1">
       <c r="A240" s="162">
         <v>238</v>
       </c>
@@ -18294,7 +19153,7 @@
       <c r="O240" s="421"/>
       <c r="P240" s="421"/>
     </row>
-    <row r="241" spans="1:16" s="378" customFormat="1" ht="54">
+    <row r="241" spans="1:16" s="378" customFormat="1" ht="54" hidden="1">
       <c r="A241" s="162">
         <v>239</v>
       </c>
@@ -18314,13 +19173,13 @@
         <v>545</v>
       </c>
       <c r="G241" s="385" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="H241" s="377" t="s">
         <v>269</v>
       </c>
       <c r="I241" s="378" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="K241" s="381">
         <v>42695</v>
@@ -18337,7 +19196,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="242" spans="1:16" s="340" customFormat="1" ht="27">
+    <row r="242" spans="1:16" s="340" customFormat="1" ht="27" hidden="1">
       <c r="A242" s="162">
         <v>240</v>
       </c>
@@ -18357,13 +19216,13 @@
         <v>553</v>
       </c>
       <c r="G242" s="254" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H242" s="309" t="s">
         <v>269</v>
       </c>
       <c r="I242" s="340" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K242" s="349">
         <v>42677</v>
@@ -18380,7 +19239,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="243" spans="1:16" s="340" customFormat="1" ht="27">
+    <row r="243" spans="1:16" s="340" customFormat="1" ht="27" hidden="1">
       <c r="A243" s="162">
         <v>241</v>
       </c>
@@ -18400,13 +19259,13 @@
         <v>396</v>
       </c>
       <c r="G243" s="254" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H243" s="309" t="s">
         <v>269</v>
       </c>
       <c r="I243" s="340" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K243" s="349">
         <v>42677</v>
@@ -18423,7 +19282,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="244" spans="1:16" s="378" customFormat="1" ht="40.5">
+    <row r="244" spans="1:16" s="378" customFormat="1" ht="40.5" hidden="1">
       <c r="A244" s="162">
         <v>242</v>
       </c>
@@ -18443,10 +19302,10 @@
         <v>177</v>
       </c>
       <c r="G244" s="386" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="I244" s="378" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="K244" s="381">
         <v>42695</v>
@@ -18463,7 +19322,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="245" spans="1:16" s="340" customFormat="1">
+    <row r="245" spans="1:16" s="340" customFormat="1" hidden="1">
       <c r="A245" s="162">
         <v>243</v>
       </c>
@@ -18480,16 +19339,16 @@
         <v>42666</v>
       </c>
       <c r="F245" s="324" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G245" s="346" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H245" s="309" t="s">
         <v>269</v>
       </c>
       <c r="I245" s="340" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="K245" s="349">
         <v>42669</v>
@@ -18500,7 +19359,7 @@
       <c r="O245" s="394"/>
       <c r="P245" s="394"/>
     </row>
-    <row r="246" spans="1:16" s="340" customFormat="1" ht="40.5">
+    <row r="246" spans="1:16" s="340" customFormat="1" ht="40.5" hidden="1">
       <c r="A246" s="162">
         <v>244</v>
       </c>
@@ -18532,12 +19391,12 @@
       <c r="L246" s="421"/>
       <c r="M246" s="421"/>
       <c r="N246" s="421" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="O246" s="421"/>
       <c r="P246" s="421"/>
     </row>
-    <row r="247" spans="1:16" s="340" customFormat="1" ht="54">
+    <row r="247" spans="1:16" s="340" customFormat="1" ht="54" hidden="1">
       <c r="A247" s="162">
         <v>245</v>
       </c>
@@ -18557,7 +19416,7 @@
         <v>567</v>
       </c>
       <c r="G247" s="254" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="I247" s="340" t="s">
         <v>160</v>
@@ -18597,64 +19456,68 @@
         <v>568</v>
       </c>
       <c r="G248" s="354" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="H248" s="302" t="s">
         <v>269</v>
       </c>
       <c r="I248" s="371" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="L248" s="414" t="s">
         <v>52</v>
       </c>
       <c r="M248" s="393"/>
       <c r="N248" s="393" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="O248" s="393"/>
       <c r="P248" s="394" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="249" spans="1:16" s="352" customFormat="1" ht="40.5">
-      <c r="A249" s="162">
+    <row r="249" spans="1:16" s="421" customFormat="1" ht="40.5" hidden="1">
+      <c r="A249" s="392">
         <v>247</v>
       </c>
-      <c r="B249" s="302" t="s">
-        <v>18</v>
-      </c>
-      <c r="C249" s="302" t="s">
-        <v>15</v>
-      </c>
-      <c r="D249" s="333">
+      <c r="B249" s="407" t="s">
+        <v>18</v>
+      </c>
+      <c r="C249" s="407" t="s">
+        <v>15</v>
+      </c>
+      <c r="D249" s="420">
         <v>42666</v>
       </c>
-      <c r="E249" s="323">
+      <c r="E249" s="324">
         <v>42669</v>
       </c>
-      <c r="F249" s="323" t="s">
-        <v>567</v>
-      </c>
-      <c r="G249" s="353" t="s">
-        <v>672</v>
-      </c>
-      <c r="H249" s="302" t="s">
+      <c r="F249" s="324" t="s">
+        <v>723</v>
+      </c>
+      <c r="G249" s="254" t="s">
+        <v>724</v>
+      </c>
+      <c r="H249" s="407" t="s">
         <v>269</v>
       </c>
-      <c r="L249" s="430" t="s">
+      <c r="I249" s="421" t="s">
+        <v>720</v>
+      </c>
+      <c r="K249" s="428">
+        <v>42715</v>
+      </c>
+      <c r="L249" s="421" t="s">
         <v>52</v>
       </c>
-      <c r="M249" s="430"/>
-      <c r="N249" s="430"/>
-      <c r="O249" s="440">
+      <c r="O249" s="428">
         <v>42715</v>
       </c>
-      <c r="P249" s="430" t="s">
+      <c r="P249" s="421" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="250" spans="1:16" s="352" customFormat="1" ht="27">
+    <row r="250" spans="1:16" s="352" customFormat="1" ht="27" hidden="1">
       <c r="A250" s="162">
         <v>248</v>
       </c>
@@ -18671,20 +19534,20 @@
         <v>42669</v>
       </c>
       <c r="F250" s="364" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G250" s="353" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I250" s="352" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="L250" s="430" t="s">
         <v>273</v>
       </c>
       <c r="M250" s="430"/>
       <c r="N250" s="430" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="O250" s="440">
         <v>42680</v>
@@ -18693,7 +19556,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="251" spans="1:16" s="352" customFormat="1" ht="67.5">
+    <row r="251" spans="1:16" s="352" customFormat="1" ht="67.5" hidden="1">
       <c r="A251" s="162">
         <v>249</v>
       </c>
@@ -18713,64 +19576,68 @@
         <v>569</v>
       </c>
       <c r="G251" s="353" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H251" s="302" t="s">
         <v>269</v>
       </c>
       <c r="I251" s="382" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="L251" s="430" t="s">
         <v>155</v>
       </c>
       <c r="M251" s="430"/>
       <c r="N251" s="430" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="O251" s="430"/>
       <c r="P251" s="430" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="252" spans="1:16" s="352" customFormat="1" ht="108">
-      <c r="A252" s="162">
+    <row r="252" spans="1:16" s="421" customFormat="1" ht="121.5" hidden="1">
+      <c r="A252" s="392">
         <v>250</v>
       </c>
-      <c r="B252" s="302" t="s">
-        <v>18</v>
-      </c>
-      <c r="C252" s="302" t="s">
-        <v>15</v>
-      </c>
-      <c r="D252" s="333">
+      <c r="B252" s="407" t="s">
+        <v>18</v>
+      </c>
+      <c r="C252" s="407" t="s">
+        <v>15</v>
+      </c>
+      <c r="D252" s="420">
         <v>42666</v>
       </c>
-      <c r="E252" s="323">
+      <c r="E252" s="324">
         <v>42669</v>
       </c>
-      <c r="F252" s="364" t="s">
-        <v>570</v>
-      </c>
-      <c r="G252" s="389" t="s">
-        <v>663</v>
-      </c>
-      <c r="H252" s="302" t="s">
+      <c r="F252" s="324" t="s">
+        <v>712</v>
+      </c>
+      <c r="G252" s="273" t="s">
+        <v>713</v>
+      </c>
+      <c r="H252" s="407" t="s">
         <v>269</v>
       </c>
-      <c r="L252" s="430" t="s">
+      <c r="I252" s="421" t="s">
+        <v>714</v>
+      </c>
+      <c r="K252" s="428">
+        <v>42713</v>
+      </c>
+      <c r="L252" s="421" t="s">
         <v>52</v>
       </c>
-      <c r="M252" s="430"/>
-      <c r="N252" s="430"/>
-      <c r="O252" s="447">
+      <c r="O252" s="428">
         <v>42708</v>
       </c>
-      <c r="P252" s="430" t="s">
+      <c r="P252" s="421" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="253" spans="1:16" s="352" customFormat="1" ht="27">
+    <row r="253" spans="1:16" s="352" customFormat="1" ht="27" hidden="1">
       <c r="A253" s="162">
         <v>251</v>
       </c>
@@ -18787,23 +19654,23 @@
         <v>42669</v>
       </c>
       <c r="F253" s="323" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G253" s="353" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H253" s="302" t="s">
         <v>269</v>
       </c>
       <c r="I253" s="352" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L253" s="430" t="s">
         <v>273</v>
       </c>
       <c r="M253" s="430"/>
       <c r="N253" s="430" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="O253" s="440">
         <v>42674</v>
@@ -18812,7 +19679,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="254" spans="1:16" s="378" customFormat="1" ht="54">
+    <row r="254" spans="1:16" s="378" customFormat="1" ht="54" hidden="1">
       <c r="A254" s="162">
         <v>252</v>
       </c>
@@ -18829,16 +19696,16 @@
         <v>42669</v>
       </c>
       <c r="F254" s="384" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G254" s="387" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="H254" s="377" t="s">
         <v>269</v>
       </c>
       <c r="I254" s="378" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="K254" s="381">
         <v>42695</v>
@@ -18848,7 +19715,7 @@
       </c>
       <c r="M254" s="448"/>
       <c r="N254" s="432" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="O254" s="445">
         <v>42676</v>
@@ -18857,7 +19724,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="255" spans="1:16" s="340" customFormat="1">
+    <row r="255" spans="1:16" s="340" customFormat="1" hidden="1">
       <c r="A255" s="162">
         <v>253</v>
       </c>
@@ -18874,16 +19741,16 @@
         <v>42669</v>
       </c>
       <c r="F255" s="324" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G255" s="273" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H255" s="309" t="s">
         <v>269</v>
       </c>
       <c r="I255" s="340" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K255" s="349">
         <v>42677</v>
@@ -18893,7 +19760,7 @@
       </c>
       <c r="M255" s="430"/>
       <c r="N255" s="430" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="O255" s="440">
         <v>42670</v>
@@ -18902,7 +19769,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="256" spans="1:16" s="376" customFormat="1" ht="54">
+    <row r="256" spans="1:16" s="376" customFormat="1" ht="54" hidden="1">
       <c r="A256" s="162">
         <v>254</v>
       </c>
@@ -18919,16 +19786,16 @@
         <v>42669</v>
       </c>
       <c r="F256" s="324" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G256" s="273" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="H256" s="373" t="s">
         <v>269</v>
       </c>
       <c r="I256" s="376" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="K256" s="380">
         <v>42713</v>
@@ -18945,7 +19812,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="257" spans="1:16" s="340" customFormat="1" ht="40.5">
+    <row r="257" spans="1:16" s="340" customFormat="1" ht="40.5" hidden="1">
       <c r="A257" s="162">
         <v>255</v>
       </c>
@@ -18962,16 +19829,16 @@
         <v>42669</v>
       </c>
       <c r="F257" s="324" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G257" s="254" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H257" s="309" t="s">
         <v>269</v>
       </c>
       <c r="I257" s="340" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K257" s="349">
         <v>42677</v>
@@ -18981,7 +19848,7 @@
       </c>
       <c r="M257" s="430"/>
       <c r="N257" s="430" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="O257" s="447">
         <v>42676</v>
@@ -18990,7 +19857,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="258" spans="1:16" s="378" customFormat="1" ht="27">
+    <row r="258" spans="1:16" s="378" customFormat="1" ht="27" hidden="1">
       <c r="A258" s="162">
         <v>256</v>
       </c>
@@ -19007,16 +19874,16 @@
         <v>42670</v>
       </c>
       <c r="F258" s="388" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G258" s="387" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H258" s="377" t="s">
         <v>269</v>
       </c>
       <c r="I258" s="378" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K258" s="381">
         <v>42692</v>
@@ -19027,13 +19894,13 @@
       <c r="M258" s="449"/>
       <c r="N258" s="450"/>
       <c r="O258" s="451" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="P258" s="452" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="259" spans="1:16" s="340" customFormat="1" ht="67.5">
+    <row r="259" spans="1:16" s="340" customFormat="1" ht="67.5" hidden="1">
       <c r="A259" s="162">
         <v>257</v>
       </c>
@@ -19053,13 +19920,13 @@
         <v>396</v>
       </c>
       <c r="G259" s="254" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H259" s="309" t="s">
         <v>269</v>
       </c>
       <c r="I259" s="340" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K259" s="349">
         <v>42677</v>
@@ -19076,7 +19943,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="260" spans="1:16" s="352" customFormat="1" ht="27">
+    <row r="260" spans="1:16" s="352" customFormat="1" ht="27" hidden="1">
       <c r="A260" s="162">
         <v>258</v>
       </c>
@@ -19093,23 +19960,23 @@
         <v>42675</v>
       </c>
       <c r="F260" s="364" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G260" s="353" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H260" s="359" t="s">
         <v>269</v>
       </c>
       <c r="I260" s="352" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L260" s="430" t="s">
         <v>273</v>
       </c>
       <c r="M260" s="430"/>
       <c r="N260" s="430" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="O260" s="447">
         <v>42676</v>
@@ -19118,7 +19985,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="261" spans="1:16" s="340" customFormat="1" ht="40.5">
+    <row r="261" spans="1:16" s="340" customFormat="1" ht="40.5" hidden="1">
       <c r="A261" s="162">
         <v>259</v>
       </c>
@@ -19135,16 +20002,16 @@
         <v>42675</v>
       </c>
       <c r="F261" s="324" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G261" s="254" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H261" s="309" t="s">
         <v>269</v>
       </c>
       <c r="I261" s="340" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K261" s="349">
         <v>42677</v>
@@ -19161,7 +20028,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="262" spans="1:16" s="352" customFormat="1" ht="40.5">
+    <row r="262" spans="1:16" s="352" customFormat="1" ht="40.5" hidden="1">
       <c r="A262" s="162">
         <v>260</v>
       </c>
@@ -19178,27 +20045,30 @@
         <v>42675</v>
       </c>
       <c r="F262" s="367" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="G262" s="353" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H262" s="359" t="s">
         <v>269</v>
       </c>
+      <c r="I262" s="394" t="s">
+        <v>716</v>
+      </c>
       <c r="L262" s="394" t="s">
         <v>155</v>
       </c>
       <c r="M262" s="430"/>
       <c r="N262" s="430" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="O262" s="430"/>
       <c r="P262" s="430" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="263" spans="1:16" s="340" customFormat="1" ht="81">
+    <row r="263" spans="1:16" s="340" customFormat="1" ht="81" hidden="1">
       <c r="A263" s="162">
         <v>261</v>
       </c>
@@ -19215,13 +20085,13 @@
         <v>42675</v>
       </c>
       <c r="F263" s="324" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G263" s="368" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I263" s="340" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K263" s="349">
         <v>42677</v>
@@ -19231,7 +20101,7 @@
       </c>
       <c r="M263" s="393"/>
       <c r="N263" s="394" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="O263" s="440">
         <v>42676</v>
@@ -19240,7 +20110,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="264" spans="1:16" s="376" customFormat="1" ht="81">
+    <row r="264" spans="1:16" s="376" customFormat="1" ht="81" hidden="1">
       <c r="A264" s="162">
         <v>262</v>
       </c>
@@ -19257,16 +20127,16 @@
         <v>42679</v>
       </c>
       <c r="F264" s="376" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="G264" s="273" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="H264" s="373" t="s">
         <v>269</v>
       </c>
       <c r="I264" s="376" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="K264" s="380">
         <v>42713</v>
@@ -19276,7 +20146,7 @@
       </c>
       <c r="M264" s="393"/>
       <c r="N264" s="394" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="O264" s="440">
         <v>42709</v>
@@ -19285,84 +20155,91 @@
         <v>376</v>
       </c>
     </row>
-    <row r="265" spans="1:16" s="296" customFormat="1" ht="67.5">
-      <c r="A265" s="162">
+    <row r="265" spans="1:16" s="421" customFormat="1" ht="67.5" hidden="1">
+      <c r="A265" s="392">
         <v>263</v>
       </c>
-      <c r="B265" s="359" t="s">
-        <v>18</v>
-      </c>
-      <c r="C265" s="359" t="s">
-        <v>15</v>
-      </c>
-      <c r="D265" s="366">
+      <c r="B265" s="407" t="s">
+        <v>18</v>
+      </c>
+      <c r="C265" s="407" t="s">
+        <v>15</v>
+      </c>
+      <c r="D265" s="420">
         <v>42677</v>
       </c>
-      <c r="E265" s="364">
+      <c r="E265" s="324">
         <v>42679</v>
       </c>
-      <c r="F265" s="296" t="s">
-        <v>611</v>
-      </c>
-      <c r="G265" s="337" t="s">
-        <v>675</v>
-      </c>
-      <c r="H265" s="359" t="s">
+      <c r="F265" s="421" t="s">
+        <v>721</v>
+      </c>
+      <c r="G265" s="254" t="s">
+        <v>722</v>
+      </c>
+      <c r="H265" s="407" t="s">
         <v>269</v>
       </c>
-      <c r="L265" s="394" t="s">
+      <c r="I265" s="421" t="s">
+        <v>720</v>
+      </c>
+      <c r="K265" s="428">
+        <v>42715</v>
+      </c>
+      <c r="L265" s="421" t="s">
         <v>52</v>
       </c>
-      <c r="M265" s="394"/>
-      <c r="N265" s="394"/>
-      <c r="O265" s="440">
+      <c r="O265" s="428">
         <v>42715</v>
       </c>
-      <c r="P265" s="394" t="s">
+      <c r="P265" s="421" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="81">
-      <c r="A266" s="162">
+    <row r="266" spans="1:16" s="432" customFormat="1" ht="108" hidden="1">
+      <c r="A266" s="456">
         <v>264</v>
       </c>
-      <c r="B266" s="359" t="s">
-        <v>18</v>
-      </c>
-      <c r="C266" s="359" t="s">
-        <v>15</v>
-      </c>
-      <c r="D266" s="374">
+      <c r="B266" s="431" t="s">
+        <v>18</v>
+      </c>
+      <c r="C266" s="431" t="s">
+        <v>15</v>
+      </c>
+      <c r="D266" s="383">
         <v>42695</v>
       </c>
-      <c r="E266" s="364">
+      <c r="E266" s="384">
         <v>42695</v>
       </c>
-      <c r="F266" s="390" t="s">
-        <v>641</v>
-      </c>
-      <c r="G266" s="354" t="s">
-        <v>718</v>
-      </c>
-      <c r="H266" s="392" t="s">
+      <c r="F266" s="457" t="s">
+        <v>637</v>
+      </c>
+      <c r="G266" s="458" t="s">
+        <v>734</v>
+      </c>
+      <c r="H266" s="459" t="s">
         <v>269</v>
       </c>
-      <c r="I266" s="371" t="s">
-        <v>695</v>
-      </c>
-      <c r="L266" s="394" t="s">
+      <c r="I266" s="432" t="s">
+        <v>529</v>
+      </c>
+      <c r="K266" s="445">
+        <v>42715</v>
+      </c>
+      <c r="L266" s="432" t="s">
         <v>52</v>
       </c>
-      <c r="M266" s="393"/>
-      <c r="N266" s="393"/>
-      <c r="O266" s="440">
+      <c r="M266" s="448"/>
+      <c r="N266" s="448"/>
+      <c r="O266" s="445">
         <v>42707</v>
       </c>
-      <c r="P266" s="394" t="s">
+      <c r="P266" s="432" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="267" spans="1:16" s="376" customFormat="1" ht="54">
+    <row r="267" spans="1:16" s="376" customFormat="1" ht="54" hidden="1">
       <c r="A267" s="162">
         <v>265</v>
       </c>
@@ -19382,13 +20259,13 @@
         <v>190</v>
       </c>
       <c r="G267" s="254" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="H267" s="373" t="s">
         <v>269</v>
       </c>
       <c r="I267" s="376" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="K267" s="380">
         <v>42713</v>
@@ -19405,7 +20282,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="268" spans="1:16" s="376" customFormat="1">
+    <row r="268" spans="1:16" s="376" customFormat="1" hidden="1">
       <c r="A268" s="162">
         <v>266</v>
       </c>
@@ -19422,13 +20299,13 @@
         <v>42695</v>
       </c>
       <c r="F268" s="376" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="G268" s="254" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="I268" s="376" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="K268" s="380">
         <v>42713</v>
@@ -19445,7 +20322,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="269" spans="1:16" s="371" customFormat="1" ht="40.5">
+    <row r="269" spans="1:16" s="371" customFormat="1" ht="40.5" hidden="1">
       <c r="A269" s="162">
         <v>267</v>
       </c>
@@ -19462,17 +20339,20 @@
         <v>42695</v>
       </c>
       <c r="F269" s="371" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G269" s="337" t="s">
-        <v>676</v>
+        <v>669</v>
+      </c>
+      <c r="I269" s="394" t="s">
+        <v>716</v>
       </c>
       <c r="L269" s="394" t="s">
         <v>155</v>
       </c>
       <c r="M269" s="394"/>
       <c r="N269" s="394" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="O269" s="440">
         <v>42707</v>
@@ -19498,20 +20378,20 @@
         <v>42695</v>
       </c>
       <c r="F270" s="371" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G270" s="337" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="I270" s="371" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="L270" s="394" t="s">
         <v>52</v>
       </c>
       <c r="M270" s="394"/>
       <c r="N270" s="394" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="O270" s="440">
         <v>42709</v>
@@ -19537,20 +20417,20 @@
         <v>42695</v>
       </c>
       <c r="F271" s="371" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G271" s="337" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="I271" s="371" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="L271" s="394" t="s">
         <v>52</v>
       </c>
       <c r="M271" s="394"/>
       <c r="N271" s="394" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="O271" s="440">
         <v>42709</v>
@@ -19576,20 +20456,20 @@
         <v>42695</v>
       </c>
       <c r="F272" s="371" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G272" s="337" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="I272" s="371" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="L272" s="394" t="s">
         <v>52</v>
       </c>
       <c r="M272" s="394"/>
       <c r="N272" s="394" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="O272" s="440">
         <v>42709</v>
@@ -19598,44 +20478,45 @@
         <v>376</v>
       </c>
     </row>
-    <row r="273" spans="1:16" s="371" customFormat="1" ht="81">
-      <c r="A273" s="162">
+    <row r="273" spans="1:16" s="421" customFormat="1" ht="108" hidden="1">
+      <c r="A273" s="392">
         <v>271</v>
       </c>
-      <c r="B273" s="372" t="s">
-        <v>18</v>
-      </c>
-      <c r="C273" s="372" t="s">
-        <v>15</v>
-      </c>
-      <c r="D273" s="374">
+      <c r="B273" s="407" t="s">
+        <v>18</v>
+      </c>
+      <c r="C273" s="407" t="s">
+        <v>15</v>
+      </c>
+      <c r="D273" s="420">
         <v>42695</v>
       </c>
-      <c r="E273" s="364">
+      <c r="E273" s="324">
         <v>42695</v>
       </c>
-      <c r="F273" s="371" t="s">
-        <v>704</v>
-      </c>
-      <c r="G273" s="337" t="s">
-        <v>713</v>
-      </c>
-      <c r="I273" s="371" t="s">
-        <v>695</v>
-      </c>
-      <c r="L273" s="394" t="s">
+      <c r="F273" s="421" t="s">
+        <v>726</v>
+      </c>
+      <c r="G273" s="254" t="s">
+        <v>736</v>
+      </c>
+      <c r="I273" s="421" t="s">
+        <v>727</v>
+      </c>
+      <c r="K273" s="428">
+        <v>42715</v>
+      </c>
+      <c r="L273" s="421" t="s">
         <v>52</v>
       </c>
-      <c r="M273" s="394"/>
-      <c r="N273" s="394"/>
-      <c r="O273" s="440">
+      <c r="O273" s="428">
         <v>42708</v>
       </c>
-      <c r="P273" s="394" t="s">
+      <c r="P273" s="421" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="274" spans="1:16" s="371" customFormat="1" ht="27">
+    <row r="274" spans="1:16" s="371" customFormat="1" ht="27" hidden="1">
       <c r="A274" s="162">
         <v>272</v>
       </c>
@@ -19652,63 +20533,71 @@
         <v>42695</v>
       </c>
       <c r="F274" s="390" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="G274" s="354" t="s">
-        <v>679</v>
+        <v>715</v>
+      </c>
+      <c r="I274" s="394" t="s">
+        <v>716</v>
       </c>
       <c r="L274" s="394" t="s">
         <v>155</v>
       </c>
       <c r="M274" s="394"/>
       <c r="N274" s="394" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="O274" s="394"/>
       <c r="P274" s="394" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="275" spans="1:16" s="371" customFormat="1" ht="27">
-      <c r="A275" s="162">
+    <row r="275" spans="1:16" s="421" customFormat="1" ht="27" hidden="1">
+      <c r="A275" s="392">
         <v>273</v>
       </c>
-      <c r="B275" s="372" t="s">
-        <v>18</v>
-      </c>
-      <c r="C275" s="372" t="s">
-        <v>15</v>
-      </c>
-      <c r="D275" s="374">
+      <c r="B275" s="407" t="s">
+        <v>18</v>
+      </c>
+      <c r="C275" s="407" t="s">
+        <v>15</v>
+      </c>
+      <c r="D275" s="420">
         <v>42695</v>
       </c>
-      <c r="E275" s="364">
+      <c r="E275" s="324">
         <v>42695</v>
       </c>
-      <c r="F275" s="371" t="s">
-        <v>681</v>
-      </c>
-      <c r="G275" s="337" t="s">
-        <v>683</v>
-      </c>
-      <c r="H275" s="371" t="s">
-        <v>682</v>
-      </c>
-      <c r="L275" s="394" t="s">
+      <c r="F275" s="421" t="s">
+        <v>673</v>
+      </c>
+      <c r="G275" s="254" t="s">
+        <v>674</v>
+      </c>
+      <c r="H275" s="421" t="s">
+        <v>106</v>
+      </c>
+      <c r="I275" s="421" t="s">
+        <v>711</v>
+      </c>
+      <c r="K275" s="428">
+        <v>42713</v>
+      </c>
+      <c r="L275" s="421" t="s">
         <v>273</v>
       </c>
-      <c r="M275" s="394"/>
-      <c r="N275" s="394" t="s">
-        <v>724</v>
-      </c>
-      <c r="O275" s="440">
+      <c r="N275" s="421" t="s">
+        <v>706</v>
+      </c>
+      <c r="O275" s="428">
         <v>42710</v>
       </c>
-      <c r="P275" s="394" t="s">
+      <c r="P275" s="421" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="276" spans="1:16" s="376" customFormat="1" ht="54">
+    <row r="276" spans="1:16" s="376" customFormat="1" ht="54" hidden="1">
       <c r="A276" s="162">
         <v>274</v>
       </c>
@@ -19725,16 +20614,16 @@
         <v>42695</v>
       </c>
       <c r="F276" s="376" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="G276" s="273" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="H276" s="376" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="I276" s="376" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="K276" s="380">
         <v>42713</v>
@@ -19744,7 +20633,7 @@
       </c>
       <c r="M276" s="394"/>
       <c r="N276" s="394" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="O276" s="440">
         <v>42710</v>
@@ -19753,44 +20642,48 @@
         <v>376</v>
       </c>
     </row>
-    <row r="277" spans="1:16" s="371" customFormat="1" ht="27">
-      <c r="A277" s="162">
+    <row r="277" spans="1:16" s="421" customFormat="1" ht="27" hidden="1">
+      <c r="A277" s="392">
         <v>275</v>
       </c>
-      <c r="B277" s="372" t="s">
-        <v>18</v>
-      </c>
-      <c r="C277" s="372" t="s">
-        <v>15</v>
-      </c>
-      <c r="D277" s="374">
+      <c r="B277" s="407" t="s">
+        <v>18</v>
+      </c>
+      <c r="C277" s="407" t="s">
+        <v>15</v>
+      </c>
+      <c r="D277" s="420">
         <v>42695</v>
       </c>
-      <c r="E277" s="364">
+      <c r="E277" s="324">
         <v>42695</v>
       </c>
-      <c r="F277" s="371" t="s">
-        <v>681</v>
-      </c>
-      <c r="G277" s="337" t="s">
-        <v>684</v>
-      </c>
-      <c r="H277" s="371" t="s">
-        <v>682</v>
-      </c>
-      <c r="L277" s="394" t="s">
+      <c r="F277" s="421" t="s">
+        <v>673</v>
+      </c>
+      <c r="G277" s="254" t="s">
+        <v>675</v>
+      </c>
+      <c r="H277" s="421" t="s">
+        <v>106</v>
+      </c>
+      <c r="I277" s="421" t="s">
+        <v>717</v>
+      </c>
+      <c r="K277" s="428">
+        <v>42715</v>
+      </c>
+      <c r="L277" s="421" t="s">
         <v>52</v>
       </c>
-      <c r="M277" s="394"/>
-      <c r="N277" s="394"/>
-      <c r="O277" s="440">
+      <c r="O277" s="428">
         <v>42715</v>
       </c>
-      <c r="P277" s="394" t="s">
+      <c r="P277" s="421" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="278" spans="1:16" s="376" customFormat="1" ht="81">
+    <row r="278" spans="1:16" s="376" customFormat="1" ht="81" hidden="1">
       <c r="A278" s="162">
         <v>276</v>
       </c>
@@ -19807,16 +20700,16 @@
         <v>42695</v>
       </c>
       <c r="F278" s="376" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="G278" s="254" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="H278" s="376" t="s">
         <v>106</v>
       </c>
       <c r="I278" s="376" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="K278" s="380">
         <v>42713</v>
@@ -19826,7 +20719,7 @@
       </c>
       <c r="M278" s="394"/>
       <c r="N278" s="394" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="O278" s="440">
         <v>42710</v>
@@ -19835,46 +20728,51 @@
         <v>376</v>
       </c>
     </row>
-    <row r="279" spans="1:16" s="371" customFormat="1" ht="27">
-      <c r="A279" s="162">
+    <row r="279" spans="1:16" s="421" customFormat="1" ht="27" hidden="1">
+      <c r="A279" s="392">
         <v>277</v>
       </c>
-      <c r="B279" s="372" t="s">
-        <v>18</v>
-      </c>
-      <c r="C279" s="372" t="s">
-        <v>690</v>
-      </c>
-      <c r="D279" s="374">
+      <c r="B279" s="407" t="s">
+        <v>18</v>
+      </c>
+      <c r="C279" s="407" t="s">
+        <v>133</v>
+      </c>
+      <c r="D279" s="420">
         <v>42713</v>
       </c>
-      <c r="E279" s="364">
+      <c r="E279" s="324">
         <v>42714</v>
       </c>
-      <c r="F279" s="371" t="s">
-        <v>687</v>
-      </c>
-      <c r="G279" s="337" t="s">
-        <v>691</v>
-      </c>
-      <c r="H279" s="371" t="s">
+      <c r="F279" s="421" t="s">
+        <v>295</v>
+      </c>
+      <c r="G279" s="254" t="s">
+        <v>681</v>
+      </c>
+      <c r="H279" s="421" t="s">
         <v>106</v>
       </c>
-      <c r="L279" s="394" t="s">
+      <c r="I279" s="421" t="s">
+        <v>717</v>
+      </c>
+      <c r="K279" s="428">
+        <v>42715</v>
+      </c>
+      <c r="L279" s="421" t="s">
         <v>52</v>
       </c>
-      <c r="M279" s="394"/>
-      <c r="N279" s="394" t="s">
-        <v>727</v>
-      </c>
-      <c r="O279" s="440">
+      <c r="N279" s="421" t="s">
+        <v>709</v>
+      </c>
+      <c r="O279" s="428">
         <v>42715</v>
       </c>
-      <c r="P279" s="394" t="s">
+      <c r="P279" s="421" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="280" spans="1:16" s="371" customFormat="1" ht="27">
+    <row r="280" spans="1:16" s="371" customFormat="1" ht="40.5" hidden="1">
       <c r="A280" s="162">
         <v>278</v>
       </c>
@@ -19882,7 +20780,7 @@
         <v>18</v>
       </c>
       <c r="C280" s="372" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="D280" s="374">
         <v>42713</v>
@@ -19890,21 +20788,24 @@
       <c r="E280" s="364">
         <v>42714</v>
       </c>
-      <c r="F280" s="371" t="s">
-        <v>689</v>
-      </c>
-      <c r="G280" s="337" t="s">
-        <v>692</v>
-      </c>
-      <c r="H280" s="371" t="s">
+      <c r="F280" s="390" t="s">
+        <v>679</v>
+      </c>
+      <c r="G280" s="354" t="s">
+        <v>733</v>
+      </c>
+      <c r="H280" s="390" t="s">
         <v>106</v>
+      </c>
+      <c r="I280" s="394" t="s">
+        <v>716</v>
       </c>
       <c r="L280" s="394" t="s">
         <v>52</v>
       </c>
       <c r="M280" s="394"/>
       <c r="N280" s="394" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="O280" s="440">
         <v>42715</v>
@@ -19913,44 +20814,48 @@
         <v>442</v>
       </c>
     </row>
-    <row r="281" spans="1:16" s="371" customFormat="1" ht="27">
-      <c r="A281" s="162">
+    <row r="281" spans="1:16" s="421" customFormat="1" ht="27" hidden="1">
+      <c r="A281" s="392">
         <v>279</v>
       </c>
-      <c r="B281" s="372" t="s">
-        <v>18</v>
-      </c>
-      <c r="C281" s="372" t="s">
-        <v>690</v>
-      </c>
-      <c r="D281" s="374">
+      <c r="B281" s="407" t="s">
+        <v>18</v>
+      </c>
+      <c r="C281" s="407" t="s">
+        <v>133</v>
+      </c>
+      <c r="D281" s="420">
         <v>42713</v>
       </c>
-      <c r="E281" s="364">
+      <c r="E281" s="324">
         <v>42714</v>
       </c>
-      <c r="F281" s="371" t="s">
-        <v>688</v>
-      </c>
-      <c r="G281" s="337" t="s">
-        <v>693</v>
-      </c>
-      <c r="H281" s="371" t="s">
+      <c r="F281" s="421" t="s">
+        <v>678</v>
+      </c>
+      <c r="G281" s="254" t="s">
+        <v>682</v>
+      </c>
+      <c r="H281" s="421" t="s">
         <v>106</v>
       </c>
-      <c r="L281" s="394" t="s">
+      <c r="I281" s="421" t="s">
+        <v>717</v>
+      </c>
+      <c r="K281" s="428">
+        <v>42715</v>
+      </c>
+      <c r="L281" s="421" t="s">
         <v>52</v>
       </c>
-      <c r="M281" s="394"/>
-      <c r="N281" s="394"/>
-      <c r="O281" s="440">
+      <c r="O281" s="428">
         <v>42715</v>
       </c>
-      <c r="P281" s="394" t="s">
+      <c r="P281" s="421" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="282" spans="1:16" s="371" customFormat="1" ht="27">
+    <row r="282" spans="1:16" s="371" customFormat="1" ht="27" hidden="1">
       <c r="A282" s="162">
         <v>280</v>
       </c>
@@ -19964,20 +20869,26 @@
         <v>42713</v>
       </c>
       <c r="E282" s="364">
-        <v>42714</v>
-      </c>
-      <c r="F282" s="371" t="s">
+        <v>42715</v>
+      </c>
+      <c r="F282" s="390" t="s">
         <v>533</v>
       </c>
-      <c r="G282" s="337" t="s">
-        <v>702</v>
-      </c>
-      <c r="H282" s="371" t="s">
+      <c r="G282" s="354" t="s">
+        <v>718</v>
+      </c>
+      <c r="H282" s="390" t="s">
         <v>106</v>
       </c>
+      <c r="I282" s="390" t="s">
+        <v>719</v>
+      </c>
+      <c r="N282" s="394" t="s">
+        <v>709</v>
+      </c>
       <c r="O282" s="379"/>
     </row>
-    <row r="283" spans="1:16" s="371" customFormat="1" ht="27">
+    <row r="283" spans="1:16" s="371" customFormat="1" ht="27" hidden="1">
       <c r="A283" s="162">
         <v>281</v>
       </c>
@@ -19991,74 +20902,221 @@
         <v>42713</v>
       </c>
       <c r="E283" s="364">
-        <v>42714</v>
-      </c>
-      <c r="F283" s="371" t="s">
-        <v>711</v>
-      </c>
-      <c r="G283" s="337" t="s">
-        <v>712</v>
-      </c>
-      <c r="H283" s="371" t="s">
+        <v>42715</v>
+      </c>
+      <c r="F283" s="390" t="s">
+        <v>710</v>
+      </c>
+      <c r="G283" s="354" t="s">
+        <v>725</v>
+      </c>
+      <c r="H283" s="390" t="s">
         <v>106</v>
       </c>
+      <c r="I283" s="390" t="s">
+        <v>719</v>
+      </c>
+      <c r="N283" s="394" t="s">
+        <v>709</v>
+      </c>
       <c r="O283" s="379"/>
     </row>
-    <row r="284" spans="1:16" ht="27">
-      <c r="A284" s="162">
+    <row r="284" spans="1:16" s="421" customFormat="1" ht="27" hidden="1">
+      <c r="A284" s="392">
         <v>282</v>
       </c>
-      <c r="B284" s="372" t="s">
-        <v>18</v>
-      </c>
-      <c r="C284" s="372" t="s">
+      <c r="B284" s="407" t="s">
+        <v>18</v>
+      </c>
+      <c r="C284" s="407" t="s">
         <v>133</v>
       </c>
-      <c r="D284" s="374">
+      <c r="D284" s="420">
         <v>42713</v>
       </c>
-      <c r="E284" s="364">
-        <v>42714</v>
-      </c>
-      <c r="F284" s="371" t="s">
-        <v>715</v>
-      </c>
-      <c r="G284" s="337" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="285" spans="1:16" ht="27">
-      <c r="A285" s="162">
+      <c r="E284" s="324">
+        <v>42715</v>
+      </c>
+      <c r="F284" s="421" t="s">
+        <v>731</v>
+      </c>
+      <c r="G284" s="254" t="s">
+        <v>699</v>
+      </c>
+      <c r="I284" s="421" t="s">
+        <v>529</v>
+      </c>
+      <c r="K284" s="428">
+        <v>42715</v>
+      </c>
+      <c r="L284" s="421" t="s">
+        <v>52</v>
+      </c>
+      <c r="O284" s="428">
+        <v>42715</v>
+      </c>
+      <c r="P284" s="421" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" s="421" customFormat="1" ht="27" hidden="1">
+      <c r="A285" s="392">
         <v>283</v>
       </c>
-      <c r="B285" s="372" t="s">
-        <v>18</v>
-      </c>
-      <c r="C285" s="372" t="s">
+      <c r="B285" s="407" t="s">
+        <v>18</v>
+      </c>
+      <c r="C285" s="407" t="s">
         <v>133</v>
       </c>
-      <c r="D285" s="374">
+      <c r="D285" s="420">
         <v>42713</v>
       </c>
-      <c r="E285" s="364">
-        <v>42714</v>
-      </c>
-      <c r="F285" s="371" t="s">
-        <v>715</v>
-      </c>
-      <c r="G285" s="337" t="s">
+      <c r="E285" s="324">
+        <v>42715</v>
+      </c>
+      <c r="F285" s="421" t="s">
+        <v>731</v>
+      </c>
+      <c r="G285" s="254" t="s">
+        <v>700</v>
+      </c>
+      <c r="I285" s="421" t="s">
         <v>717</v>
       </c>
+      <c r="K285" s="428">
+        <v>42715</v>
+      </c>
+      <c r="L285" s="421" t="s">
+        <v>52</v>
+      </c>
+      <c r="O285" s="428">
+        <v>42715</v>
+      </c>
+      <c r="P285" s="421" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" s="421" customFormat="1" ht="81" hidden="1">
+      <c r="A286" s="392">
+        <v>284</v>
+      </c>
+      <c r="B286" s="407" t="s">
+        <v>18</v>
+      </c>
+      <c r="C286" s="407" t="s">
+        <v>133</v>
+      </c>
+      <c r="D286" s="420">
+        <v>42713</v>
+      </c>
+      <c r="E286" s="324">
+        <v>42715</v>
+      </c>
+      <c r="F286" s="421" t="s">
+        <v>730</v>
+      </c>
+      <c r="G286" s="254" t="s">
+        <v>738</v>
+      </c>
+      <c r="I286" s="421" t="s">
+        <v>529</v>
+      </c>
+      <c r="K286" s="428">
+        <v>42715</v>
+      </c>
+      <c r="L286" s="421" t="s">
+        <v>52</v>
+      </c>
+      <c r="O286" s="428">
+        <v>42715</v>
+      </c>
+      <c r="P286" s="421" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" s="421" customFormat="1" ht="27" hidden="1">
+      <c r="A287" s="392">
+        <v>285</v>
+      </c>
+      <c r="B287" s="407" t="s">
+        <v>18</v>
+      </c>
+      <c r="C287" s="407" t="s">
+        <v>133</v>
+      </c>
+      <c r="D287" s="420">
+        <v>42713</v>
+      </c>
+      <c r="E287" s="324">
+        <v>42715</v>
+      </c>
+      <c r="F287" s="421" t="s">
+        <v>728</v>
+      </c>
+      <c r="G287" s="254" t="s">
+        <v>729</v>
+      </c>
+      <c r="H287" s="421" t="s">
+        <v>106</v>
+      </c>
+      <c r="I287" s="421" t="s">
+        <v>717</v>
+      </c>
+      <c r="K287" s="428">
+        <v>42715</v>
+      </c>
+      <c r="L287" s="421" t="s">
+        <v>52</v>
+      </c>
+      <c r="O287" s="428">
+        <v>42715</v>
+      </c>
+      <c r="P287" s="421" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" s="394" customFormat="1" ht="40.5" hidden="1">
+      <c r="A288" s="162">
+        <v>286</v>
+      </c>
+      <c r="B288" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C288" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D288" s="417">
+        <v>42715</v>
+      </c>
+      <c r="E288" s="364">
+        <v>42715</v>
+      </c>
+      <c r="F288" s="390" t="s">
+        <v>668</v>
+      </c>
+      <c r="G288" s="354" t="s">
+        <v>732</v>
+      </c>
+      <c r="H288" s="390"/>
+      <c r="I288" s="390" t="s">
+        <v>719</v>
+      </c>
+      <c r="O288" s="440"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Y285">
-    <filterColumn colId="8"/>
+  <autoFilter ref="A2:Y288">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="返回"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="11"/>
     <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20069,10 +21127,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P75"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -20396,185 +21454,185 @@
       </c>
       <c r="P10" s="161"/>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="18"/>
+    <row r="11" spans="1:16" s="65" customFormat="1" ht="81">
+      <c r="A11" s="61"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="214"/>
-      <c r="G11" s="22"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="174" t="s">
+        <v>145</v>
+      </c>
       <c r="H11" s="23"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="19"/>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
-      <c r="O11" s="20"/>
+      <c r="O11" s="62"/>
       <c r="P11" s="25"/>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="214"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="25"/>
-    </row>
-    <row r="13" spans="1:16" s="65" customFormat="1" ht="81">
-      <c r="A13" s="61"/>
+    <row r="12" spans="1:16" s="59" customFormat="1" ht="108">
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="58"/>
+    </row>
+    <row r="13" spans="1:16" ht="121.5">
+      <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="226"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="214"/>
       <c r="G13" s="174" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="62"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="19"/>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
-      <c r="O13" s="62"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="25"/>
     </row>
-    <row r="14" spans="1:16" s="59" customFormat="1" ht="108">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="222"/>
-      <c r="G14" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="58"/>
-    </row>
-    <row r="15" spans="1:16" ht="121.5">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="174" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="25"/>
-    </row>
-    <row r="16" spans="1:16" ht="54">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="174" t="s">
+    <row r="14" spans="1:16" ht="54">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="214"/>
+      <c r="G14" s="174" t="s">
         <v>148</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="25"/>
-    </row>
-    <row r="17" spans="1:16" s="208" customFormat="1" ht="40.5">
-      <c r="A17" s="211">
+      <c r="H14" s="23"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="25"/>
+    </row>
+    <row r="15" spans="1:16" s="208" customFormat="1" ht="40.5">
+      <c r="A15" s="211">
         <v>2</v>
       </c>
-      <c r="B17" s="212" t="s">
+      <c r="B15" s="212" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="212" t="s">
+      <c r="C15" s="212" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="213">
+      <c r="D15" s="213">
         <v>42632</v>
       </c>
-      <c r="E17" s="214">
+      <c r="E15" s="214">
         <v>42634</v>
       </c>
-      <c r="F17" s="214" t="s">
+      <c r="F15" s="214" t="s">
         <v>150</v>
       </c>
-      <c r="G17" s="215" t="s">
+      <c r="G15" s="215" t="s">
         <v>151</v>
       </c>
-      <c r="H17" s="216"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="217"/>
-      <c r="K17" s="217"/>
-      <c r="L17" s="212"/>
-      <c r="M17" s="216"/>
-      <c r="N17" s="216"/>
-      <c r="O17" s="213"/>
-      <c r="P17" s="218"/>
-    </row>
-    <row r="18" spans="1:16" s="122" customFormat="1" ht="94.5">
-      <c r="A18" s="211">
+      <c r="H15" s="216"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="217"/>
+      <c r="K15" s="217"/>
+      <c r="L15" s="212"/>
+      <c r="M15" s="216"/>
+      <c r="N15" s="216"/>
+      <c r="O15" s="213"/>
+      <c r="P15" s="218"/>
+    </row>
+    <row r="16" spans="1:16" s="122" customFormat="1" ht="94.5">
+      <c r="A16" s="211">
         <v>3</v>
       </c>
-      <c r="B18" s="172" t="s">
+      <c r="B16" s="172" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="212" t="s">
+      <c r="C16" s="212" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="128">
+      <c r="D16" s="128">
         <v>42632</v>
       </c>
-      <c r="E18" s="124">
+      <c r="E16" s="124">
         <v>42634</v>
       </c>
-      <c r="F18" s="175" t="s">
+      <c r="F16" s="175" t="s">
         <v>153</v>
       </c>
-      <c r="G18" s="176" t="s">
+      <c r="G16" s="176" t="s">
         <v>154</v>
       </c>
-      <c r="H18" s="160"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="160"/>
-      <c r="N18" s="160"/>
-      <c r="O18" s="128"/>
-      <c r="P18" s="161"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="160"/>
+      <c r="N16" s="160"/>
+      <c r="O16" s="128"/>
+      <c r="P16" s="161"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="25"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="25"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="18"/>
@@ -20598,7 +21656,7 @@
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="21"/>
       <c r="F20" s="214"/>
       <c r="G20" s="22"/>
@@ -20612,29 +21670,29 @@
       <c r="O20" s="20"/>
       <c r="P20" s="25"/>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="25"/>
+    <row r="21" spans="1:16" s="59" customFormat="1">
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="222"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="58"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="21"/>
       <c r="F22" s="214"/>
       <c r="G22" s="22"/>
@@ -20702,59 +21760,59 @@
       <c r="O25" s="53"/>
       <c r="P25" s="58"/>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="214"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="25"/>
-    </row>
-    <row r="27" spans="1:16" s="59" customFormat="1">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="222"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="58"/>
-    </row>
-    <row r="28" spans="1:16" s="59" customFormat="1">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="222"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="58"/>
+    <row r="26" spans="1:16" s="59" customFormat="1">
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="222"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="58"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="25"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="25"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="18"/>
@@ -20828,23 +21886,23 @@
       <c r="O32" s="20"/>
       <c r="P32" s="25"/>
     </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="25"/>
+    <row r="33" spans="1:16" s="59" customFormat="1">
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="222"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="58"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="18"/>
@@ -20864,23 +21922,23 @@
       <c r="O34" s="20"/>
       <c r="P34" s="25"/>
     </row>
-    <row r="35" spans="1:16" s="59" customFormat="1">
-      <c r="A35" s="51"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="222"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="58"/>
+    <row r="35" spans="1:16">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="25"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="18"/>
@@ -20918,77 +21976,77 @@
       <c r="O37" s="20"/>
       <c r="P37" s="25"/>
     </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="214"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="25"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="214"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="25"/>
-    </row>
-    <row r="40" spans="1:16" s="59" customFormat="1">
-      <c r="A40" s="51"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="222"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="58"/>
-    </row>
-    <row r="41" spans="1:16" s="59" customFormat="1">
-      <c r="A41" s="51"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="222"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="58"/>
+    <row r="38" spans="1:16" s="59" customFormat="1">
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="222"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="58"/>
+    </row>
+    <row r="39" spans="1:16" s="59" customFormat="1">
+      <c r="A39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="222"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="58"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="214"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="25"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="214"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="25"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="18"/>
@@ -21012,7 +22070,7 @@
       <c r="A43" s="18"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
-      <c r="D43" s="49"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="21"/>
       <c r="F43" s="214"/>
       <c r="G43" s="22"/>
@@ -21030,7 +22088,7 @@
       <c r="A44" s="18"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="21"/>
       <c r="F44" s="214"/>
       <c r="G44" s="22"/>
@@ -21048,7 +22106,7 @@
       <c r="A45" s="18"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="21"/>
       <c r="F45" s="214"/>
       <c r="G45" s="22"/>
@@ -21066,7 +22124,7 @@
       <c r="A46" s="18"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="21"/>
       <c r="F46" s="214"/>
       <c r="G46" s="22"/>
@@ -21087,7 +22145,7 @@
       <c r="D47" s="49"/>
       <c r="E47" s="21"/>
       <c r="F47" s="214"/>
-      <c r="G47" s="22"/>
+      <c r="G47" s="26"/>
       <c r="H47" s="23"/>
       <c r="I47" s="19"/>
       <c r="J47" s="24"/>
@@ -21105,7 +22163,7 @@
       <c r="D48" s="49"/>
       <c r="E48" s="21"/>
       <c r="F48" s="214"/>
-      <c r="G48" s="22"/>
+      <c r="G48" s="26"/>
       <c r="H48" s="23"/>
       <c r="I48" s="19"/>
       <c r="J48" s="24"/>
@@ -21134,23 +22192,23 @@
       <c r="O49" s="20"/>
       <c r="P49" s="25"/>
     </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="214"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="25"/>
+    <row r="50" spans="1:16" s="59" customFormat="1">
+      <c r="A50" s="51"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="222"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="58"/>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="18"/>
@@ -21159,7 +22217,7 @@
       <c r="D51" s="49"/>
       <c r="E51" s="21"/>
       <c r="F51" s="214"/>
-      <c r="G51" s="26"/>
+      <c r="G51" s="22"/>
       <c r="H51" s="23"/>
       <c r="I51" s="19"/>
       <c r="J51" s="24"/>
@@ -21170,23 +22228,23 @@
       <c r="O51" s="20"/>
       <c r="P51" s="25"/>
     </row>
-    <row r="52" spans="1:16" s="59" customFormat="1">
-      <c r="A52" s="51"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="222"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="58"/>
+    <row r="52" spans="1:16">
+      <c r="A52" s="18"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="214"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="25"/>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="18"/>
@@ -21195,7 +22253,7 @@
       <c r="D53" s="49"/>
       <c r="E53" s="21"/>
       <c r="F53" s="214"/>
-      <c r="G53" s="22"/>
+      <c r="G53" s="26"/>
       <c r="H53" s="23"/>
       <c r="I53" s="19"/>
       <c r="J53" s="24"/>
@@ -21231,7 +22289,7 @@
       <c r="D55" s="49"/>
       <c r="E55" s="21"/>
       <c r="F55" s="214"/>
-      <c r="G55" s="26"/>
+      <c r="G55" s="22"/>
       <c r="H55" s="23"/>
       <c r="I55" s="19"/>
       <c r="J55" s="24"/>
@@ -21374,8 +22432,8 @@
       <c r="C63" s="19"/>
       <c r="D63" s="49"/>
       <c r="E63" s="21"/>
-      <c r="F63" s="214"/>
-      <c r="G63" s="22"/>
+      <c r="F63" s="237"/>
+      <c r="G63" s="50"/>
       <c r="H63" s="23"/>
       <c r="I63" s="19"/>
       <c r="J63" s="24"/>
@@ -21386,72 +22444,36 @@
       <c r="O63" s="20"/>
       <c r="P63" s="25"/>
     </row>
-    <row r="64" spans="1:16">
-      <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="214"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="25"/>
-    </row>
-    <row r="65" spans="1:16">
-      <c r="A65" s="18"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="237"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="25"/>
-    </row>
-    <row r="66" spans="1:16" s="6" customFormat="1">
-      <c r="A66" s="39"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="219"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="45"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="44"/>
-      <c r="O66" s="47"/>
-      <c r="P66" s="48"/>
-    </row>
-    <row r="75" spans="1:16">
-      <c r="G75" s="60"/>
+    <row r="64" spans="1:16" s="6" customFormat="1">
+      <c r="A64" s="39"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="219"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="48"/>
+    </row>
+    <row r="73" spans="7:7">
+      <c r="G73" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L63">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21464,7 +22486,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22393,7 +23415,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -22491,7 +23513,7 @@
         <v>42713</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -22506,7 +23528,7 @@
   <dimension ref="A2:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22933,7 +23955,7 @@
   <dimension ref="B7:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -22950,7 +23972,7 @@
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="369" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="2:2">
@@ -22960,7 +23982,7 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="93" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12" spans="2:2">
@@ -22980,7 +24002,7 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="93" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -23000,7 +24022,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23105,4 +24127,1359 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="4" width="9" style="455"/>
+    <col min="5" max="5" width="10.625" style="455" customWidth="1"/>
+    <col min="6" max="6" width="9" style="455"/>
+    <col min="7" max="7" width="73.25" style="455" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="455"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="27">
+      <c r="A1" s="454" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="210" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="210" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="E1" s="210" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="210" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="297" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="297" t="s">
+        <v>431</v>
+      </c>
+      <c r="I1" s="298" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="298" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="299" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="395" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="396" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="396" t="s">
+        <v>432</v>
+      </c>
+      <c r="O1" s="397" t="s">
+        <v>433</v>
+      </c>
+      <c r="P1" s="398" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="430" customFormat="1" ht="243">
+      <c r="A2" s="162">
+        <v>17</v>
+      </c>
+      <c r="B2" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="417">
+        <v>42552</v>
+      </c>
+      <c r="E2" s="364">
+        <v>42555</v>
+      </c>
+      <c r="F2" s="364" t="s">
+        <v>740</v>
+      </c>
+      <c r="G2" s="301" t="s">
+        <v>741</v>
+      </c>
+      <c r="H2" s="401"/>
+      <c r="I2" s="401" t="s">
+        <v>434</v>
+      </c>
+      <c r="J2" s="363"/>
+      <c r="K2" s="417">
+        <v>42656</v>
+      </c>
+      <c r="L2" s="401" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="401"/>
+      <c r="N2" s="401"/>
+      <c r="O2" s="417">
+        <v>42652</v>
+      </c>
+      <c r="P2" s="439"/>
+    </row>
+    <row r="3" spans="1:16" s="430" customFormat="1" ht="229.5">
+      <c r="A3" s="162">
+        <v>19</v>
+      </c>
+      <c r="B3" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="417">
+        <v>42552</v>
+      </c>
+      <c r="E3" s="364">
+        <v>42555</v>
+      </c>
+      <c r="F3" s="364" t="s">
+        <v>742</v>
+      </c>
+      <c r="G3" s="301" t="s">
+        <v>743</v>
+      </c>
+      <c r="H3" s="401"/>
+      <c r="I3" s="401" t="s">
+        <v>744</v>
+      </c>
+      <c r="J3" s="363"/>
+      <c r="K3" s="417">
+        <v>42666</v>
+      </c>
+      <c r="L3" s="401" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="401"/>
+      <c r="N3" s="401"/>
+      <c r="O3" s="417">
+        <v>42663</v>
+      </c>
+      <c r="P3" s="439" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="430" customFormat="1" ht="256.5">
+      <c r="A4" s="162">
+        <v>26</v>
+      </c>
+      <c r="B4" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="417">
+        <v>42552</v>
+      </c>
+      <c r="E4" s="364">
+        <v>42555</v>
+      </c>
+      <c r="F4" s="364" t="s">
+        <v>745</v>
+      </c>
+      <c r="G4" s="301" t="s">
+        <v>746</v>
+      </c>
+      <c r="H4" s="401" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" s="401" t="s">
+        <v>434</v>
+      </c>
+      <c r="J4" s="363"/>
+      <c r="K4" s="417">
+        <v>42656</v>
+      </c>
+      <c r="L4" s="401" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="401"/>
+      <c r="N4" s="401" t="s">
+        <v>444</v>
+      </c>
+      <c r="O4" s="417">
+        <v>42652</v>
+      </c>
+      <c r="P4" s="439"/>
+    </row>
+    <row r="5" spans="1:16" s="430" customFormat="1" ht="148.5">
+      <c r="A5" s="162">
+        <v>27</v>
+      </c>
+      <c r="B5" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="417">
+        <v>42552</v>
+      </c>
+      <c r="E5" s="364">
+        <v>42555</v>
+      </c>
+      <c r="F5" s="364"/>
+      <c r="G5" s="301" t="s">
+        <v>747</v>
+      </c>
+      <c r="H5" s="401"/>
+      <c r="I5" s="401" t="s">
+        <v>434</v>
+      </c>
+      <c r="J5" s="363"/>
+      <c r="K5" s="417">
+        <v>42656</v>
+      </c>
+      <c r="L5" s="401" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="401"/>
+      <c r="N5" s="401"/>
+      <c r="O5" s="417">
+        <v>42652</v>
+      </c>
+      <c r="P5" s="439"/>
+    </row>
+    <row r="6" spans="1:16" s="145" customFormat="1" ht="270">
+      <c r="A6" s="162">
+        <v>44</v>
+      </c>
+      <c r="B6" s="399" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="360">
+        <v>42552</v>
+      </c>
+      <c r="E6" s="361">
+        <v>42555</v>
+      </c>
+      <c r="F6" s="364" t="s">
+        <v>748</v>
+      </c>
+      <c r="G6" s="301" t="s">
+        <v>749</v>
+      </c>
+      <c r="H6" s="401"/>
+      <c r="I6" s="399" t="s">
+        <v>436</v>
+      </c>
+      <c r="J6" s="64"/>
+      <c r="K6" s="360">
+        <v>42634</v>
+      </c>
+      <c r="L6" s="399" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="401"/>
+      <c r="N6" s="401"/>
+      <c r="O6" s="360">
+        <v>42616</v>
+      </c>
+      <c r="P6" s="402"/>
+    </row>
+    <row r="7" spans="1:16" s="145" customFormat="1">
+      <c r="A7" s="162">
+        <v>51</v>
+      </c>
+      <c r="B7" s="399" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="360">
+        <v>42610</v>
+      </c>
+      <c r="E7" s="361">
+        <v>42612</v>
+      </c>
+      <c r="F7" s="361" t="s">
+        <v>750</v>
+      </c>
+      <c r="G7" s="301" t="s">
+        <v>751</v>
+      </c>
+      <c r="H7" s="401"/>
+      <c r="I7" s="399" t="s">
+        <v>436</v>
+      </c>
+      <c r="J7" s="64"/>
+      <c r="K7" s="360">
+        <v>42634</v>
+      </c>
+      <c r="L7" s="399"/>
+      <c r="M7" s="401"/>
+      <c r="N7" s="401"/>
+      <c r="O7" s="360"/>
+      <c r="P7" s="402"/>
+    </row>
+    <row r="8" spans="1:16" s="145" customFormat="1" ht="310.5">
+      <c r="A8" s="162">
+        <v>52</v>
+      </c>
+      <c r="B8" s="399" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="360">
+        <v>42610</v>
+      </c>
+      <c r="E8" s="361">
+        <v>42612</v>
+      </c>
+      <c r="F8" s="364" t="s">
+        <v>752</v>
+      </c>
+      <c r="G8" s="301" t="s">
+        <v>753</v>
+      </c>
+      <c r="H8" s="401" t="s">
+        <v>269</v>
+      </c>
+      <c r="I8" s="399" t="s">
+        <v>434</v>
+      </c>
+      <c r="J8" s="64"/>
+      <c r="K8" s="360">
+        <v>42643</v>
+      </c>
+      <c r="L8" s="399" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="401"/>
+      <c r="N8" s="401" t="s">
+        <v>452</v>
+      </c>
+      <c r="O8" s="360">
+        <v>42634</v>
+      </c>
+      <c r="P8" s="402"/>
+    </row>
+    <row r="9" spans="1:16" s="145" customFormat="1" ht="54">
+      <c r="A9" s="162">
+        <v>68</v>
+      </c>
+      <c r="B9" s="399" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="360">
+        <v>42610</v>
+      </c>
+      <c r="E9" s="361">
+        <v>42612</v>
+      </c>
+      <c r="F9" s="364" t="s">
+        <v>754</v>
+      </c>
+      <c r="G9" s="301" t="s">
+        <v>755</v>
+      </c>
+      <c r="H9" s="401" t="s">
+        <v>269</v>
+      </c>
+      <c r="I9" s="399" t="s">
+        <v>440</v>
+      </c>
+      <c r="J9" s="64"/>
+      <c r="K9" s="360">
+        <v>42634</v>
+      </c>
+      <c r="L9" s="399" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="401"/>
+      <c r="N9" s="401" t="s">
+        <v>455</v>
+      </c>
+      <c r="O9" s="360">
+        <v>42616</v>
+      </c>
+      <c r="P9" s="402"/>
+    </row>
+    <row r="10" spans="1:16" s="145" customFormat="1" ht="67.5">
+      <c r="A10" s="162">
+        <v>71</v>
+      </c>
+      <c r="B10" s="399" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="360">
+        <v>42610</v>
+      </c>
+      <c r="E10" s="361">
+        <v>42612</v>
+      </c>
+      <c r="F10" s="364" t="s">
+        <v>750</v>
+      </c>
+      <c r="G10" s="126" t="s">
+        <v>756</v>
+      </c>
+      <c r="H10" s="401" t="s">
+        <v>269</v>
+      </c>
+      <c r="I10" s="399" t="s">
+        <v>436</v>
+      </c>
+      <c r="J10" s="64"/>
+      <c r="K10" s="360">
+        <v>42634</v>
+      </c>
+      <c r="L10" s="399" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="401"/>
+      <c r="N10" s="401"/>
+      <c r="O10" s="360">
+        <v>42616</v>
+      </c>
+      <c r="P10" s="402"/>
+    </row>
+    <row r="11" spans="1:16" s="145" customFormat="1" ht="148.5">
+      <c r="A11" s="162">
+        <v>84</v>
+      </c>
+      <c r="B11" s="399" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="360">
+        <v>42616</v>
+      </c>
+      <c r="E11" s="361">
+        <v>42616</v>
+      </c>
+      <c r="F11" s="364" t="s">
+        <v>757</v>
+      </c>
+      <c r="G11" s="126" t="s">
+        <v>758</v>
+      </c>
+      <c r="H11" s="401" t="s">
+        <v>269</v>
+      </c>
+      <c r="I11" s="399" t="s">
+        <v>436</v>
+      </c>
+      <c r="J11" s="64"/>
+      <c r="K11" s="360">
+        <v>42634</v>
+      </c>
+      <c r="L11" s="399" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="401"/>
+      <c r="N11" s="401" t="s">
+        <v>461</v>
+      </c>
+      <c r="O11" s="360"/>
+      <c r="P11" s="402"/>
+    </row>
+    <row r="12" spans="1:16" s="145" customFormat="1" ht="202.5">
+      <c r="A12" s="162">
+        <v>85</v>
+      </c>
+      <c r="B12" s="399" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="360">
+        <v>42616</v>
+      </c>
+      <c r="E12" s="361">
+        <v>42616</v>
+      </c>
+      <c r="F12" s="364" t="s">
+        <v>759</v>
+      </c>
+      <c r="G12" s="301" t="s">
+        <v>760</v>
+      </c>
+      <c r="H12" s="401" t="s">
+        <v>269</v>
+      </c>
+      <c r="I12" s="399" t="s">
+        <v>436</v>
+      </c>
+      <c r="J12" s="64"/>
+      <c r="K12" s="360">
+        <v>42634</v>
+      </c>
+      <c r="L12" s="399" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="401"/>
+      <c r="N12" s="401" t="s">
+        <v>462</v>
+      </c>
+      <c r="O12" s="360"/>
+      <c r="P12" s="402"/>
+    </row>
+    <row r="13" spans="1:16" s="145" customFormat="1" ht="27">
+      <c r="A13" s="162">
+        <v>93</v>
+      </c>
+      <c r="B13" s="399" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="360">
+        <v>42616</v>
+      </c>
+      <c r="E13" s="361">
+        <v>42616</v>
+      </c>
+      <c r="F13" s="364"/>
+      <c r="G13" s="301" t="s">
+        <v>761</v>
+      </c>
+      <c r="H13" s="401"/>
+      <c r="I13" s="399" t="s">
+        <v>434</v>
+      </c>
+      <c r="J13" s="64"/>
+      <c r="K13" s="360">
+        <v>42634</v>
+      </c>
+      <c r="L13" s="399" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="401"/>
+      <c r="N13" s="401" t="s">
+        <v>465</v>
+      </c>
+      <c r="O13" s="360"/>
+      <c r="P13" s="402"/>
+    </row>
+    <row r="14" spans="1:16" s="145" customFormat="1" ht="94.5">
+      <c r="A14" s="162">
+        <v>118</v>
+      </c>
+      <c r="B14" s="399" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="360">
+        <v>42616</v>
+      </c>
+      <c r="E14" s="361">
+        <v>42625</v>
+      </c>
+      <c r="F14" s="364"/>
+      <c r="G14" s="301" t="s">
+        <v>762</v>
+      </c>
+      <c r="H14" s="401"/>
+      <c r="I14" s="151" t="s">
+        <v>434</v>
+      </c>
+      <c r="J14" s="64"/>
+      <c r="K14" s="360">
+        <v>42632</v>
+      </c>
+      <c r="L14" s="399" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="401"/>
+      <c r="N14" s="401"/>
+      <c r="O14" s="360">
+        <v>42630</v>
+      </c>
+      <c r="P14" s="402"/>
+    </row>
+    <row r="15" spans="1:16" s="145" customFormat="1" ht="135">
+      <c r="A15" s="162">
+        <v>119</v>
+      </c>
+      <c r="B15" s="399" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="360">
+        <v>42616</v>
+      </c>
+      <c r="E15" s="361">
+        <v>42625</v>
+      </c>
+      <c r="F15" s="364"/>
+      <c r="G15" s="301" t="s">
+        <v>763</v>
+      </c>
+      <c r="H15" s="401"/>
+      <c r="I15" s="151" t="s">
+        <v>434</v>
+      </c>
+      <c r="J15" s="64"/>
+      <c r="K15" s="360">
+        <v>42634</v>
+      </c>
+      <c r="L15" s="399" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="401"/>
+      <c r="N15" s="401"/>
+      <c r="O15" s="360">
+        <v>42630</v>
+      </c>
+      <c r="P15" s="402"/>
+    </row>
+    <row r="16" spans="1:16" s="145" customFormat="1" ht="40.5">
+      <c r="A16" s="162">
+        <v>124</v>
+      </c>
+      <c r="B16" s="399" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="360">
+        <v>42625</v>
+      </c>
+      <c r="E16" s="361">
+        <v>42627</v>
+      </c>
+      <c r="F16" s="364"/>
+      <c r="G16" s="301" t="s">
+        <v>764</v>
+      </c>
+      <c r="H16" s="401" t="s">
+        <v>269</v>
+      </c>
+      <c r="I16" s="399" t="s">
+        <v>434</v>
+      </c>
+      <c r="J16" s="64"/>
+      <c r="K16" s="360">
+        <v>42634</v>
+      </c>
+      <c r="L16" s="399" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="401"/>
+      <c r="N16" s="401" t="s">
+        <v>478</v>
+      </c>
+      <c r="O16" s="360"/>
+      <c r="P16" s="402"/>
+    </row>
+    <row r="17" spans="1:16" s="145" customFormat="1" ht="40.5">
+      <c r="A17" s="162">
+        <v>126</v>
+      </c>
+      <c r="B17" s="399" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="360">
+        <v>42625</v>
+      </c>
+      <c r="E17" s="361">
+        <v>42627</v>
+      </c>
+      <c r="F17" s="364"/>
+      <c r="G17" s="301" t="s">
+        <v>765</v>
+      </c>
+      <c r="H17" s="401" t="s">
+        <v>269</v>
+      </c>
+      <c r="I17" s="399" t="s">
+        <v>434</v>
+      </c>
+      <c r="J17" s="64"/>
+      <c r="K17" s="360">
+        <v>42634</v>
+      </c>
+      <c r="L17" s="399" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="401"/>
+      <c r="N17" s="401" t="s">
+        <v>479</v>
+      </c>
+      <c r="O17" s="360">
+        <v>42625</v>
+      </c>
+      <c r="P17" s="402"/>
+    </row>
+    <row r="18" spans="1:16" s="145" customFormat="1" ht="81">
+      <c r="A18" s="162">
+        <v>136</v>
+      </c>
+      <c r="B18" s="399" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="360">
+        <v>42625</v>
+      </c>
+      <c r="E18" s="361">
+        <v>42630</v>
+      </c>
+      <c r="F18" s="361"/>
+      <c r="G18" s="301" t="s">
+        <v>766</v>
+      </c>
+      <c r="H18" s="401" t="s">
+        <v>269</v>
+      </c>
+      <c r="I18" s="399" t="s">
+        <v>434</v>
+      </c>
+      <c r="J18" s="64"/>
+      <c r="K18" s="360">
+        <v>42643</v>
+      </c>
+      <c r="L18" s="399" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="401"/>
+      <c r="N18" s="401" t="s">
+        <v>483</v>
+      </c>
+      <c r="O18" s="360">
+        <v>42642</v>
+      </c>
+      <c r="P18" s="402"/>
+    </row>
+    <row r="19" spans="1:16" s="145" customFormat="1" ht="148.5">
+      <c r="A19" s="162">
+        <v>138</v>
+      </c>
+      <c r="B19" s="399" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="360">
+        <v>42625</v>
+      </c>
+      <c r="E19" s="361">
+        <v>42630</v>
+      </c>
+      <c r="F19" s="361"/>
+      <c r="G19" s="126" t="s">
+        <v>767</v>
+      </c>
+      <c r="H19" s="401"/>
+      <c r="I19" s="399" t="s">
+        <v>434</v>
+      </c>
+      <c r="J19" s="64"/>
+      <c r="K19" s="360">
+        <v>42643</v>
+      </c>
+      <c r="L19" s="399" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="401"/>
+      <c r="N19" s="401" t="s">
+        <v>485</v>
+      </c>
+      <c r="O19" s="360">
+        <v>42641</v>
+      </c>
+      <c r="P19" s="402"/>
+    </row>
+    <row r="20" spans="1:16" s="145" customFormat="1" ht="148.5">
+      <c r="A20" s="162">
+        <v>139</v>
+      </c>
+      <c r="B20" s="399" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="360">
+        <v>42625</v>
+      </c>
+      <c r="E20" s="361">
+        <v>42630</v>
+      </c>
+      <c r="F20" s="361" t="s">
+        <v>768</v>
+      </c>
+      <c r="G20" s="126" t="s">
+        <v>769</v>
+      </c>
+      <c r="H20" s="401" t="s">
+        <v>269</v>
+      </c>
+      <c r="I20" s="399" t="s">
+        <v>434</v>
+      </c>
+      <c r="J20" s="64"/>
+      <c r="K20" s="360">
+        <v>42643</v>
+      </c>
+      <c r="L20" s="399" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="401"/>
+      <c r="N20" s="401" t="s">
+        <v>486</v>
+      </c>
+      <c r="O20" s="360">
+        <v>42641</v>
+      </c>
+      <c r="P20" s="402"/>
+    </row>
+    <row r="21" spans="1:16" s="430" customFormat="1" ht="121.5">
+      <c r="A21" s="162">
+        <v>144</v>
+      </c>
+      <c r="B21" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="417">
+        <v>42632</v>
+      </c>
+      <c r="E21" s="460">
+        <v>42633</v>
+      </c>
+      <c r="F21" s="461" t="s">
+        <v>770</v>
+      </c>
+      <c r="G21" s="462" t="s">
+        <v>771</v>
+      </c>
+      <c r="I21" s="463" t="s">
+        <v>434</v>
+      </c>
+      <c r="J21" s="363"/>
+      <c r="K21" s="417">
+        <v>42656</v>
+      </c>
+      <c r="L21" s="430" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" s="430" t="s">
+        <v>487</v>
+      </c>
+      <c r="O21" s="447">
+        <v>42652</v>
+      </c>
+      <c r="P21" s="439"/>
+    </row>
+    <row r="22" spans="1:16" s="430" customFormat="1" ht="121.5">
+      <c r="A22" s="162">
+        <v>184</v>
+      </c>
+      <c r="B22" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="417">
+        <v>42643</v>
+      </c>
+      <c r="E22" s="364">
+        <v>42645</v>
+      </c>
+      <c r="F22" s="364" t="s">
+        <v>285</v>
+      </c>
+      <c r="G22" s="284" t="s">
+        <v>772</v>
+      </c>
+      <c r="H22" s="401" t="s">
+        <v>269</v>
+      </c>
+      <c r="I22" s="463" t="s">
+        <v>434</v>
+      </c>
+      <c r="J22" s="363"/>
+      <c r="K22" s="417">
+        <v>42656</v>
+      </c>
+      <c r="L22" s="401" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="430" t="s">
+        <v>508</v>
+      </c>
+      <c r="O22" s="447">
+        <v>42654</v>
+      </c>
+      <c r="P22" s="430" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="430" customFormat="1" ht="40.5">
+      <c r="A23" s="162">
+        <v>185</v>
+      </c>
+      <c r="B23" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="417">
+        <v>42643</v>
+      </c>
+      <c r="E23" s="364">
+        <v>42645</v>
+      </c>
+      <c r="F23" s="364" t="s">
+        <v>768</v>
+      </c>
+      <c r="G23" s="284" t="s">
+        <v>773</v>
+      </c>
+      <c r="H23" s="401" t="s">
+        <v>269</v>
+      </c>
+      <c r="I23" s="463" t="s">
+        <v>434</v>
+      </c>
+      <c r="J23" s="363"/>
+      <c r="K23" s="417">
+        <v>42656</v>
+      </c>
+      <c r="L23" s="401" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" s="447">
+        <v>42654</v>
+      </c>
+      <c r="P23" s="430" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="430" customFormat="1" ht="121.5">
+      <c r="A24" s="162">
+        <v>186</v>
+      </c>
+      <c r="B24" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="417">
+        <v>42643</v>
+      </c>
+      <c r="E24" s="364">
+        <v>42645</v>
+      </c>
+      <c r="F24" s="364" t="s">
+        <v>774</v>
+      </c>
+      <c r="G24" s="288" t="s">
+        <v>775</v>
+      </c>
+      <c r="H24" s="401" t="s">
+        <v>269</v>
+      </c>
+      <c r="I24" s="463" t="s">
+        <v>434</v>
+      </c>
+      <c r="J24" s="363"/>
+      <c r="K24" s="417">
+        <v>42656</v>
+      </c>
+      <c r="L24" s="401" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" s="430" t="s">
+        <v>508</v>
+      </c>
+      <c r="O24" s="447">
+        <v>42654</v>
+      </c>
+      <c r="P24" s="430" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="430" customFormat="1" ht="121.5">
+      <c r="A25" s="162">
+        <v>187</v>
+      </c>
+      <c r="B25" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="417">
+        <v>42643</v>
+      </c>
+      <c r="E25" s="364">
+        <v>42645</v>
+      </c>
+      <c r="F25" s="364" t="s">
+        <v>776</v>
+      </c>
+      <c r="G25" s="288" t="s">
+        <v>777</v>
+      </c>
+      <c r="H25" s="401" t="s">
+        <v>269</v>
+      </c>
+      <c r="I25" s="463" t="s">
+        <v>434</v>
+      </c>
+      <c r="J25" s="363"/>
+      <c r="K25" s="417">
+        <v>42656</v>
+      </c>
+      <c r="L25" s="401" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="430" t="s">
+        <v>508</v>
+      </c>
+      <c r="O25" s="447">
+        <v>42654</v>
+      </c>
+      <c r="P25" s="430" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="430" customFormat="1" ht="40.5">
+      <c r="A26" s="162">
+        <v>214</v>
+      </c>
+      <c r="B26" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="417">
+        <v>42651</v>
+      </c>
+      <c r="E26" s="364">
+        <v>42653</v>
+      </c>
+      <c r="F26" s="364" t="s">
+        <v>778</v>
+      </c>
+      <c r="G26" s="244" t="s">
+        <v>779</v>
+      </c>
+      <c r="H26" s="401"/>
+      <c r="I26" s="463" t="s">
+        <v>434</v>
+      </c>
+      <c r="J26" s="363"/>
+      <c r="K26" s="417">
+        <v>42656</v>
+      </c>
+      <c r="L26" s="401" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" s="447">
+        <v>42656</v>
+      </c>
+      <c r="P26" s="430" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="430" customFormat="1" ht="54">
+      <c r="A27" s="162">
+        <v>223</v>
+      </c>
+      <c r="B27" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="417">
+        <v>42656</v>
+      </c>
+      <c r="E27" s="364">
+        <v>42656</v>
+      </c>
+      <c r="F27" s="364" t="s">
+        <v>780</v>
+      </c>
+      <c r="G27" s="284" t="s">
+        <v>781</v>
+      </c>
+      <c r="H27" s="401" t="s">
+        <v>269</v>
+      </c>
+      <c r="I27" s="464" t="s">
+        <v>744</v>
+      </c>
+      <c r="J27" s="455"/>
+      <c r="K27" s="447">
+        <v>42669</v>
+      </c>
+      <c r="L27" s="401"/>
+      <c r="O27" s="447"/>
+      <c r="P27" s="430" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="430" customFormat="1" ht="27">
+      <c r="A28" s="162">
+        <v>229</v>
+      </c>
+      <c r="B28" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="417">
+        <v>42656</v>
+      </c>
+      <c r="E28" s="364">
+        <v>42657</v>
+      </c>
+      <c r="F28" s="364" t="s">
+        <v>782</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>783</v>
+      </c>
+      <c r="H28" s="401" t="s">
+        <v>269</v>
+      </c>
+      <c r="I28" s="430" t="s">
+        <v>784</v>
+      </c>
+      <c r="K28" s="447">
+        <v>42666</v>
+      </c>
+      <c r="L28" s="401"/>
+      <c r="O28" s="447"/>
+      <c r="P28" s="430" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="430" customFormat="1" ht="108">
+      <c r="A29" s="162">
+        <v>271</v>
+      </c>
+      <c r="B29" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="417">
+        <v>42695</v>
+      </c>
+      <c r="E29" s="364">
+        <v>42695</v>
+      </c>
+      <c r="F29" s="430" t="s">
+        <v>785</v>
+      </c>
+      <c r="G29" s="353" t="s">
+        <v>786</v>
+      </c>
+      <c r="I29" s="430" t="s">
+        <v>787</v>
+      </c>
+      <c r="K29" s="447">
+        <v>42715</v>
+      </c>
+      <c r="L29" s="430" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" s="447">
+        <v>42708</v>
+      </c>
+      <c r="P29" s="430" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="430" customFormat="1" ht="54">
+      <c r="A30" s="162">
+        <v>274</v>
+      </c>
+      <c r="B30" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="417">
+        <v>42695</v>
+      </c>
+      <c r="E30" s="364">
+        <v>42695</v>
+      </c>
+      <c r="F30" s="430" t="s">
+        <v>788</v>
+      </c>
+      <c r="G30" s="389" t="s">
+        <v>789</v>
+      </c>
+      <c r="H30" s="430" t="s">
+        <v>790</v>
+      </c>
+      <c r="I30" s="430" t="s">
+        <v>787</v>
+      </c>
+      <c r="K30" s="447">
+        <v>42713</v>
+      </c>
+      <c r="L30" s="430" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="430" t="s">
+        <v>707</v>
+      </c>
+      <c r="O30" s="447">
+        <v>42710</v>
+      </c>
+      <c r="P30" s="430" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="430" customFormat="1" ht="81">
+      <c r="A31" s="162">
+        <v>276</v>
+      </c>
+      <c r="B31" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="417">
+        <v>42695</v>
+      </c>
+      <c r="E31" s="364">
+        <v>42695</v>
+      </c>
+      <c r="F31" s="430" t="s">
+        <v>788</v>
+      </c>
+      <c r="G31" s="353" t="s">
+        <v>791</v>
+      </c>
+      <c r="H31" s="430" t="s">
+        <v>790</v>
+      </c>
+      <c r="I31" s="430" t="s">
+        <v>787</v>
+      </c>
+      <c r="K31" s="447">
+        <v>42713</v>
+      </c>
+      <c r="L31" s="430" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" s="430" t="s">
+        <v>708</v>
+      </c>
+      <c r="O31" s="447">
+        <v>42710</v>
+      </c>
+      <c r="P31" s="430" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="430" customFormat="1" ht="81">
+      <c r="A32" s="162">
+        <v>284</v>
+      </c>
+      <c r="B32" s="401" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="401" t="s">
+        <v>792</v>
+      </c>
+      <c r="D32" s="417">
+        <v>42713</v>
+      </c>
+      <c r="E32" s="364">
+        <v>42715</v>
+      </c>
+      <c r="F32" s="430" t="s">
+        <v>793</v>
+      </c>
+      <c r="G32" s="353" t="s">
+        <v>794</v>
+      </c>
+      <c r="I32" s="430" t="s">
+        <v>787</v>
+      </c>
+      <c r="K32" s="447">
+        <v>42715</v>
+      </c>
+      <c r="L32" s="430" t="s">
+        <v>52</v>
+      </c>
+      <c r="O32" s="447">
+        <v>42715</v>
+      </c>
+      <c r="P32" s="430" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I2:I32">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="返回">
+      <formula>NOT(ISERROR(SEARCH("返回",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="返回">
+      <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/测试单-电子书_txt-word_161211.xlsx
+++ b/测试单-电子书_txt-word_161211.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="16605" windowHeight="9435" tabRatio="784" activeTab="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="796">
   <si>
     <t>编号</t>
   </si>
@@ -5589,6 +5589,10 @@
   <si>
     <t>【目录浏览】读卡内文件，若是拆分部分的大文档，如“大唐双龙传160M.txt”。在各部分的列表画面，拔出卡。待弹出“存储卡已拔出”的提示后，在某个部分上按OK，仍会读一会儿，然后会自动退到部分列表，tts丢失。而且中间会闪下主菜单。
 【12月11日版】【规格实现】拆分部分大文档中的各部分的列表画面，拔出卡，画面不更新。待弹出“存储卡已拔出”的提示后，在某个部分上按OK，会弹出提示“文件不存在”并播报。OK。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6649,7 +6653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="465">
+  <cellXfs count="466">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8058,6 +8062,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="64">
@@ -9351,10 +9358,10 @@
   <dimension ref="A1:P288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="N298" sqref="N298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19471,7 +19478,9 @@
       <c r="N248" s="393" t="s">
         <v>701</v>
       </c>
-      <c r="O248" s="393"/>
+      <c r="O248" s="465">
+        <v>42719</v>
+      </c>
       <c r="P248" s="394" t="s">
         <v>376</v>
       </c>
@@ -20387,14 +20396,14 @@
         <v>684</v>
       </c>
       <c r="L270" s="394" t="s">
-        <v>52</v>
+        <v>795</v>
       </c>
       <c r="M270" s="394"/>
       <c r="N270" s="394" t="s">
         <v>705</v>
       </c>
       <c r="O270" s="440">
-        <v>42709</v>
+        <v>42719</v>
       </c>
       <c r="P270" s="394" t="s">
         <v>376</v>
@@ -20433,7 +20442,7 @@
         <v>705</v>
       </c>
       <c r="O271" s="440">
-        <v>42709</v>
+        <v>42719</v>
       </c>
       <c r="P271" s="394" t="s">
         <v>376</v>
@@ -20472,7 +20481,7 @@
         <v>705</v>
       </c>
       <c r="O272" s="440">
-        <v>42709</v>
+        <v>42719</v>
       </c>
       <c r="P272" s="394" t="s">
         <v>376</v>
